--- a/Analysis/Micro Machines tables.xlsx
+++ b/Analysis/Micro Machines tables.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maxim\Documents\Code\C#\MicroMachinesEditor\Analysis\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="9765" windowHeight="9195"/>
   </bookViews>
@@ -11,13 +16,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="75">
   <si>
     <t>0f0e0f0e0d0e0e0f</t>
   </si>
@@ -211,9 +215,6 @@
     <t>Acceleration</t>
   </si>
   <si>
-    <t>15 or more causes glitches, 0 = can't move</t>
-  </si>
-  <si>
     <t>Steering speed</t>
   </si>
   <si>
@@ -221,6 +222,30 @@
   </si>
   <si>
     <t>Smaller = faster</t>
+  </si>
+  <si>
+    <t>&gt;15 causes glitches (exceeds screen scroll rate), 0 = can't move</t>
+  </si>
+  <si>
+    <t>A75E</t>
+  </si>
+  <si>
+    <t>D6C4</t>
+  </si>
+  <si>
+    <t>FFFFFF00FFFF01FFFF02FFFFFF00FFFF01FFFFFF02FFFFFF00FF</t>
+  </si>
+  <si>
+    <t>Car tile data table</t>
+  </si>
+  <si>
+    <t>0D0D0D0D0C0C0C04</t>
+  </si>
+  <si>
+    <t>58F048500030D06A</t>
+  </si>
+  <si>
+    <t>898C9093808386A9</t>
   </si>
 </sst>
 </file>
@@ -278,6 +303,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -325,7 +353,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -360,7 +388,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -569,25 +597,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF43"/>
+  <dimension ref="A1:AF52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="O46" sqref="O46:P53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="60.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="60.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="32" width="6.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.45">
       <c r="C3" t="s">
         <v>1</v>
       </c>
@@ -679,7 +707,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -806,13 +834,13 @@
         <v>07</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.45">
       <c r="D5" t="str">
-        <f>HLOOKUP(HEX2DEC(D4),$D$24:$K$30,ROW($D$30)-ROW($D$24)+1,FALSE)</f>
+        <f>HLOOKUP(HEX2DEC(D4),$D$25:$K$31,ROW($D$31)-ROW($D$25)+1,FALSE)</f>
         <v>Bathtub</v>
       </c>
       <c r="E5" t="str">
-        <f t="shared" ref="E5:AF5" si="1">HLOOKUP(HEX2DEC(E4),$D$24:$K$30,ROW($D$30)-ROW($D$24)+1,FALSE)</f>
+        <f t="shared" ref="E5:AF5" si="1">HLOOKUP(HEX2DEC(E4),$D$25:$K$31,ROW($D$31)-ROW($D$25)+1,FALSE)</f>
         <v>Breakfast</v>
       </c>
       <c r="F5" t="str">
@@ -924,7 +952,7 @@
         <v>Bonus</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -935,7 +963,7 @@
         <v>20</v>
       </c>
       <c r="D6" t="str">
-        <f t="shared" ref="D6:D14" si="2">MID($C6,(D$3)*2+1,2)</f>
+        <f t="shared" ref="D6:D15" si="2">MID($C6,(D$3)*2+1,2)</f>
         <v>00</v>
       </c>
       <c r="E6" t="str">
@@ -1051,7 +1079,7 @@
         <v>02</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -1178,7 +1206,7 @@
         <v>08</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -1305,7 +1333,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -1432,7 +1460,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -1559,7 +1587,7 @@
         <v>06</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>32</v>
       </c>
@@ -1686,7 +1714,7 @@
         <v>06</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>36</v>
       </c>
@@ -1813,7 +1841,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>37</v>
       </c>
@@ -1928,7 +1956,7 @@
         <v>18</v>
       </c>
       <c r="AD13" t="str">
-        <f t="shared" ref="AD13:AF14" si="3">MID($C13,(AD$3)*2+1,2)</f>
+        <f t="shared" ref="AD13:AF15" si="3">MID($C13,(AD$3)*2+1,2)</f>
         <v>17</v>
       </c>
       <c r="AE13" t="str">
@@ -1940,7 +1968,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -1955,7 +1983,7 @@
         <v>08</v>
       </c>
       <c r="E14" t="str">
-        <f t="shared" ref="E14:AC14" si="4">MID($C14,(E$3)*2+1,2)</f>
+        <f t="shared" ref="E14:AC15" si="4">MID($C14,(E$3)*2+1,2)</f>
         <v>07</v>
       </c>
       <c r="F14" t="str">
@@ -2067,815 +2095,1157 @@
         <v>07</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="D16" t="str">
-        <f>D30</f>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="2"/>
+        <v>FF</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="4"/>
+        <v>FF</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="4"/>
+        <v>FF</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="4"/>
+        <v>00</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="4"/>
+        <v>FF</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="4"/>
+        <v>FF</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="4"/>
+        <v>01</v>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" si="4"/>
+        <v>FF</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" si="4"/>
+        <v>FF</v>
+      </c>
+      <c r="M15" t="str">
+        <f t="shared" si="4"/>
+        <v>02</v>
+      </c>
+      <c r="N15" t="str">
+        <f t="shared" si="4"/>
+        <v>FF</v>
+      </c>
+      <c r="O15" t="str">
+        <f t="shared" si="4"/>
+        <v>FF</v>
+      </c>
+      <c r="P15" t="str">
+        <f t="shared" si="4"/>
+        <v>FF</v>
+      </c>
+      <c r="Q15" t="str">
+        <f t="shared" si="4"/>
+        <v>00</v>
+      </c>
+      <c r="R15" t="str">
+        <f t="shared" si="4"/>
+        <v>FF</v>
+      </c>
+      <c r="S15" t="str">
+        <f t="shared" si="4"/>
+        <v>FF</v>
+      </c>
+      <c r="T15" t="str">
+        <f t="shared" si="4"/>
+        <v>01</v>
+      </c>
+      <c r="U15" t="str">
+        <f t="shared" si="4"/>
+        <v>FF</v>
+      </c>
+      <c r="V15" t="str">
+        <f t="shared" si="4"/>
+        <v>FF</v>
+      </c>
+      <c r="W15" t="str">
+        <f t="shared" si="4"/>
+        <v>FF</v>
+      </c>
+      <c r="X15" t="str">
+        <f t="shared" si="4"/>
+        <v>02</v>
+      </c>
+      <c r="Y15" t="str">
+        <f t="shared" si="4"/>
+        <v>FF</v>
+      </c>
+      <c r="Z15" t="str">
+        <f t="shared" si="4"/>
+        <v>FF</v>
+      </c>
+      <c r="AA15" t="str">
+        <f t="shared" si="4"/>
+        <v>FF</v>
+      </c>
+      <c r="AB15" t="str">
+        <f t="shared" si="4"/>
+        <v>00</v>
+      </c>
+      <c r="AC15" t="str">
+        <f t="shared" si="4"/>
+        <v>FF</v>
+      </c>
+      <c r="AD15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AE15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AF15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="D17" t="str">
+        <f>D31</f>
         <v>Desk</v>
       </c>
-      <c r="E16" t="str">
-        <f>E30</f>
+      <c r="E17" t="str">
+        <f>E31</f>
         <v>Breakfast</v>
       </c>
-      <c r="F16" t="str">
-        <f t="shared" ref="F16:K16" si="5">F30</f>
+      <c r="F17" t="str">
+        <f t="shared" ref="F17:K17" si="5">F31</f>
         <v>Bathtub</v>
       </c>
-      <c r="G16" t="str">
+      <c r="G17" t="str">
         <f t="shared" si="5"/>
         <v>Sandpit</v>
       </c>
-      <c r="H16" t="str">
+      <c r="H17" t="str">
         <f t="shared" si="5"/>
         <v>F1</v>
       </c>
-      <c r="I16" t="str">
+      <c r="I17" t="str">
         <f t="shared" si="5"/>
         <v>Garage</v>
       </c>
-      <c r="J16" t="str">
+      <c r="J17" t="str">
         <f t="shared" si="5"/>
         <v>Tanks</v>
       </c>
-      <c r="K16" t="str">
+      <c r="K17" t="str">
         <f t="shared" si="5"/>
         <v>Bonus</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C17" t="str">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="C18" t="str">
         <f>B7</f>
         <v>db98 table (SMS)</v>
       </c>
-      <c r="D17">
+      <c r="D18">
         <f>HEX2DEC(F7)</f>
         <v>11</v>
       </c>
-      <c r="E17">
+      <c r="E18">
         <f>HEX2DEC(E7)</f>
         <v>8</v>
       </c>
-      <c r="F17">
+      <c r="F18">
         <f>HEX2DEC(D7)</f>
         <v>9</v>
       </c>
-      <c r="G17">
+      <c r="G18">
         <f>HEX2DEC(H7)</f>
         <v>11</v>
       </c>
-      <c r="H17">
-        <f t="shared" ref="H17:I20" si="6">HEX2DEC(J7)</f>
+      <c r="H18">
+        <f>HEX2DEC(J7)</f>
         <v>11</v>
       </c>
-      <c r="I17">
-        <f t="shared" si="6"/>
+      <c r="I18">
+        <f>HEX2DEC(K7)</f>
         <v>10</v>
       </c>
-      <c r="J17">
+      <c r="J18">
         <f>HEX2DEC(Q7)</f>
         <v>7</v>
       </c>
-      <c r="K17">
+      <c r="K18">
         <f>HEX2DEC(AD7)</f>
         <v>8</v>
       </c>
-      <c r="L17" t="s">
+      <c r="L18" t="s">
         <v>62</v>
       </c>
-      <c r="M17" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C18" t="str">
+      <c r="M18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="C19" t="str">
         <f>B8</f>
         <v>db99 table (SMS)</v>
       </c>
-      <c r="D18">
+      <c r="D19">
         <f>HEX2DEC(F8)</f>
         <v>9</v>
       </c>
-      <c r="E18">
+      <c r="E19">
         <f>HEX2DEC(E8)</f>
         <v>18</v>
       </c>
-      <c r="F18">
+      <c r="F19">
         <f>HEX2DEC(D8)</f>
         <v>16</v>
       </c>
-      <c r="G18">
+      <c r="G19">
         <f>HEX2DEC(H8)</f>
         <v>13</v>
       </c>
-      <c r="H18">
-        <f t="shared" si="6"/>
+      <c r="H19">
+        <f>HEX2DEC(J8)</f>
         <v>15</v>
       </c>
-      <c r="I18">
-        <f t="shared" si="6"/>
+      <c r="I19">
+        <f>HEX2DEC(K8)</f>
         <v>18</v>
       </c>
-      <c r="J18">
+      <c r="J19">
         <f>HEX2DEC(Q8)</f>
         <v>6</v>
       </c>
-      <c r="K18">
+      <c r="K19">
         <f>HEX2DEC(AD8)</f>
         <v>19</v>
       </c>
-      <c r="L18" t="s">
+      <c r="L19" t="s">
         <v>63</v>
       </c>
-      <c r="M18" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C19" t="str">
+      <c r="M19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="C20" t="str">
         <f>B9</f>
         <v>db9a table (SMS)</v>
       </c>
-      <c r="D19">
+      <c r="D20">
         <f>HEX2DEC(F9)</f>
         <v>22</v>
       </c>
-      <c r="E19">
+      <c r="E20">
         <f>HEX2DEC(E9)</f>
         <v>5</v>
       </c>
-      <c r="F19">
+      <c r="F20">
         <f>HEX2DEC(D9)</f>
         <v>18</v>
       </c>
-      <c r="G19">
+      <c r="G20">
         <f>HEX2DEC(H9)</f>
         <v>25</v>
       </c>
-      <c r="H19">
-        <f t="shared" si="6"/>
+      <c r="H20">
+        <f>HEX2DEC(J9)</f>
         <v>26</v>
       </c>
-      <c r="I19">
-        <f t="shared" si="6"/>
+      <c r="I20">
+        <f>HEX2DEC(K9)</f>
         <v>39</v>
       </c>
-      <c r="J19">
+      <c r="J20">
         <f>HEX2DEC(Q9)</f>
         <v>6</v>
       </c>
-      <c r="K19">
+      <c r="K20">
         <f>HEX2DEC(AD9)</f>
         <v>21</v>
       </c>
-      <c r="L19" t="s">
+      <c r="L20" t="s">
+        <v>65</v>
+      </c>
+      <c r="M20" t="s">
         <v>66</v>
       </c>
-      <c r="M19" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C20" t="str">
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="C21" t="str">
         <f>B10</f>
         <v>db9b table (SMS)</v>
       </c>
-      <c r="D20">
+      <c r="D21">
         <f>HEX2DEC(F10)</f>
         <v>7</v>
       </c>
-      <c r="E20">
+      <c r="E21">
         <f>HEX2DEC(E10)</f>
         <v>6</v>
       </c>
-      <c r="F20">
+      <c r="F21">
         <f>HEX2DEC(D10)</f>
         <v>7</v>
       </c>
-      <c r="G20">
+      <c r="G21">
         <f>HEX2DEC(H10)</f>
         <v>6</v>
       </c>
-      <c r="H20">
-        <f t="shared" si="6"/>
+      <c r="H21">
+        <f>HEX2DEC(J10)</f>
         <v>6</v>
       </c>
-      <c r="I20">
-        <f t="shared" si="6"/>
+      <c r="I21">
+        <f>HEX2DEC(K10)</f>
         <v>6</v>
       </c>
-      <c r="J20">
+      <c r="J21">
         <f>HEX2DEC(Q10)</f>
         <v>9</v>
       </c>
-      <c r="K20">
+      <c r="K21">
         <f>HEX2DEC(AD10)</f>
         <v>6</v>
       </c>
-      <c r="L20" t="s">
-        <v>65</v>
-      </c>
-      <c r="M20" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="L21" t="s">
+        <v>64</v>
+      </c>
+      <c r="M21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="C25" t="s">
         <v>1</v>
       </c>
-      <c r="D24">
+      <c r="D25">
         <v>0</v>
       </c>
-      <c r="E24">
+      <c r="E25">
         <v>1</v>
       </c>
-      <c r="F24">
+      <c r="F25">
         <v>2</v>
       </c>
-      <c r="G24">
+      <c r="G25">
         <v>3</v>
       </c>
-      <c r="H24">
+      <c r="H25">
         <v>4</v>
       </c>
-      <c r="I24">
+      <c r="I25">
         <v>5</v>
       </c>
-      <c r="J24">
+      <c r="J25">
         <v>6</v>
       </c>
-      <c r="K24">
+      <c r="K25">
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
         <v>8</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>21</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>0</v>
       </c>
-      <c r="D25" t="str">
-        <f t="shared" ref="D25:K25" si="7">MID($C25,(D$24)*2+1,2)</f>
+      <c r="D26" t="str">
+        <f t="shared" ref="D26:K26" si="6">MID($C26,(D$25)*2+1,2)</f>
         <v>0f</v>
       </c>
-      <c r="E25" t="str">
+      <c r="E26" t="str">
+        <f t="shared" si="6"/>
+        <v>0e</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="6"/>
+        <v>0f</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="6"/>
+        <v>0e</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="6"/>
+        <v>0d</v>
+      </c>
+      <c r="I26" t="str">
+        <f t="shared" si="6"/>
+        <v>0e</v>
+      </c>
+      <c r="J26" t="str">
+        <f t="shared" si="6"/>
+        <v>0e</v>
+      </c>
+      <c r="K26" t="str">
+        <f t="shared" si="6"/>
+        <v>0f</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" t="str">
+        <f>MID($C27,(D$25)*2+1,2)</f>
+        <v>00</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" ref="E27:K28" si="7">MID($C27,(E$25)*2+1,2)</f>
+        <v>83</v>
+      </c>
+      <c r="F27" t="str">
         <f t="shared" si="7"/>
+        <v>01</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="7"/>
+        <v>00</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" si="7"/>
+        <v>00</v>
+      </c>
+      <c r="I27" t="str">
+        <f t="shared" si="7"/>
+        <v>fa</v>
+      </c>
+      <c r="J27" t="str">
+        <f t="shared" si="7"/>
+        <v>68</v>
+      </c>
+      <c r="K27" t="str">
+        <f t="shared" si="7"/>
+        <v>8d</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" t="str">
+        <f>MID($C28,(D$25)*2+1,2)</f>
+        <v>80</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="7"/>
+        <v>9c</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="7"/>
+        <v>99</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="7"/>
+        <v>80</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="7"/>
+        <v>80</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" si="7"/>
+        <v>a8</v>
+      </c>
+      <c r="J28" t="str">
+        <f t="shared" si="7"/>
+        <v>91</v>
+      </c>
+      <c r="K28" t="str">
+        <f t="shared" si="7"/>
+        <v>8d</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" ref="D30:K30" si="8">DEC2HEX(HEX2DEC(D26)*16*1024-32*1024+HEX2DEC(D28&amp;D27))</f>
+        <v>3C000</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="8"/>
+        <v>39C83</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="8"/>
+        <v>3D901</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="8"/>
+        <v>38000</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="8"/>
+        <v>34000</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="8"/>
+        <v>3A8FA</v>
+      </c>
+      <c r="J30" t="str">
+        <f t="shared" si="8"/>
+        <v>39168</v>
+      </c>
+      <c r="K30" t="str">
+        <f t="shared" si="8"/>
+        <v>3CD8D</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="D31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" t="s">
+        <v>6</v>
+      </c>
+      <c r="G31" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" t="s">
+        <v>11</v>
+      </c>
+      <c r="I31" t="s">
+        <v>7</v>
+      </c>
+      <c r="J31" t="s">
+        <v>12</v>
+      </c>
+      <c r="K31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" ref="D35:K35" si="9">MID($C$35,(COLUMN()-COLUMN($D$35))*16+1,16)</f>
+        <v>0e1710061d0d130f</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="9"/>
+        <v>0114020710050000</v>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" si="9"/>
+        <v>04050b0807080417</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="9"/>
+        <v>04140706081a0000</v>
+      </c>
+      <c r="H35" t="str">
+        <f t="shared" si="9"/>
+        <v>0d070d171c070000</v>
+      </c>
+      <c r="I35" t="str">
+        <f t="shared" si="9"/>
+        <v>13150c110e1d0000</v>
+      </c>
+      <c r="J35" t="str">
+        <f t="shared" si="9"/>
+        <v>040a050f0d130000</v>
+      </c>
+      <c r="K35" t="str">
+        <f t="shared" si="9"/>
+        <v>0211030f15130000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="C36" s="2"/>
+      <c r="D36" t="s">
+        <v>50</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" ref="E36:K36" si="10">DEC2HEX(HEX2DEC(D36)+8)</f>
+        <v>3EA8</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" si="10"/>
+        <v>3EB0</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="10"/>
+        <v>3EB8</v>
+      </c>
+      <c r="H36" t="str">
+        <f t="shared" si="10"/>
+        <v>3EC0</v>
+      </c>
+      <c r="I36" t="str">
+        <f t="shared" si="10"/>
+        <v>3EC8</v>
+      </c>
+      <c r="J36" t="str">
+        <f t="shared" si="10"/>
+        <v>3ED0</v>
+      </c>
+      <c r="K36" t="str">
+        <f t="shared" si="10"/>
+        <v>3ED8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="C37" t="s">
+        <v>53</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" ref="D37:K44" si="11">MID(D$35,(ROW()-ROW($D$37))*2+1,2)</f>
         <v>0e</v>
       </c>
-      <c r="F25" t="str">
-        <f t="shared" si="7"/>
+      <c r="E37" t="str">
+        <f t="shared" si="11"/>
+        <v>01</v>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" si="11"/>
+        <v>04</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="11"/>
+        <v>04</v>
+      </c>
+      <c r="H37" t="str">
+        <f t="shared" si="11"/>
+        <v>0d</v>
+      </c>
+      <c r="I37" t="str">
+        <f t="shared" si="11"/>
+        <v>13</v>
+      </c>
+      <c r="J37" t="str">
+        <f t="shared" si="11"/>
+        <v>04</v>
+      </c>
+      <c r="K37" t="str">
+        <f t="shared" si="11"/>
+        <v>02</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="C38" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="11"/>
+        <v>17</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="11"/>
+        <v>14</v>
+      </c>
+      <c r="F38" t="str">
+        <f t="shared" si="11"/>
+        <v>05</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="11"/>
+        <v>14</v>
+      </c>
+      <c r="H38" t="str">
+        <f t="shared" si="11"/>
+        <v>07</v>
+      </c>
+      <c r="I38" t="str">
+        <f t="shared" si="11"/>
+        <v>15</v>
+      </c>
+      <c r="J38" t="str">
+        <f t="shared" si="11"/>
+        <v>0a</v>
+      </c>
+      <c r="K38" t="str">
+        <f t="shared" si="11"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="C39" t="s">
+        <v>55</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="11"/>
+        <v>02</v>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" si="11"/>
+        <v>0b</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="11"/>
+        <v>07</v>
+      </c>
+      <c r="H39" t="str">
+        <f t="shared" si="11"/>
+        <v>0d</v>
+      </c>
+      <c r="I39" t="str">
+        <f t="shared" si="11"/>
+        <v>0c</v>
+      </c>
+      <c r="J39" t="str">
+        <f t="shared" si="11"/>
+        <v>05</v>
+      </c>
+      <c r="K39" t="str">
+        <f t="shared" si="11"/>
+        <v>03</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="C40" t="s">
+        <v>56</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="11"/>
+        <v>06</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="11"/>
+        <v>07</v>
+      </c>
+      <c r="F40" t="str">
+        <f t="shared" si="11"/>
+        <v>08</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="11"/>
+        <v>06</v>
+      </c>
+      <c r="H40" t="str">
+        <f t="shared" si="11"/>
+        <v>17</v>
+      </c>
+      <c r="I40" t="str">
+        <f t="shared" si="11"/>
+        <v>11</v>
+      </c>
+      <c r="J40" t="str">
+        <f t="shared" si="11"/>
         <v>0f</v>
       </c>
-      <c r="G25" t="str">
-        <f t="shared" si="7"/>
+      <c r="K40" t="str">
+        <f t="shared" si="11"/>
+        <v>0f</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="C41" t="s">
+        <v>57</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="11"/>
+        <v>1d</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="F41" t="str">
+        <f t="shared" si="11"/>
+        <v>07</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="11"/>
+        <v>08</v>
+      </c>
+      <c r="H41" t="str">
+        <f t="shared" si="11"/>
+        <v>1c</v>
+      </c>
+      <c r="I41" t="str">
+        <f t="shared" si="11"/>
         <v>0e</v>
       </c>
-      <c r="H25" t="str">
-        <f t="shared" si="7"/>
+      <c r="J41" t="str">
+        <f t="shared" si="11"/>
         <v>0d</v>
       </c>
-      <c r="I25" t="str">
-        <f t="shared" si="7"/>
-        <v>0e</v>
-      </c>
-      <c r="J25" t="str">
-        <f t="shared" si="7"/>
-        <v>0e</v>
-      </c>
-      <c r="K25" t="str">
-        <f t="shared" si="7"/>
+      <c r="K41" t="str">
+        <f t="shared" si="11"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="C42" t="s">
+        <v>58</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="11"/>
+        <v>0d</v>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" si="11"/>
+        <v>05</v>
+      </c>
+      <c r="F42" t="str">
+        <f t="shared" si="11"/>
+        <v>08</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="11"/>
+        <v>1a</v>
+      </c>
+      <c r="H42" t="str">
+        <f t="shared" si="11"/>
+        <v>07</v>
+      </c>
+      <c r="I42" t="str">
+        <f t="shared" si="11"/>
+        <v>1d</v>
+      </c>
+      <c r="J42" t="str">
+        <f t="shared" si="11"/>
+        <v>13</v>
+      </c>
+      <c r="K42" t="str">
+        <f t="shared" si="11"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="C43" t="s">
+        <v>59</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="11"/>
+        <v>13</v>
+      </c>
+      <c r="E43" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>00</v>
+      </c>
+      <c r="F43" t="str">
+        <f t="shared" si="11"/>
+        <v>04</v>
+      </c>
+      <c r="G43" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>00</v>
+      </c>
+      <c r="H43" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>00</v>
+      </c>
+      <c r="I43" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>00</v>
+      </c>
+      <c r="J43" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>00</v>
+      </c>
+      <c r="K43" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="C44" t="s">
+        <v>60</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="11"/>
         <v>0f</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="E44" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>00</v>
+      </c>
+      <c r="F44" t="str">
+        <f t="shared" si="11"/>
+        <v>17</v>
+      </c>
+      <c r="G44" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>00</v>
+      </c>
+      <c r="H44" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>00</v>
+      </c>
+      <c r="I44" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>00</v>
+      </c>
+      <c r="J44" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>00</v>
+      </c>
+      <c r="K44" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>2</v>
+      </c>
+      <c r="G46">
         <v>3</v>
       </c>
-      <c r="D26" t="str">
-        <f>MID($C26,(D$24)*2+1,2)</f>
-        <v>00</v>
-      </c>
-      <c r="E26" t="str">
-        <f t="shared" ref="E26:K27" si="8">MID($C26,(E$24)*2+1,2)</f>
-        <v>83</v>
-      </c>
-      <c r="F26" t="str">
-        <f t="shared" si="8"/>
-        <v>01</v>
-      </c>
-      <c r="G26" t="str">
-        <f t="shared" si="8"/>
-        <v>00</v>
-      </c>
-      <c r="H26" t="str">
-        <f t="shared" si="8"/>
-        <v>00</v>
-      </c>
-      <c r="I26" t="str">
-        <f t="shared" si="8"/>
-        <v>fa</v>
-      </c>
-      <c r="J26" t="str">
-        <f t="shared" si="8"/>
-        <v>68</v>
-      </c>
-      <c r="K26" t="str">
-        <f t="shared" si="8"/>
-        <v>8d</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" t="s">
-        <v>2</v>
-      </c>
-      <c r="D27" t="str">
-        <f>MID($C27,(D$24)*2+1,2)</f>
-        <v>80</v>
-      </c>
-      <c r="E27" t="str">
-        <f t="shared" si="8"/>
-        <v>9c</v>
-      </c>
-      <c r="F27" t="str">
-        <f t="shared" si="8"/>
-        <v>99</v>
-      </c>
-      <c r="G27" t="str">
-        <f t="shared" si="8"/>
-        <v>80</v>
-      </c>
-      <c r="H27" t="str">
-        <f t="shared" si="8"/>
-        <v>80</v>
-      </c>
-      <c r="I27" t="str">
-        <f t="shared" si="8"/>
-        <v>a8</v>
-      </c>
-      <c r="J27" t="str">
-        <f t="shared" si="8"/>
-        <v>91</v>
-      </c>
-      <c r="K27" t="str">
-        <f t="shared" si="8"/>
-        <v>8d</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>23</v>
-      </c>
-      <c r="D29" t="str">
-        <f t="shared" ref="D29:K29" si="9">DEC2HEX(HEX2DEC(D25)*16*1024-32*1024+HEX2DEC(D27&amp;D26))</f>
-        <v>3C000</v>
-      </c>
-      <c r="E29" t="str">
-        <f t="shared" si="9"/>
-        <v>39C83</v>
-      </c>
-      <c r="F29" t="str">
-        <f t="shared" si="9"/>
-        <v>3D901</v>
-      </c>
-      <c r="G29" t="str">
-        <f t="shared" si="9"/>
-        <v>38000</v>
-      </c>
-      <c r="H29" t="str">
-        <f t="shared" si="9"/>
-        <v>34000</v>
-      </c>
-      <c r="I29" t="str">
-        <f t="shared" si="9"/>
-        <v>3A8FA</v>
-      </c>
-      <c r="J29" t="str">
-        <f t="shared" si="9"/>
-        <v>39168</v>
-      </c>
-      <c r="K29" t="str">
-        <f t="shared" si="9"/>
-        <v>3CD8D</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D30" t="s">
+      <c r="H46">
         <v>4</v>
       </c>
-      <c r="E30" t="s">
+      <c r="I46">
         <v>5</v>
       </c>
-      <c r="F30" t="s">
+      <c r="J46">
         <v>6</v>
       </c>
-      <c r="G30" t="s">
-        <v>13</v>
-      </c>
-      <c r="H30" t="s">
-        <v>11</v>
-      </c>
-      <c r="I30" t="s">
+      <c r="K46">
         <v>7</v>
       </c>
-      <c r="J30" t="s">
-        <v>12</v>
-      </c>
-      <c r="K30" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>50</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D34" t="str">
-        <f t="shared" ref="D34:K34" si="10">MID($C$34,(COLUMN()-COLUMN($D$34))*16+1,16)</f>
-        <v>0e1710061d0d130f</v>
-      </c>
-      <c r="E34" t="str">
-        <f t="shared" si="10"/>
-        <v>0114020710050000</v>
-      </c>
-      <c r="F34" t="str">
-        <f t="shared" si="10"/>
-        <v>04050b0807080417</v>
-      </c>
-      <c r="G34" t="str">
-        <f t="shared" si="10"/>
-        <v>04140706081a0000</v>
-      </c>
-      <c r="H34" t="str">
-        <f t="shared" si="10"/>
-        <v>0d070d171c070000</v>
-      </c>
-      <c r="I34" t="str">
-        <f t="shared" si="10"/>
-        <v>13150c110e1d0000</v>
-      </c>
-      <c r="J34" t="str">
-        <f t="shared" si="10"/>
-        <v>040a050f0d130000</v>
-      </c>
-      <c r="K34" t="str">
-        <f t="shared" si="10"/>
-        <v>0211030f15130000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C35" s="2"/>
-      <c r="D35" t="s">
-        <v>50</v>
-      </c>
-      <c r="E35" t="str">
-        <f t="shared" ref="E35:K35" si="11">DEC2HEX(HEX2DEC(D35)+8)</f>
-        <v>3EA8</v>
-      </c>
-      <c r="F35" t="str">
-        <f t="shared" si="11"/>
-        <v>3EB0</v>
-      </c>
-      <c r="G35" t="str">
-        <f t="shared" si="11"/>
-        <v>3EB8</v>
-      </c>
-      <c r="H35" t="str">
-        <f t="shared" si="11"/>
-        <v>3EC0</v>
-      </c>
-      <c r="I35" t="str">
-        <f t="shared" si="11"/>
-        <v>3EC8</v>
-      </c>
-      <c r="J35" t="str">
-        <f t="shared" si="11"/>
-        <v>3ED0</v>
-      </c>
-      <c r="K35" t="str">
-        <f t="shared" si="11"/>
-        <v>3ED8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C36" t="s">
-        <v>53</v>
-      </c>
-      <c r="D36" t="str">
-        <f t="shared" ref="D36:K43" si="12">MID(D$34,(ROW()-ROW($D$36))*2+1,2)</f>
-        <v>0e</v>
-      </c>
-      <c r="E36" t="str">
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B47" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47" t="s">
+        <v>72</v>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" ref="D47:K49" si="12">MID($C47,(D$25)*2+1,2)</f>
+        <v>0D</v>
+      </c>
+      <c r="E47" t="str">
         <f t="shared" si="12"/>
-        <v>01</v>
-      </c>
-      <c r="F36" t="str">
+        <v>0D</v>
+      </c>
+      <c r="F47" t="str">
+        <f t="shared" si="12"/>
+        <v>0D</v>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" si="12"/>
+        <v>0D</v>
+      </c>
+      <c r="H47" t="str">
+        <f t="shared" si="12"/>
+        <v>0C</v>
+      </c>
+      <c r="I47" t="str">
+        <f t="shared" si="12"/>
+        <v>0C</v>
+      </c>
+      <c r="J47" t="str">
+        <f t="shared" si="12"/>
+        <v>0C</v>
+      </c>
+      <c r="K47" t="str">
         <f t="shared" si="12"/>
         <v>04</v>
       </c>
-      <c r="G36" t="str">
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B48" t="s">
+        <v>61</v>
+      </c>
+      <c r="C48" t="s">
+        <v>73</v>
+      </c>
+      <c r="D48" t="str">
+        <f>MID($C48,(D$25)*2+1,2)</f>
+        <v>58</v>
+      </c>
+      <c r="E48" t="str">
         <f t="shared" si="12"/>
-        <v>04</v>
-      </c>
-      <c r="H36" t="str">
+        <v>F0</v>
+      </c>
+      <c r="F48" t="str">
         <f t="shared" si="12"/>
-        <v>0d</v>
-      </c>
-      <c r="I36" t="str">
+        <v>48</v>
+      </c>
+      <c r="G48" t="str">
         <f t="shared" si="12"/>
-        <v>13</v>
-      </c>
-      <c r="J36" t="str">
-        <f t="shared" si="12"/>
-        <v>04</v>
-      </c>
-      <c r="K36" t="str">
-        <f t="shared" si="12"/>
-        <v>02</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C37" t="s">
-        <v>54</v>
-      </c>
-      <c r="D37" t="str">
-        <f t="shared" si="12"/>
-        <v>17</v>
-      </c>
-      <c r="E37" t="str">
-        <f t="shared" si="12"/>
-        <v>14</v>
-      </c>
-      <c r="F37" t="str">
-        <f t="shared" si="12"/>
-        <v>05</v>
-      </c>
-      <c r="G37" t="str">
-        <f t="shared" si="12"/>
-        <v>14</v>
-      </c>
-      <c r="H37" t="str">
-        <f t="shared" si="12"/>
-        <v>07</v>
-      </c>
-      <c r="I37" t="str">
-        <f t="shared" si="12"/>
-        <v>15</v>
-      </c>
-      <c r="J37" t="str">
-        <f t="shared" si="12"/>
-        <v>0a</v>
-      </c>
-      <c r="K37" t="str">
-        <f t="shared" si="12"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C38" t="s">
-        <v>55</v>
-      </c>
-      <c r="D38" t="str">
-        <f t="shared" si="12"/>
-        <v>10</v>
-      </c>
-      <c r="E38" t="str">
-        <f t="shared" si="12"/>
-        <v>02</v>
-      </c>
-      <c r="F38" t="str">
-        <f t="shared" si="12"/>
-        <v>0b</v>
-      </c>
-      <c r="G38" t="str">
-        <f t="shared" si="12"/>
-        <v>07</v>
-      </c>
-      <c r="H38" t="str">
-        <f t="shared" si="12"/>
-        <v>0d</v>
-      </c>
-      <c r="I38" t="str">
-        <f t="shared" si="12"/>
-        <v>0c</v>
-      </c>
-      <c r="J38" t="str">
-        <f t="shared" si="12"/>
-        <v>05</v>
-      </c>
-      <c r="K38" t="str">
-        <f t="shared" si="12"/>
-        <v>03</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C39" t="s">
-        <v>56</v>
-      </c>
-      <c r="D39" t="str">
-        <f t="shared" si="12"/>
-        <v>06</v>
-      </c>
-      <c r="E39" t="str">
-        <f t="shared" si="12"/>
-        <v>07</v>
-      </c>
-      <c r="F39" t="str">
-        <f t="shared" si="12"/>
-        <v>08</v>
-      </c>
-      <c r="G39" t="str">
-        <f t="shared" si="12"/>
-        <v>06</v>
-      </c>
-      <c r="H39" t="str">
-        <f t="shared" si="12"/>
-        <v>17</v>
-      </c>
-      <c r="I39" t="str">
-        <f t="shared" si="12"/>
-        <v>11</v>
-      </c>
-      <c r="J39" t="str">
-        <f t="shared" si="12"/>
-        <v>0f</v>
-      </c>
-      <c r="K39" t="str">
-        <f t="shared" si="12"/>
-        <v>0f</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C40" t="s">
-        <v>57</v>
-      </c>
-      <c r="D40" t="str">
-        <f t="shared" si="12"/>
-        <v>1d</v>
-      </c>
-      <c r="E40" t="str">
-        <f t="shared" si="12"/>
-        <v>10</v>
-      </c>
-      <c r="F40" t="str">
-        <f t="shared" si="12"/>
-        <v>07</v>
-      </c>
-      <c r="G40" t="str">
-        <f t="shared" si="12"/>
-        <v>08</v>
-      </c>
-      <c r="H40" t="str">
-        <f t="shared" si="12"/>
-        <v>1c</v>
-      </c>
-      <c r="I40" t="str">
-        <f t="shared" si="12"/>
-        <v>0e</v>
-      </c>
-      <c r="J40" t="str">
-        <f t="shared" si="12"/>
-        <v>0d</v>
-      </c>
-      <c r="K40" t="str">
-        <f t="shared" si="12"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C41" t="s">
-        <v>58</v>
-      </c>
-      <c r="D41" t="str">
-        <f t="shared" si="12"/>
-        <v>0d</v>
-      </c>
-      <c r="E41" t="str">
-        <f t="shared" si="12"/>
-        <v>05</v>
-      </c>
-      <c r="F41" t="str">
-        <f t="shared" si="12"/>
-        <v>08</v>
-      </c>
-      <c r="G41" t="str">
-        <f t="shared" si="12"/>
-        <v>1a</v>
-      </c>
-      <c r="H41" t="str">
-        <f t="shared" si="12"/>
-        <v>07</v>
-      </c>
-      <c r="I41" t="str">
-        <f t="shared" si="12"/>
-        <v>1d</v>
-      </c>
-      <c r="J41" t="str">
-        <f t="shared" si="12"/>
-        <v>13</v>
-      </c>
-      <c r="K41" t="str">
-        <f t="shared" si="12"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C42" t="s">
-        <v>59</v>
-      </c>
-      <c r="D42" t="str">
-        <f t="shared" si="12"/>
-        <v>13</v>
-      </c>
-      <c r="E42" s="3" t="str">
+        <v>50</v>
+      </c>
+      <c r="H48" t="str">
         <f t="shared" si="12"/>
         <v>00</v>
       </c>
-      <c r="F42" t="str">
+      <c r="I48" t="str">
         <f t="shared" si="12"/>
-        <v>04</v>
-      </c>
-      <c r="G42" s="3" t="str">
+        <v>30</v>
+      </c>
+      <c r="J48" t="str">
         <f t="shared" si="12"/>
-        <v>00</v>
-      </c>
-      <c r="H42" s="3" t="str">
+        <v>D0</v>
+      </c>
+      <c r="K48" t="str">
         <f t="shared" si="12"/>
-        <v>00</v>
-      </c>
-      <c r="I42" s="3" t="str">
+        <v>6A</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B49" t="s">
+        <v>22</v>
+      </c>
+      <c r="C49" t="s">
+        <v>74</v>
+      </c>
+      <c r="D49" t="str">
+        <f>MID($C49,(D$25)*2+1,2)</f>
+        <v>89</v>
+      </c>
+      <c r="E49" t="str">
         <f t="shared" si="12"/>
-        <v>00</v>
-      </c>
-      <c r="J42" s="3" t="str">
+        <v>8C</v>
+      </c>
+      <c r="F49" t="str">
         <f t="shared" si="12"/>
-        <v>00</v>
-      </c>
-      <c r="K42" s="3" t="str">
+        <v>90</v>
+      </c>
+      <c r="G49" t="str">
         <f t="shared" si="12"/>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C43" t="s">
-        <v>60</v>
-      </c>
-      <c r="D43" t="str">
+        <v>93</v>
+      </c>
+      <c r="H49" t="str">
         <f t="shared" si="12"/>
-        <v>0f</v>
-      </c>
-      <c r="E43" s="3" t="str">
+        <v>80</v>
+      </c>
+      <c r="I49" t="str">
         <f t="shared" si="12"/>
-        <v>00</v>
-      </c>
-      <c r="F43" t="str">
+        <v>83</v>
+      </c>
+      <c r="J49" t="str">
         <f t="shared" si="12"/>
-        <v>17</v>
-      </c>
-      <c r="G43" s="3" t="str">
+        <v>86</v>
+      </c>
+      <c r="K49" t="str">
         <f t="shared" si="12"/>
-        <v>00</v>
-      </c>
-      <c r="H43" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>00</v>
-      </c>
-      <c r="I43" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>00</v>
-      </c>
-      <c r="J43" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>00</v>
-      </c>
-      <c r="K43" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>00</v>
+        <v>A9</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B51" t="s">
+        <v>23</v>
+      </c>
+      <c r="D51" t="str">
+        <f t="shared" ref="D51:K51" si="13">DEC2HEX(HEX2DEC(D47)*16*1024-32*1024+HEX2DEC(D49&amp;D48))</f>
+        <v>34958</v>
+      </c>
+      <c r="E51" t="str">
+        <f t="shared" si="13"/>
+        <v>34CF0</v>
+      </c>
+      <c r="F51" t="str">
+        <f t="shared" si="13"/>
+        <v>35048</v>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" si="13"/>
+        <v>35350</v>
+      </c>
+      <c r="H51" t="str">
+        <f t="shared" si="13"/>
+        <v>30000</v>
+      </c>
+      <c r="I51" t="str">
+        <f t="shared" si="13"/>
+        <v>30330</v>
+      </c>
+      <c r="J51" t="str">
+        <f t="shared" si="13"/>
+        <v>306D0</v>
+      </c>
+      <c r="K51" t="str">
+        <f t="shared" si="13"/>
+        <v>1296A</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="D52" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" t="s">
+        <v>6</v>
+      </c>
+      <c r="G52" t="s">
+        <v>13</v>
+      </c>
+      <c r="H52" t="s">
+        <v>11</v>
+      </c>
+      <c r="I52" t="s">
+        <v>7</v>
+      </c>
+      <c r="J52" t="s">
+        <v>12</v>
+      </c>
+      <c r="K52" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -2892,15 +3262,15 @@
       <selection activeCell="L1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B5" s="1"/>
     </row>
   </sheetData>
@@ -2914,7 +3284,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Analysis/Micro Machines tables.xlsx
+++ b/Analysis/Micro Machines tables.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="9765" windowHeight="9195" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="9765" windowHeight="9195" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Splash sound" sheetId="2" r:id="rId2"/>
     <sheet name="Splash tile data" sheetId="3" r:id="rId3"/>
+    <sheet name="Palette" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="148">
   <si>
     <t>0f0e0f0e0d0e0e0f</t>
   </si>
@@ -433,6 +434,39 @@
   </si>
   <si>
     <t>1A</t>
+  </si>
+  <si>
+    <t>GG</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Offset</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>SMS</t>
+  </si>
+  <si>
+    <t>Byte</t>
+  </si>
+  <si>
+    <t>JASC-PAL</t>
+  </si>
+  <si>
+    <t>00 17 0D 00 39 15 2A 3F 0B 00 00 00 00 00 00 00</t>
+  </si>
+  <si>
+    <t>0100</t>
   </si>
 </sst>
 </file>
@@ -937,11 +971,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="312452632"/>
-        <c:axId val="312454200"/>
+        <c:axId val="474209832"/>
+        <c:axId val="474210224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="312452632"/>
+        <c:axId val="474209832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -983,7 +1017,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="312454200"/>
+        <c:crossAx val="474210224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -991,7 +1025,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="312454200"/>
+        <c:axId val="474210224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1043,7 +1077,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="312452632"/>
+        <c:crossAx val="474209832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1107,7 +1141,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1466,11 +1499,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="312452240"/>
-        <c:axId val="312453024"/>
+        <c:axId val="474211400"/>
+        <c:axId val="474212184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="312452240"/>
+        <c:axId val="474211400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1512,7 +1545,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="312453024"/>
+        <c:crossAx val="474212184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1520,7 +1553,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="312453024"/>
+        <c:axId val="474212184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1571,7 +1604,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="312452240"/>
+        <c:crossAx val="474211400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5745,8 +5778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="E121" sqref="E121"/>
+    <sheetView topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="D122" sqref="D122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -22255,4 +22288,2402 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AA3" sqref="AA3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="22" width="4.265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I2" t="s">
+        <v>142</v>
+      </c>
+      <c r="N2" t="s">
+        <v>143</v>
+      </c>
+      <c r="O2" t="s">
+        <v>141</v>
+      </c>
+      <c r="P2" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>138</v>
+      </c>
+      <c r="R2" t="s">
+        <v>139</v>
+      </c>
+      <c r="S2" t="s">
+        <v>140</v>
+      </c>
+      <c r="T2" t="s">
+        <v>138</v>
+      </c>
+      <c r="U2" t="s">
+        <v>139</v>
+      </c>
+      <c r="V2" t="s">
+        <v>140</v>
+      </c>
+      <c r="W2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="B3">
+        <f>(ROW()-ROW($B$3))*6+1</f>
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <f>HEX2DEC(MID($B$1,$B3,1))</f>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <f>HEX2DEC(MID($B$1,$B3+1,1))</f>
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f>HEX2DEC(MID($B$1,$B3+3,1))</f>
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <f>E3*255/15</f>
+        <v>17</v>
+      </c>
+      <c r="G3">
+        <f>D3*255/15</f>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f>C3*255/15</f>
+        <v>0</v>
+      </c>
+      <c r="I3" t="str">
+        <f>"  GGCOLOUR $"&amp;DEC2HEX(F3*65536+G3*256+H3,6)</f>
+        <v xml:space="preserve">  GGCOLOUR $110000</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O12" si="0">(ROW()-ROW($B$3))*3+1</f>
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P12" si="1">HEX2DEC(MID($B$1,O3,2))</f>
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q12" si="2">_xlfn.BITAND(P3,3)</f>
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R12" si="3">_xlfn.BITAND(_xlfn.BITRSHIFT(P3,2),3)</f>
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ref="S3:S12" si="4">_xlfn.BITAND(_xlfn.BITRSHIFT(P3,4),3)</f>
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <f t="shared" ref="T3:T12" si="5">Q3*255/3</f>
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <f t="shared" ref="U3:U12" si="6">R3*255/3</f>
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <f t="shared" ref="V3:V12" si="7">S3*255/3</f>
+        <v>0</v>
+      </c>
+      <c r="W3" t="str">
+        <f>"  SMSCOLOUR $"&amp;DEC2HEX(T3*65536+U3*256+V3,6)</f>
+        <v xml:space="preserve">  SMSCOLOUR $000000</v>
+      </c>
+      <c r="AA3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="B4">
+        <f>(ROW()-ROW($B$3))*6+1</f>
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <f>HEX2DEC(MID($B$1,$B4,1))</f>
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <f>HEX2DEC(MID($B$1,$B4+1,1))</f>
+        <v>13</v>
+      </c>
+      <c r="E4">
+        <f>HEX2DEC(MID($B$1,$B4+3,1))</f>
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f>E4*255/15</f>
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <f>D4*255/15</f>
+        <v>221</v>
+      </c>
+      <c r="H4">
+        <f>C4*255/15</f>
+        <v>0</v>
+      </c>
+      <c r="I4" t="str">
+        <f>"  GGCOLOUR $"&amp;DEC2HEX(F4*65536+G4*256+H4,6)</f>
+        <v xml:space="preserve">  GGCOLOUR $00DD00</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="5"/>
+        <v>255</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="6"/>
+        <v>85</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="7"/>
+        <v>85</v>
+      </c>
+      <c r="W4" t="str">
+        <f t="shared" ref="W4:W12" si="8">"  SMSCOLOUR $"&amp;DEC2HEX(T4*65536+U4*256+V4,6)</f>
+        <v xml:space="preserve">  SMSCOLOUR $FF5555</v>
+      </c>
+      <c r="AA4" t="str">
+        <f>T3&amp;" "&amp;U3&amp;" "&amp;V3</f>
+        <v>0 0 0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="B5">
+        <f t="shared" ref="B5:B34" si="9">(ROW()-ROW($B$3))*6+1</f>
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:C34" si="10">HEX2DEC(MID($B$1,$B5,1))</f>
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:D34" si="11">HEX2DEC(MID($B$1,$B5+1,1))</f>
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:E34" si="12">HEX2DEC(MID($B$1,$B5+3,1))</f>
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F5:F34" si="13">E5*255/15</f>
+        <v>17</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ref="G5:G22" si="14">D5*255/15</f>
+        <v>153</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ref="H5:H22" si="15">C5*255/15</f>
+        <v>51</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" ref="I5:I22" si="16">"  GGCOLOUR $"&amp;DEC2HEX(F5*65536+G5*256+H5,6)</f>
+        <v xml:space="preserve">  GGCOLOUR $119933</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="5"/>
+        <v>85</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="6"/>
+        <v>255</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W5" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">  SMSCOLOUR $55FF00</v>
+      </c>
+      <c r="AA5" t="str">
+        <f>T4&amp;" "&amp;U4&amp;" "&amp;V4</f>
+        <v>255 85 85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="B6">
+        <f t="shared" si="9"/>
+        <v>19</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="13"/>
+        <v>51</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="14"/>
+        <v>170</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="15"/>
+        <v>34</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">  GGCOLOUR $33AA22</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W6" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">  SMSCOLOUR $000000</v>
+      </c>
+      <c r="AA6" t="str">
+        <f>T5&amp;" "&amp;U5&amp;" "&amp;V5</f>
+        <v>85 255 0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="B7">
+        <f t="shared" si="9"/>
+        <v>25</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="11"/>
+        <v>11</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="14"/>
+        <v>187</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">  GGCOLOUR $00BB00</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="5"/>
+        <v>85</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="6"/>
+        <v>170</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="7"/>
+        <v>255</v>
+      </c>
+      <c r="W7" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">  SMSCOLOUR $55AAFF</v>
+      </c>
+      <c r="AA7" t="str">
+        <f>T6&amp;" "&amp;U6&amp;" "&amp;V6</f>
+        <v>0 0 0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="B8">
+        <f t="shared" si="9"/>
+        <v>31</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">  GGCOLOUR $000000</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="5"/>
+        <v>85</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="6"/>
+        <v>85</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="7"/>
+        <v>85</v>
+      </c>
+      <c r="W8" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">  SMSCOLOUR $555555</v>
+      </c>
+      <c r="AA8" t="str">
+        <f>T7&amp;" "&amp;U7&amp;" "&amp;V7</f>
+        <v>85 170 255</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="B9">
+        <f t="shared" si="9"/>
+        <v>37</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">  GGCOLOUR $000000</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="5"/>
+        <v>170</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="6"/>
+        <v>170</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="7"/>
+        <v>170</v>
+      </c>
+      <c r="W9" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">  SMSCOLOUR $AAAAAA</v>
+      </c>
+      <c r="AA9" t="str">
+        <f>T8&amp;" "&amp;U8&amp;" "&amp;V8</f>
+        <v>85 85 85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="B10">
+        <f t="shared" si="9"/>
+        <v>43</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">  GGCOLOUR $000000</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="5"/>
+        <v>255</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="6"/>
+        <v>255</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="7"/>
+        <v>255</v>
+      </c>
+      <c r="W10" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">  SMSCOLOUR $FFFFFF</v>
+      </c>
+      <c r="AA10" t="str">
+        <f>T9&amp;" "&amp;U9&amp;" "&amp;V9</f>
+        <v>170 170 170</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="B11">
+        <f t="shared" si="9"/>
+        <v>49</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">  GGCOLOUR $000000</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="5"/>
+        <v>255</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="6"/>
+        <v>170</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W11" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">  SMSCOLOUR $FFAA00</v>
+      </c>
+      <c r="AA11" t="str">
+        <f>T10&amp;" "&amp;U10&amp;" "&amp;V10</f>
+        <v>255 255 255</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="B12">
+        <f t="shared" si="9"/>
+        <v>55</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">  GGCOLOUR $000000</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W12" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">  SMSCOLOUR $000000</v>
+      </c>
+      <c r="AA12" t="str">
+        <f>T11&amp;" "&amp;U11&amp;" "&amp;V11</f>
+        <v>255 170 0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="B13">
+        <f t="shared" si="9"/>
+        <v>61</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">  GGCOLOUR $000000</v>
+      </c>
+      <c r="O13">
+        <f t="shared" ref="O13:O34" si="17">(ROW()-ROW($B$3))*3+1</f>
+        <v>31</v>
+      </c>
+      <c r="P13">
+        <f t="shared" ref="P13:P34" si="18">HEX2DEC(MID($B$1,O13,2))</f>
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" ref="Q13:Q34" si="19">_xlfn.BITAND(P13,3)</f>
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <f t="shared" ref="R13:R34" si="20">_xlfn.BITAND(_xlfn.BITRSHIFT(P13,2),3)</f>
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <f t="shared" ref="S13:S34" si="21">_xlfn.BITAND(_xlfn.BITRSHIFT(P13,4),3)</f>
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <f t="shared" ref="T13:T34" si="22">Q13*255/3</f>
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <f t="shared" ref="U13:U34" si="23">R13*255/3</f>
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <f t="shared" ref="V13:V34" si="24">S13*255/3</f>
+        <v>0</v>
+      </c>
+      <c r="W13" t="str">
+        <f t="shared" ref="W13:W34" si="25">"  SMSCOLOUR $"&amp;DEC2HEX(T13*65536+U13*256+V13,6)</f>
+        <v xml:space="preserve">  SMSCOLOUR $000000</v>
+      </c>
+      <c r="AA13" t="str">
+        <f>T12&amp;" "&amp;U12&amp;" "&amp;V12</f>
+        <v>0 0 0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="B14">
+        <f t="shared" si="9"/>
+        <v>67</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">  GGCOLOUR $000000</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="17"/>
+        <v>34</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="W14" t="str">
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">  SMSCOLOUR $000000</v>
+      </c>
+      <c r="AA14" t="str">
+        <f>T13&amp;" "&amp;U13&amp;" "&amp;V13</f>
+        <v>0 0 0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="B15">
+        <f t="shared" si="9"/>
+        <v>73</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">  GGCOLOUR $000000</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="17"/>
+        <v>37</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="W15" t="str">
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">  SMSCOLOUR $000000</v>
+      </c>
+      <c r="AA15" t="str">
+        <f>T14&amp;" "&amp;U14&amp;" "&amp;V14</f>
+        <v>0 0 0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="B16">
+        <f t="shared" si="9"/>
+        <v>79</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">  GGCOLOUR $000000</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="17"/>
+        <v>40</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="W16" t="str">
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">  SMSCOLOUR $000000</v>
+      </c>
+      <c r="AA16" t="str">
+        <f>T15&amp;" "&amp;U15&amp;" "&amp;V15</f>
+        <v>0 0 0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:27" x14ac:dyDescent="0.45">
+      <c r="B17">
+        <f t="shared" si="9"/>
+        <v>85</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">  GGCOLOUR $000000</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="17"/>
+        <v>43</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="W17" t="str">
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">  SMSCOLOUR $000000</v>
+      </c>
+      <c r="AA17" t="str">
+        <f>T16&amp;" "&amp;U16&amp;" "&amp;V16</f>
+        <v>0 0 0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:27" x14ac:dyDescent="0.45">
+      <c r="B18">
+        <f t="shared" si="9"/>
+        <v>91</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">  GGCOLOUR $000000</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="17"/>
+        <v>46</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="W18" t="str">
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">  SMSCOLOUR $000000</v>
+      </c>
+      <c r="AA18" t="str">
+        <f>T17&amp;" "&amp;U17&amp;" "&amp;V17</f>
+        <v>0 0 0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:27" x14ac:dyDescent="0.45">
+      <c r="B19">
+        <f t="shared" si="9"/>
+        <v>97</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">  GGCOLOUR $000000</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="17"/>
+        <v>49</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="W19" t="str">
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">  SMSCOLOUR $000000</v>
+      </c>
+      <c r="AA19" t="str">
+        <f>T18&amp;" "&amp;U18&amp;" "&amp;V18</f>
+        <v>0 0 0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:27" x14ac:dyDescent="0.45">
+      <c r="B20">
+        <f t="shared" si="9"/>
+        <v>103</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">  GGCOLOUR $000000</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="17"/>
+        <v>52</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="W20" t="str">
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">  SMSCOLOUR $000000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:27" x14ac:dyDescent="0.45">
+      <c r="B21">
+        <f t="shared" si="9"/>
+        <v>109</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">  GGCOLOUR $000000</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="17"/>
+        <v>55</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="W21" t="str">
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">  SMSCOLOUR $000000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:27" x14ac:dyDescent="0.45">
+      <c r="B22">
+        <f t="shared" si="9"/>
+        <v>115</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I22" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">  GGCOLOUR $000000</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="17"/>
+        <v>58</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="W22" t="str">
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">  SMSCOLOUR $000000</v>
+      </c>
+    </row>
+    <row r="23" spans="2:27" x14ac:dyDescent="0.45">
+      <c r="B23">
+        <f t="shared" si="9"/>
+        <v>121</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <f t="shared" ref="G23:G34" si="26">D23*255/15</f>
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <f t="shared" ref="H23:H34" si="27">C23*255/15</f>
+        <v>0</v>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" ref="I23:I34" si="28">"  GGCOLOUR $"&amp;DEC2HEX(F23*65536+G23*256+H23,6)</f>
+        <v xml:space="preserve">  GGCOLOUR $000000</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="17"/>
+        <v>61</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="W23" t="str">
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">  SMSCOLOUR $000000</v>
+      </c>
+    </row>
+    <row r="24" spans="2:27" x14ac:dyDescent="0.45">
+      <c r="B24">
+        <f t="shared" si="9"/>
+        <v>127</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="I24" t="str">
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">  GGCOLOUR $000000</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="17"/>
+        <v>64</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="W24" t="str">
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">  SMSCOLOUR $000000</v>
+      </c>
+    </row>
+    <row r="25" spans="2:27" x14ac:dyDescent="0.45">
+      <c r="B25">
+        <f t="shared" si="9"/>
+        <v>133</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="I25" t="str">
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">  GGCOLOUR $000000</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="17"/>
+        <v>67</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="W25" t="str">
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">  SMSCOLOUR $000000</v>
+      </c>
+    </row>
+    <row r="26" spans="2:27" x14ac:dyDescent="0.45">
+      <c r="B26">
+        <f t="shared" si="9"/>
+        <v>139</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="I26" t="str">
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">  GGCOLOUR $000000</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="17"/>
+        <v>70</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="W26" t="str">
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">  SMSCOLOUR $000000</v>
+      </c>
+    </row>
+    <row r="27" spans="2:27" x14ac:dyDescent="0.45">
+      <c r="B27">
+        <f t="shared" si="9"/>
+        <v>145</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="I27" t="str">
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">  GGCOLOUR $000000</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="17"/>
+        <v>73</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="W27" t="str">
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">  SMSCOLOUR $000000</v>
+      </c>
+    </row>
+    <row r="28" spans="2:27" x14ac:dyDescent="0.45">
+      <c r="B28">
+        <f t="shared" si="9"/>
+        <v>151</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">  GGCOLOUR $000000</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="17"/>
+        <v>76</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="W28" t="str">
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">  SMSCOLOUR $000000</v>
+      </c>
+    </row>
+    <row r="29" spans="2:27" x14ac:dyDescent="0.45">
+      <c r="B29">
+        <f t="shared" si="9"/>
+        <v>157</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">  GGCOLOUR $000000</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="17"/>
+        <v>79</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="W29" t="str">
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">  SMSCOLOUR $000000</v>
+      </c>
+    </row>
+    <row r="30" spans="2:27" x14ac:dyDescent="0.45">
+      <c r="B30">
+        <f t="shared" si="9"/>
+        <v>163</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">  GGCOLOUR $000000</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="17"/>
+        <v>82</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="W30" t="str">
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">  SMSCOLOUR $000000</v>
+      </c>
+    </row>
+    <row r="31" spans="2:27" x14ac:dyDescent="0.45">
+      <c r="B31">
+        <f t="shared" si="9"/>
+        <v>169</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">  GGCOLOUR $000000</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="17"/>
+        <v>85</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="W31" t="str">
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">  SMSCOLOUR $000000</v>
+      </c>
+    </row>
+    <row r="32" spans="2:27" x14ac:dyDescent="0.45">
+      <c r="B32">
+        <f t="shared" si="9"/>
+        <v>175</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="I32" t="str">
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">  GGCOLOUR $000000</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="17"/>
+        <v>88</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="W32" t="str">
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">  SMSCOLOUR $000000</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.45">
+      <c r="B33">
+        <f t="shared" si="9"/>
+        <v>181</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">  GGCOLOUR $000000</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="17"/>
+        <v>91</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="W33" t="str">
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">  SMSCOLOUR $000000</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.45">
+      <c r="B34">
+        <f t="shared" si="9"/>
+        <v>187</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="I34" t="str">
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">  GGCOLOUR $000000</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="17"/>
+        <v>94</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="W34" t="str">
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">  SMSCOLOUR $000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Analysis/Micro Machines tables.xlsx
+++ b/Analysis/Micro Machines tables.xlsx
@@ -463,10 +463,10 @@
     <t>JASC-PAL</t>
   </si>
   <si>
-    <t>00 17 0D 00 39 15 2A 3F 0B 00 00 00 00 00 00 00</t>
+    <t>0100</t>
   </si>
   <si>
-    <t>0100</t>
+    <t>00 00 44 00 48 00 EE 0E 88 08 44 04 08 00 40 08 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 4E 04 E4 00 00 00 84 0E 44 04 88 08 EE 0E 8E 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00</t>
   </si>
 </sst>
 </file>
@@ -22294,8 +22294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA3" sqref="AA3"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3:I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -22308,7 +22308,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AA1" t="s">
         <v>145</v>
@@ -22373,7 +22373,7 @@
         <v>142</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
@@ -22382,20 +22382,20 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <f>HEX2DEC(MID($B$1,$B3,1))</f>
+        <f>HEX2DEC(MID($B$1,$B3+4,1))</f>
         <v>0</v>
       </c>
       <c r="D3">
+        <f>HEX2DEC(MID($B$1,$B3+0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="E3">
         <f>HEX2DEC(MID($B$1,$B3+1,1))</f>
         <v>0</v>
-      </c>
-      <c r="E3">
-        <f>HEX2DEC(MID($B$1,$B3+3,1))</f>
-        <v>1</v>
       </c>
       <c r="F3">
         <f>E3*255/15</f>
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <f>D3*255/15</f>
@@ -22407,7 +22407,7 @@
       </c>
       <c r="I3" t="str">
         <f>"  GGCOLOUR $"&amp;DEC2HEX(F3*65536+G3*256+H3,6)</f>
-        <v xml:space="preserve">  GGCOLOUR $110000</v>
+        <v xml:space="preserve">  GGCOLOUR $000000</v>
       </c>
       <c r="O3">
         <f t="shared" ref="O3:O12" si="0">(ROW()-ROW($B$3))*3+1</f>
@@ -22455,24 +22455,24 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <f>HEX2DEC(MID($B$1,$B4,1))</f>
+        <f t="shared" ref="C4:C34" si="8">HEX2DEC(MID($B$1,$B4+4,1))</f>
         <v>0</v>
       </c>
       <c r="D4">
-        <f>HEX2DEC(MID($B$1,$B4+1,1))</f>
-        <v>13</v>
+        <f t="shared" ref="D4:D34" si="9">HEX2DEC(MID($B$1,$B4+0,1))</f>
+        <v>4</v>
       </c>
       <c r="E4">
-        <f>HEX2DEC(MID($B$1,$B4+3,1))</f>
-        <v>0</v>
+        <f t="shared" ref="E4:E34" si="10">HEX2DEC(MID($B$1,$B4+1,1))</f>
+        <v>4</v>
       </c>
       <c r="F4">
         <f>E4*255/15</f>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="G4">
         <f>D4*255/15</f>
-        <v>221</v>
+        <v>68</v>
       </c>
       <c r="H4">
         <f>C4*255/15</f>
@@ -22480,7 +22480,7 @@
       </c>
       <c r="I4" t="str">
         <f>"  GGCOLOUR $"&amp;DEC2HEX(F4*65536+G4*256+H4,6)</f>
-        <v xml:space="preserve">  GGCOLOUR $00DD00</v>
+        <v xml:space="preserve">  GGCOLOUR $444400</v>
       </c>
       <c r="O4">
         <f t="shared" si="0"/>
@@ -22488,35 +22488,35 @@
       </c>
       <c r="P4">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R4">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4">
         <f t="shared" si="5"/>
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="U4">
         <f t="shared" si="6"/>
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="V4">
         <f t="shared" si="7"/>
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="W4" t="str">
-        <f t="shared" ref="W4:W12" si="8">"  SMSCOLOUR $"&amp;DEC2HEX(T4*65536+U4*256+V4,6)</f>
-        <v xml:space="preserve">  SMSCOLOUR $FF5555</v>
+        <f t="shared" ref="W4:W12" si="11">"  SMSCOLOUR $"&amp;DEC2HEX(T4*65536+U4*256+V4,6)</f>
+        <v xml:space="preserve">  SMSCOLOUR $000000</v>
       </c>
       <c r="AA4" t="str">
         <f>T3&amp;" "&amp;U3&amp;" "&amp;V3</f>
@@ -22525,36 +22525,36 @@
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B5">
-        <f t="shared" ref="B5:B34" si="9">(ROW()-ROW($B$3))*6+1</f>
+        <f t="shared" ref="B5:B34" si="12">(ROW()-ROW($B$3))*6+1</f>
         <v>13</v>
       </c>
       <c r="C5">
-        <f t="shared" ref="C5:C34" si="10">HEX2DEC(MID($B$1,$B5,1))</f>
-        <v>3</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="D5">
-        <f t="shared" ref="D5:D34" si="11">HEX2DEC(MID($B$1,$B5+1,1))</f>
-        <v>9</v>
+        <f t="shared" si="9"/>
+        <v>4</v>
       </c>
       <c r="E5">
-        <f t="shared" ref="E5:E34" si="12">HEX2DEC(MID($B$1,$B5+3,1))</f>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>8</v>
       </c>
       <c r="F5">
         <f t="shared" ref="F5:F34" si="13">E5*255/15</f>
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="G5">
         <f t="shared" ref="G5:G22" si="14">D5*255/15</f>
-        <v>153</v>
+        <v>68</v>
       </c>
       <c r="H5">
         <f t="shared" ref="H5:H22" si="15">C5*255/15</f>
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="I5" t="str">
         <f t="shared" ref="I5:I22" si="16">"  GGCOLOUR $"&amp;DEC2HEX(F5*65536+G5*256+H5,6)</f>
-        <v xml:space="preserve">  GGCOLOUR $119933</v>
+        <v xml:space="preserve">  GGCOLOUR $884400</v>
       </c>
       <c r="O5">
         <f t="shared" si="0"/>
@@ -22562,15 +22562,15 @@
       </c>
       <c r="P5">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="Q5">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S5">
         <f t="shared" si="4"/>
@@ -22578,57 +22578,57 @@
       </c>
       <c r="T5">
         <f t="shared" si="5"/>
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="U5">
         <f t="shared" si="6"/>
-        <v>255</v>
+        <v>85</v>
       </c>
       <c r="V5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W5" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">  SMSCOLOUR $55FF00</v>
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">  SMSCOLOUR $005500</v>
       </c>
       <c r="AA5" t="str">
         <f>T4&amp;" "&amp;U4&amp;" "&amp;V4</f>
-        <v>255 85 85</v>
+        <v>0 0 0</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B6">
+        <f t="shared" si="12"/>
+        <v>19</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="D6">
         <f t="shared" si="9"/>
-        <v>19</v>
-      </c>
-      <c r="C6">
+        <v>14</v>
+      </c>
+      <c r="E6">
         <f t="shared" si="10"/>
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="11"/>
-        <v>10</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="12"/>
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F6">
         <f t="shared" si="13"/>
-        <v>51</v>
+        <v>238</v>
       </c>
       <c r="G6">
         <f t="shared" si="14"/>
-        <v>170</v>
+        <v>238</v>
       </c>
       <c r="H6">
         <f t="shared" si="15"/>
-        <v>34</v>
+        <v>238</v>
       </c>
       <c r="I6" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">  GGCOLOUR $33AA22</v>
+        <v xml:space="preserve">  GGCOLOUR $EEEEEE</v>
       </c>
       <c r="O6">
         <f t="shared" si="0"/>
@@ -22663,46 +22663,46 @@
         <v>0</v>
       </c>
       <c r="W6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">  SMSCOLOUR $000000</v>
       </c>
       <c r="AA6" t="str">
         <f>T5&amp;" "&amp;U5&amp;" "&amp;V5</f>
-        <v>85 255 0</v>
+        <v>0 85 0</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B7">
+        <f t="shared" si="12"/>
+        <v>25</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="D7">
         <f t="shared" si="9"/>
-        <v>25</v>
-      </c>
-      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="E7">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="11"/>
-        <v>11</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F7">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="G7">
         <f t="shared" si="14"/>
-        <v>187</v>
+        <v>136</v>
       </c>
       <c r="H7">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="I7" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">  GGCOLOUR $00BB00</v>
+        <v xml:space="preserve">  GGCOLOUR $888888</v>
       </c>
       <c r="O7">
         <f t="shared" si="0"/>
@@ -22710,11 +22710,11 @@
       </c>
       <c r="P7">
         <f t="shared" si="1"/>
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="Q7">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7">
         <f t="shared" si="3"/>
@@ -22722,11 +22722,11 @@
       </c>
       <c r="S7">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T7">
         <f t="shared" si="5"/>
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="U7">
         <f t="shared" si="6"/>
@@ -22734,11 +22734,11 @@
       </c>
       <c r="V7">
         <f t="shared" si="7"/>
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="W7" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">  SMSCOLOUR $55AAFF</v>
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">  SMSCOLOUR $00AA00</v>
       </c>
       <c r="AA7" t="str">
         <f>T6&amp;" "&amp;U6&amp;" "&amp;V6</f>
@@ -22747,36 +22747,36 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B8">
+        <f t="shared" si="12"/>
+        <v>31</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="D8">
         <f t="shared" si="9"/>
-        <v>31</v>
-      </c>
-      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="E8">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F8">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="G8">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="H8">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="I8" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">  GGCOLOUR $000000</v>
+        <v xml:space="preserve">  GGCOLOUR $444444</v>
       </c>
       <c r="O8">
         <f t="shared" si="0"/>
@@ -22784,61 +22784,61 @@
       </c>
       <c r="P8">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S8">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8">
         <f t="shared" si="5"/>
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="U8">
         <f t="shared" si="6"/>
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="V8">
         <f t="shared" si="7"/>
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="W8" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">  SMSCOLOUR $555555</v>
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">  SMSCOLOUR $000000</v>
       </c>
       <c r="AA8" t="str">
         <f>T7&amp;" "&amp;U7&amp;" "&amp;V7</f>
-        <v>85 170 255</v>
+        <v>0 170 0</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B9">
+        <f t="shared" si="12"/>
+        <v>37</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D9">
         <f t="shared" si="9"/>
-        <v>37</v>
-      </c>
-      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="E9">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F9">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="G9">
         <f t="shared" si="14"/>
@@ -22850,7 +22850,7 @@
       </c>
       <c r="I9" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">  GGCOLOUR $000000</v>
+        <v xml:space="preserve">  GGCOLOUR $880000</v>
       </c>
       <c r="O9">
         <f t="shared" si="0"/>
@@ -22858,7 +22858,7 @@
       </c>
       <c r="P9">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>238</v>
       </c>
       <c r="Q9">
         <f t="shared" si="2"/>
@@ -22866,7 +22866,7 @@
       </c>
       <c r="R9">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S9">
         <f t="shared" si="4"/>
@@ -22878,36 +22878,36 @@
       </c>
       <c r="U9">
         <f t="shared" si="6"/>
-        <v>170</v>
+        <v>255</v>
       </c>
       <c r="V9">
         <f t="shared" si="7"/>
         <v>170</v>
       </c>
       <c r="W9" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">  SMSCOLOUR $AAAAAA</v>
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">  SMSCOLOUR $AAFFAA</v>
       </c>
       <c r="AA9" t="str">
         <f>T8&amp;" "&amp;U8&amp;" "&amp;V8</f>
-        <v>85 85 85</v>
+        <v>0 0 0</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B10">
+        <f t="shared" si="12"/>
+        <v>43</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="D10">
         <f t="shared" si="9"/>
-        <v>43</v>
-      </c>
-      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="E10">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F10">
@@ -22916,15 +22916,15 @@
       </c>
       <c r="G10">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="H10">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="I10" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">  GGCOLOUR $000000</v>
+        <v xml:space="preserve">  GGCOLOUR $004488</v>
       </c>
       <c r="O10">
         <f t="shared" si="0"/>
@@ -22932,11 +22932,11 @@
       </c>
       <c r="P10">
         <f t="shared" si="1"/>
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="Q10">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R10">
         <f t="shared" si="3"/>
@@ -22944,11 +22944,11 @@
       </c>
       <c r="S10">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T10">
         <f t="shared" si="5"/>
-        <v>255</v>
+        <v>170</v>
       </c>
       <c r="U10">
         <f t="shared" si="6"/>
@@ -22956,32 +22956,32 @@
       </c>
       <c r="V10">
         <f t="shared" si="7"/>
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="W10" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">  SMSCOLOUR $FFFFFF</v>
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">  SMSCOLOUR $AAFF00</v>
       </c>
       <c r="AA10" t="str">
         <f>T9&amp;" "&amp;U9&amp;" "&amp;V9</f>
-        <v>170 170 170</v>
+        <v>170 255 170</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B11">
+        <f t="shared" si="12"/>
+        <v>49</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D11">
         <f t="shared" si="9"/>
-        <v>49</v>
-      </c>
-      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="E11">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F11">
@@ -23006,11 +23006,11 @@
       </c>
       <c r="P11">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>136</v>
       </c>
       <c r="Q11">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R11">
         <f t="shared" si="3"/>
@@ -23022,7 +23022,7 @@
       </c>
       <c r="T11">
         <f t="shared" si="5"/>
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="U11">
         <f t="shared" si="6"/>
@@ -23033,29 +23033,29 @@
         <v>0</v>
       </c>
       <c r="W11" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">  SMSCOLOUR $FFAA00</v>
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">  SMSCOLOUR $00AA00</v>
       </c>
       <c r="AA11" t="str">
         <f>T10&amp;" "&amp;U10&amp;" "&amp;V10</f>
-        <v>255 255 255</v>
+        <v>170 255 0</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B12">
+        <f t="shared" si="12"/>
+        <v>55</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D12">
         <f t="shared" si="9"/>
-        <v>55</v>
-      </c>
-      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="E12">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F12">
@@ -23080,7 +23080,7 @@
       </c>
       <c r="P12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q12">
         <f t="shared" si="2"/>
@@ -23088,7 +23088,7 @@
       </c>
       <c r="R12">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S12">
         <f t="shared" si="4"/>
@@ -23100,36 +23100,36 @@
       </c>
       <c r="U12">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="V12">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W12" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">  SMSCOLOUR $000000</v>
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">  SMSCOLOUR $00AA00</v>
       </c>
       <c r="AA12" t="str">
         <f>T11&amp;" "&amp;U11&amp;" "&amp;V11</f>
-        <v>255 170 0</v>
+        <v>0 170 0</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B13">
+        <f t="shared" si="12"/>
+        <v>61</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D13">
         <f t="shared" si="9"/>
-        <v>61</v>
-      </c>
-      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="E13">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F13">
@@ -23154,7 +23154,7 @@
       </c>
       <c r="P13">
         <f t="shared" ref="P13:P34" si="18">HEX2DEC(MID($B$1,O13,2))</f>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="Q13">
         <f t="shared" ref="Q13:Q34" si="19">_xlfn.BITAND(P13,3)</f>
@@ -23162,7 +23162,7 @@
       </c>
       <c r="R13">
         <f t="shared" ref="R13:R34" si="20">_xlfn.BITAND(_xlfn.BITRSHIFT(P13,2),3)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S13">
         <f t="shared" ref="S13:S34" si="21">_xlfn.BITAND(_xlfn.BITRSHIFT(P13,4),3)</f>
@@ -23174,7 +23174,7 @@
       </c>
       <c r="U13">
         <f t="shared" ref="U13:U34" si="23">R13*255/3</f>
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="V13">
         <f t="shared" ref="V13:V34" si="24">S13*255/3</f>
@@ -23182,28 +23182,28 @@
       </c>
       <c r="W13" t="str">
         <f t="shared" ref="W13:W34" si="25">"  SMSCOLOUR $"&amp;DEC2HEX(T13*65536+U13*256+V13,6)</f>
-        <v xml:space="preserve">  SMSCOLOUR $000000</v>
+        <v xml:space="preserve">  SMSCOLOUR $005500</v>
       </c>
       <c r="AA13" t="str">
         <f>T12&amp;" "&amp;U12&amp;" "&amp;V12</f>
-        <v>0 0 0</v>
+        <v>0 170 0</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B14">
+        <f t="shared" si="12"/>
+        <v>67</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D14">
         <f t="shared" si="9"/>
-        <v>67</v>
-      </c>
-      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="E14">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F14">
@@ -23228,7 +23228,7 @@
       </c>
       <c r="P14">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q14">
         <f t="shared" si="19"/>
@@ -23236,7 +23236,7 @@
       </c>
       <c r="R14">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S14">
         <f t="shared" si="21"/>
@@ -23248,7 +23248,7 @@
       </c>
       <c r="U14">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="V14">
         <f t="shared" si="24"/>
@@ -23256,28 +23256,28 @@
       </c>
       <c r="W14" t="str">
         <f t="shared" si="25"/>
-        <v xml:space="preserve">  SMSCOLOUR $000000</v>
+        <v xml:space="preserve">  SMSCOLOUR $005500</v>
       </c>
       <c r="AA14" t="str">
         <f>T13&amp;" "&amp;U13&amp;" "&amp;V13</f>
-        <v>0 0 0</v>
+        <v>0 85 0</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B15">
+        <f t="shared" si="12"/>
+        <v>73</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D15">
         <f t="shared" si="9"/>
-        <v>73</v>
-      </c>
-      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="E15">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F15">
@@ -23302,7 +23302,7 @@
       </c>
       <c r="P15">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q15">
         <f t="shared" si="19"/>
@@ -23310,7 +23310,7 @@
       </c>
       <c r="R15">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S15">
         <f t="shared" si="21"/>
@@ -23322,7 +23322,7 @@
       </c>
       <c r="U15">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="V15">
         <f t="shared" si="24"/>
@@ -23330,28 +23330,28 @@
       </c>
       <c r="W15" t="str">
         <f t="shared" si="25"/>
-        <v xml:space="preserve">  SMSCOLOUR $000000</v>
+        <v xml:space="preserve">  SMSCOLOUR $00AA00</v>
       </c>
       <c r="AA15" t="str">
         <f>T14&amp;" "&amp;U14&amp;" "&amp;V14</f>
-        <v>0 0 0</v>
+        <v>0 85 0</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B16">
+        <f t="shared" si="12"/>
+        <v>79</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D16">
         <f t="shared" si="9"/>
-        <v>79</v>
-      </c>
-      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="E16">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F16">
@@ -23408,24 +23408,24 @@
       </c>
       <c r="AA16" t="str">
         <f>T15&amp;" "&amp;U15&amp;" "&amp;V15</f>
-        <v>0 0 0</v>
+        <v>0 170 0</v>
       </c>
     </row>
     <row r="17" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B17">
+        <f t="shared" si="12"/>
+        <v>85</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D17">
         <f t="shared" si="9"/>
-        <v>85</v>
-      </c>
-      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="E17">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F17">
@@ -23450,7 +23450,7 @@
       </c>
       <c r="P17">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="Q17">
         <f t="shared" si="19"/>
@@ -23487,19 +23487,19 @@
     </row>
     <row r="18" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B18">
+        <f t="shared" si="12"/>
+        <v>91</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D18">
         <f t="shared" si="9"/>
-        <v>91</v>
-      </c>
-      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="E18">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F18">
@@ -23524,7 +23524,7 @@
       </c>
       <c r="P18">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q18">
         <f t="shared" si="19"/>
@@ -23532,7 +23532,7 @@
       </c>
       <c r="R18">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S18">
         <f t="shared" si="21"/>
@@ -23544,7 +23544,7 @@
       </c>
       <c r="U18">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="V18">
         <f t="shared" si="24"/>
@@ -23552,7 +23552,7 @@
       </c>
       <c r="W18" t="str">
         <f t="shared" si="25"/>
-        <v xml:space="preserve">  SMSCOLOUR $000000</v>
+        <v xml:space="preserve">  SMSCOLOUR $00AA00</v>
       </c>
       <c r="AA18" t="str">
         <f>T17&amp;" "&amp;U17&amp;" "&amp;V17</f>
@@ -23561,19 +23561,19 @@
     </row>
     <row r="19" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B19">
+        <f t="shared" si="12"/>
+        <v>97</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D19">
         <f t="shared" si="9"/>
-        <v>97</v>
-      </c>
-      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="E19">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F19">
@@ -23630,41 +23630,41 @@
       </c>
       <c r="AA19" t="str">
         <f>T18&amp;" "&amp;U18&amp;" "&amp;V18</f>
-        <v>0 0 0</v>
+        <v>0 170 0</v>
       </c>
     </row>
     <row r="20" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B20">
+        <f t="shared" si="12"/>
+        <v>103</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="D20">
         <f t="shared" si="9"/>
-        <v>103</v>
-      </c>
-      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="E20">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F20">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>238</v>
       </c>
       <c r="G20">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="H20">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="I20" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">  GGCOLOUR $000000</v>
+        <v xml:space="preserve">  GGCOLOUR $EE4444</v>
       </c>
       <c r="O20">
         <f t="shared" si="17"/>
@@ -23705,28 +23705,28 @@
     </row>
     <row r="21" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B21">
+        <f t="shared" si="12"/>
+        <v>109</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D21">
         <f t="shared" si="9"/>
-        <v>109</v>
-      </c>
-      <c r="C21">
+        <v>14</v>
+      </c>
+      <c r="E21">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F21">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="G21">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>238</v>
       </c>
       <c r="H21">
         <f t="shared" si="15"/>
@@ -23734,7 +23734,7 @@
       </c>
       <c r="I21" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">  GGCOLOUR $000000</v>
+        <v xml:space="preserve">  GGCOLOUR $44EE00</v>
       </c>
       <c r="O21">
         <f t="shared" si="17"/>
@@ -23775,19 +23775,19 @@
     </row>
     <row r="22" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B22">
+        <f t="shared" si="12"/>
+        <v>115</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D22">
         <f t="shared" si="9"/>
-        <v>115</v>
-      </c>
-      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="E22">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F22">
@@ -23845,36 +23845,36 @@
     </row>
     <row r="23" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B23">
+        <f t="shared" si="12"/>
+        <v>121</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="D23">
         <f t="shared" si="9"/>
-        <v>121</v>
-      </c>
-      <c r="C23">
+        <v>8</v>
+      </c>
+      <c r="E23">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F23">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="G23">
         <f t="shared" ref="G23:G34" si="26">D23*255/15</f>
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="H23">
         <f t="shared" ref="H23:H34" si="27">C23*255/15</f>
-        <v>0</v>
+        <v>238</v>
       </c>
       <c r="I23" t="str">
         <f t="shared" ref="I23:I34" si="28">"  GGCOLOUR $"&amp;DEC2HEX(F23*65536+G23*256+H23,6)</f>
-        <v xml:space="preserve">  GGCOLOUR $000000</v>
+        <v xml:space="preserve">  GGCOLOUR $4488EE</v>
       </c>
       <c r="O23">
         <f t="shared" si="17"/>
@@ -23915,36 +23915,36 @@
     </row>
     <row r="24" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B24">
+        <f t="shared" si="12"/>
+        <v>127</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="D24">
         <f t="shared" si="9"/>
-        <v>127</v>
-      </c>
-      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="E24">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F24">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="G24">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="H24">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="I24" t="str">
         <f t="shared" si="28"/>
-        <v xml:space="preserve">  GGCOLOUR $000000</v>
+        <v xml:space="preserve">  GGCOLOUR $444444</v>
       </c>
       <c r="O24">
         <f t="shared" si="17"/>
@@ -23985,36 +23985,36 @@
     </row>
     <row r="25" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B25">
+        <f t="shared" si="12"/>
+        <v>133</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="D25">
         <f t="shared" si="9"/>
-        <v>133</v>
-      </c>
-      <c r="C25">
+        <v>8</v>
+      </c>
+      <c r="E25">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F25">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="G25">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="H25">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="I25" t="str">
         <f t="shared" si="28"/>
-        <v xml:space="preserve">  GGCOLOUR $000000</v>
+        <v xml:space="preserve">  GGCOLOUR $888888</v>
       </c>
       <c r="O25">
         <f t="shared" si="17"/>
@@ -24055,36 +24055,36 @@
     </row>
     <row r="26" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B26">
+        <f t="shared" si="12"/>
+        <v>139</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="D26">
         <f t="shared" si="9"/>
-        <v>139</v>
-      </c>
-      <c r="C26">
+        <v>14</v>
+      </c>
+      <c r="E26">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F26">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>238</v>
       </c>
       <c r="G26">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>238</v>
       </c>
       <c r="H26">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>238</v>
       </c>
       <c r="I26" t="str">
         <f t="shared" si="28"/>
-        <v xml:space="preserve">  GGCOLOUR $000000</v>
+        <v xml:space="preserve">  GGCOLOUR $EEEEEE</v>
       </c>
       <c r="O26">
         <f t="shared" si="17"/>
@@ -24125,28 +24125,28 @@
     </row>
     <row r="27" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B27">
+        <f t="shared" si="12"/>
+        <v>145</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D27">
         <f t="shared" si="9"/>
-        <v>145</v>
-      </c>
-      <c r="C27">
+        <v>8</v>
+      </c>
+      <c r="E27">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F27">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>238</v>
       </c>
       <c r="G27">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="H27">
         <f t="shared" si="27"/>
@@ -24154,7 +24154,7 @@
       </c>
       <c r="I27" t="str">
         <f t="shared" si="28"/>
-        <v xml:space="preserve">  GGCOLOUR $000000</v>
+        <v xml:space="preserve">  GGCOLOUR $EE8800</v>
       </c>
       <c r="O27">
         <f t="shared" si="17"/>
@@ -24195,19 +24195,19 @@
     </row>
     <row r="28" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B28">
+        <f t="shared" si="12"/>
+        <v>151</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D28">
         <f t="shared" si="9"/>
-        <v>151</v>
-      </c>
-      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="E28">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F28">
@@ -24265,19 +24265,19 @@
     </row>
     <row r="29" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B29">
+        <f t="shared" si="12"/>
+        <v>157</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D29">
         <f t="shared" si="9"/>
-        <v>157</v>
-      </c>
-      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="E29">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F29">
@@ -24335,19 +24335,19 @@
     </row>
     <row r="30" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B30">
+        <f t="shared" si="12"/>
+        <v>163</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D30">
         <f t="shared" si="9"/>
-        <v>163</v>
-      </c>
-      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="E30">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F30">
@@ -24405,19 +24405,19 @@
     </row>
     <row r="31" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B31">
+        <f t="shared" si="12"/>
+        <v>169</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D31">
         <f t="shared" si="9"/>
-        <v>169</v>
-      </c>
-      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="E31">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F31">
@@ -24475,19 +24475,19 @@
     </row>
     <row r="32" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B32">
+        <f t="shared" si="12"/>
+        <v>175</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D32">
         <f t="shared" si="9"/>
-        <v>175</v>
-      </c>
-      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="E32">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F32">
@@ -24545,19 +24545,19 @@
     </row>
     <row r="33" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B33">
+        <f t="shared" si="12"/>
+        <v>181</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D33">
         <f t="shared" si="9"/>
-        <v>181</v>
-      </c>
-      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="E33">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F33">
@@ -24615,19 +24615,19 @@
     </row>
     <row r="34" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B34">
+        <f t="shared" si="12"/>
+        <v>187</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D34">
         <f t="shared" si="9"/>
-        <v>187</v>
-      </c>
-      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="E34">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F34">

--- a/Analysis/Micro Machines tables.xlsx
+++ b/Analysis/Micro Machines tables.xlsx
@@ -971,11 +971,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="474209832"/>
-        <c:axId val="474210224"/>
+        <c:axId val="512945704"/>
+        <c:axId val="512941784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="474209832"/>
+        <c:axId val="512945704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1017,7 +1017,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474210224"/>
+        <c:crossAx val="512941784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1025,7 +1025,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="474210224"/>
+        <c:axId val="512941784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1077,7 +1077,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474209832"/>
+        <c:crossAx val="512945704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1499,11 +1499,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="474211400"/>
-        <c:axId val="474212184"/>
+        <c:axId val="512948056"/>
+        <c:axId val="512942568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="474211400"/>
+        <c:axId val="512948056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1545,7 +1545,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474212184"/>
+        <c:crossAx val="512942568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1553,7 +1553,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="474212184"/>
+        <c:axId val="512942568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1604,7 +1604,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474211400"/>
+        <c:crossAx val="512948056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -22519,13 +22519,13 @@
         <v xml:space="preserve">  SMSCOLOUR $000000</v>
       </c>
       <c r="AA4" t="str">
-        <f>T3&amp;" "&amp;U3&amp;" "&amp;V3</f>
+        <f t="shared" ref="AA4:AA19" si="12">T3&amp;" "&amp;U3&amp;" "&amp;V3</f>
         <v>0 0 0</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B5">
-        <f t="shared" ref="B5:B34" si="12">(ROW()-ROW($B$3))*6+1</f>
+        <f t="shared" ref="B5:B34" si="13">(ROW()-ROW($B$3))*6+1</f>
         <v>13</v>
       </c>
       <c r="C5">
@@ -22541,19 +22541,19 @@
         <v>8</v>
       </c>
       <c r="F5">
-        <f t="shared" ref="F5:F34" si="13">E5*255/15</f>
+        <f t="shared" ref="F5:F34" si="14">E5*255/15</f>
         <v>136</v>
       </c>
       <c r="G5">
-        <f t="shared" ref="G5:G22" si="14">D5*255/15</f>
+        <f t="shared" ref="G5:G22" si="15">D5*255/15</f>
         <v>68</v>
       </c>
       <c r="H5">
-        <f t="shared" ref="H5:H22" si="15">C5*255/15</f>
+        <f t="shared" ref="H5:H22" si="16">C5*255/15</f>
         <v>0</v>
       </c>
       <c r="I5" t="str">
-        <f t="shared" ref="I5:I22" si="16">"  GGCOLOUR $"&amp;DEC2HEX(F5*65536+G5*256+H5,6)</f>
+        <f t="shared" ref="I5:I22" si="17">"  GGCOLOUR $"&amp;DEC2HEX(F5*65536+G5*256+H5,6)</f>
         <v xml:space="preserve">  GGCOLOUR $884400</v>
       </c>
       <c r="O5">
@@ -22593,13 +22593,13 @@
         <v xml:space="preserve">  SMSCOLOUR $005500</v>
       </c>
       <c r="AA5" t="str">
-        <f>T4&amp;" "&amp;U4&amp;" "&amp;V4</f>
+        <f t="shared" si="12"/>
         <v>0 0 0</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>19</v>
       </c>
       <c r="C6">
@@ -22615,19 +22615,19 @@
         <v>14</v>
       </c>
       <c r="F6">
-        <f t="shared" si="13"/>
-        <v>238</v>
-      </c>
-      <c r="G6">
         <f t="shared" si="14"/>
         <v>238</v>
       </c>
-      <c r="H6">
+      <c r="G6">
         <f t="shared" si="15"/>
         <v>238</v>
       </c>
+      <c r="H6">
+        <f t="shared" si="16"/>
+        <v>238</v>
+      </c>
       <c r="I6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">  GGCOLOUR $EEEEEE</v>
       </c>
       <c r="O6">
@@ -22667,13 +22667,13 @@
         <v xml:space="preserve">  SMSCOLOUR $000000</v>
       </c>
       <c r="AA6" t="str">
-        <f>T5&amp;" "&amp;U5&amp;" "&amp;V5</f>
+        <f t="shared" si="12"/>
         <v>0 85 0</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>25</v>
       </c>
       <c r="C7">
@@ -22689,19 +22689,19 @@
         <v>8</v>
       </c>
       <c r="F7">
-        <f t="shared" si="13"/>
-        <v>136</v>
-      </c>
-      <c r="G7">
         <f t="shared" si="14"/>
         <v>136</v>
       </c>
-      <c r="H7">
+      <c r="G7">
         <f t="shared" si="15"/>
         <v>136</v>
       </c>
+      <c r="H7">
+        <f t="shared" si="16"/>
+        <v>136</v>
+      </c>
       <c r="I7" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">  GGCOLOUR $888888</v>
       </c>
       <c r="O7">
@@ -22741,13 +22741,13 @@
         <v xml:space="preserve">  SMSCOLOUR $00AA00</v>
       </c>
       <c r="AA7" t="str">
-        <f>T6&amp;" "&amp;U6&amp;" "&amp;V6</f>
+        <f t="shared" si="12"/>
         <v>0 0 0</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>31</v>
       </c>
       <c r="C8">
@@ -22763,19 +22763,19 @@
         <v>4</v>
       </c>
       <c r="F8">
-        <f t="shared" si="13"/>
-        <v>68</v>
-      </c>
-      <c r="G8">
         <f t="shared" si="14"/>
         <v>68</v>
       </c>
-      <c r="H8">
+      <c r="G8">
         <f t="shared" si="15"/>
         <v>68</v>
       </c>
+      <c r="H8">
+        <f t="shared" si="16"/>
+        <v>68</v>
+      </c>
       <c r="I8" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">  GGCOLOUR $444444</v>
       </c>
       <c r="O8">
@@ -22815,13 +22815,13 @@
         <v xml:space="preserve">  SMSCOLOUR $000000</v>
       </c>
       <c r="AA8" t="str">
-        <f>T7&amp;" "&amp;U7&amp;" "&amp;V7</f>
+        <f t="shared" si="12"/>
         <v>0 170 0</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>37</v>
       </c>
       <c r="C9">
@@ -22837,19 +22837,19 @@
         <v>8</v>
       </c>
       <c r="F9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>136</v>
       </c>
       <c r="G9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">  GGCOLOUR $880000</v>
       </c>
       <c r="O9">
@@ -22889,13 +22889,13 @@
         <v xml:space="preserve">  SMSCOLOUR $AAFFAA</v>
       </c>
       <c r="AA9" t="str">
-        <f>T8&amp;" "&amp;U8&amp;" "&amp;V8</f>
+        <f t="shared" si="12"/>
         <v>0 0 0</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43</v>
       </c>
       <c r="C10">
@@ -22911,19 +22911,19 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>68</v>
       </c>
       <c r="H10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>136</v>
       </c>
       <c r="I10" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">  GGCOLOUR $004488</v>
       </c>
       <c r="O10">
@@ -22963,13 +22963,13 @@
         <v xml:space="preserve">  SMSCOLOUR $AAFF00</v>
       </c>
       <c r="AA10" t="str">
-        <f>T9&amp;" "&amp;U9&amp;" "&amp;V9</f>
+        <f t="shared" si="12"/>
         <v>170 255 170</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>49</v>
       </c>
       <c r="C11">
@@ -22985,19 +22985,19 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">  GGCOLOUR $000000</v>
       </c>
       <c r="O11">
@@ -23037,13 +23037,13 @@
         <v xml:space="preserve">  SMSCOLOUR $00AA00</v>
       </c>
       <c r="AA11" t="str">
-        <f>T10&amp;" "&amp;U10&amp;" "&amp;V10</f>
+        <f t="shared" si="12"/>
         <v>170 255 0</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>55</v>
       </c>
       <c r="C12">
@@ -23059,19 +23059,19 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">  GGCOLOUR $000000</v>
       </c>
       <c r="O12">
@@ -23111,13 +23111,13 @@
         <v xml:space="preserve">  SMSCOLOUR $00AA00</v>
       </c>
       <c r="AA12" t="str">
-        <f>T11&amp;" "&amp;U11&amp;" "&amp;V11</f>
+        <f t="shared" si="12"/>
         <v>0 170 0</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>61</v>
       </c>
       <c r="C13">
@@ -23133,65 +23133,65 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">  GGCOLOUR $000000</v>
       </c>
       <c r="O13">
-        <f t="shared" ref="O13:O34" si="17">(ROW()-ROW($B$3))*3+1</f>
+        <f t="shared" ref="O13:O34" si="18">(ROW()-ROW($B$3))*3+1</f>
         <v>31</v>
       </c>
       <c r="P13">
-        <f t="shared" ref="P13:P34" si="18">HEX2DEC(MID($B$1,O13,2))</f>
+        <f t="shared" ref="P13:P34" si="19">HEX2DEC(MID($B$1,O13,2))</f>
         <v>68</v>
       </c>
       <c r="Q13">
-        <f t="shared" ref="Q13:Q34" si="19">_xlfn.BITAND(P13,3)</f>
+        <f t="shared" ref="Q13:Q34" si="20">_xlfn.BITAND(P13,3)</f>
         <v>0</v>
       </c>
       <c r="R13">
-        <f t="shared" ref="R13:R34" si="20">_xlfn.BITAND(_xlfn.BITRSHIFT(P13,2),3)</f>
+        <f t="shared" ref="R13:R34" si="21">_xlfn.BITAND(_xlfn.BITRSHIFT(P13,2),3)</f>
         <v>1</v>
       </c>
       <c r="S13">
-        <f t="shared" ref="S13:S34" si="21">_xlfn.BITAND(_xlfn.BITRSHIFT(P13,4),3)</f>
+        <f t="shared" ref="S13:S34" si="22">_xlfn.BITAND(_xlfn.BITRSHIFT(P13,4),3)</f>
         <v>0</v>
       </c>
       <c r="T13">
-        <f t="shared" ref="T13:T34" si="22">Q13*255/3</f>
+        <f t="shared" ref="T13:T34" si="23">Q13*255/3</f>
         <v>0</v>
       </c>
       <c r="U13">
-        <f t="shared" ref="U13:U34" si="23">R13*255/3</f>
+        <f t="shared" ref="U13:U34" si="24">R13*255/3</f>
         <v>85</v>
       </c>
       <c r="V13">
-        <f t="shared" ref="V13:V34" si="24">S13*255/3</f>
+        <f t="shared" ref="V13:V34" si="25">S13*255/3</f>
         <v>0</v>
       </c>
       <c r="W13" t="str">
-        <f t="shared" ref="W13:W34" si="25">"  SMSCOLOUR $"&amp;DEC2HEX(T13*65536+U13*256+V13,6)</f>
+        <f t="shared" ref="W13:W34" si="26">"  SMSCOLOUR $"&amp;DEC2HEX(T13*65536+U13*256+V13,6)</f>
         <v xml:space="preserve">  SMSCOLOUR $005500</v>
       </c>
       <c r="AA13" t="str">
-        <f>T12&amp;" "&amp;U12&amp;" "&amp;V12</f>
+        <f t="shared" si="12"/>
         <v>0 170 0</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>67</v>
       </c>
       <c r="C14">
@@ -23207,65 +23207,65 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">  GGCOLOUR $000000</v>
       </c>
       <c r="O14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>34</v>
       </c>
       <c r="P14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>4</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="R14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="S14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="T14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="U14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>85</v>
       </c>
       <c r="V14">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="W14" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">  SMSCOLOUR $005500</v>
       </c>
       <c r="AA14" t="str">
-        <f>T13&amp;" "&amp;U13&amp;" "&amp;V13</f>
+        <f t="shared" si="12"/>
         <v>0 85 0</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>73</v>
       </c>
       <c r="C15">
@@ -23281,65 +23281,65 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I15" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">  GGCOLOUR $000000</v>
       </c>
       <c r="O15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>37</v>
       </c>
       <c r="P15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>8</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="R15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="S15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="T15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="U15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>170</v>
       </c>
       <c r="V15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="W15" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">  SMSCOLOUR $00AA00</v>
       </c>
       <c r="AA15" t="str">
-        <f>T14&amp;" "&amp;U14&amp;" "&amp;V14</f>
+        <f t="shared" si="12"/>
         <v>0 85 0</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>79</v>
       </c>
       <c r="C16">
@@ -23355,65 +23355,65 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I16" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">  GGCOLOUR $000000</v>
       </c>
       <c r="O16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>40</v>
       </c>
       <c r="P16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="R16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="S16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="T16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="U16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="V16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="W16" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">  SMSCOLOUR $000000</v>
       </c>
       <c r="AA16" t="str">
-        <f>T15&amp;" "&amp;U15&amp;" "&amp;V15</f>
+        <f t="shared" si="12"/>
         <v>0 170 0</v>
       </c>
     </row>
     <row r="17" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>85</v>
       </c>
       <c r="C17">
@@ -23429,65 +23429,65 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I17" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">  GGCOLOUR $000000</v>
       </c>
       <c r="O17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>43</v>
       </c>
       <c r="P17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>64</v>
       </c>
       <c r="Q17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="R17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="S17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="T17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="U17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="V17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="W17" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">  SMSCOLOUR $000000</v>
       </c>
       <c r="AA17" t="str">
-        <f>T16&amp;" "&amp;U16&amp;" "&amp;V16</f>
+        <f t="shared" si="12"/>
         <v>0 0 0</v>
       </c>
     </row>
     <row r="18" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>91</v>
       </c>
       <c r="C18">
@@ -23503,65 +23503,65 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I18" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">  GGCOLOUR $000000</v>
       </c>
       <c r="O18">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>46</v>
       </c>
       <c r="P18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>8</v>
       </c>
       <c r="Q18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="R18">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="S18">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="T18">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="U18">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>170</v>
       </c>
       <c r="V18">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="W18" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">  SMSCOLOUR $00AA00</v>
       </c>
       <c r="AA18" t="str">
-        <f>T17&amp;" "&amp;U17&amp;" "&amp;V17</f>
+        <f t="shared" si="12"/>
         <v>0 0 0</v>
       </c>
     </row>
     <row r="19" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>97</v>
       </c>
       <c r="C19">
@@ -23577,65 +23577,65 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G19">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H19">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I19" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">  GGCOLOUR $000000</v>
       </c>
       <c r="O19">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>49</v>
       </c>
       <c r="P19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q19">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="R19">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="S19">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="T19">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="U19">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="V19">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="W19" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">  SMSCOLOUR $000000</v>
       </c>
       <c r="AA19" t="str">
-        <f>T18&amp;" "&amp;U18&amp;" "&amp;V18</f>
+        <f t="shared" si="12"/>
         <v>0 170 0</v>
       </c>
     </row>
     <row r="20" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>103</v>
       </c>
       <c r="C20">
@@ -23651,61 +23651,61 @@
         <v>14</v>
       </c>
       <c r="F20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>238</v>
       </c>
       <c r="G20">
-        <f t="shared" si="14"/>
-        <v>68</v>
-      </c>
-      <c r="H20">
         <f t="shared" si="15"/>
         <v>68</v>
       </c>
+      <c r="H20">
+        <f t="shared" si="16"/>
+        <v>68</v>
+      </c>
       <c r="I20" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">  GGCOLOUR $EE4444</v>
       </c>
       <c r="O20">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>52</v>
       </c>
       <c r="P20">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q20">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="R20">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="S20">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="T20">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="U20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="V20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="W20" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">  SMSCOLOUR $000000</v>
       </c>
     </row>
     <row r="21" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B21">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>109</v>
       </c>
       <c r="C21">
@@ -23721,61 +23721,61 @@
         <v>4</v>
       </c>
       <c r="F21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>68</v>
       </c>
       <c r="G21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>238</v>
       </c>
       <c r="H21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">  GGCOLOUR $44EE00</v>
       </c>
       <c r="O21">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>55</v>
       </c>
       <c r="P21">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q21">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="R21">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="S21">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="T21">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="U21">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="V21">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="W21" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">  SMSCOLOUR $000000</v>
       </c>
     </row>
     <row r="22" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B22">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>115</v>
       </c>
       <c r="C22">
@@ -23791,61 +23791,61 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I22" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">  GGCOLOUR $000000</v>
       </c>
       <c r="O22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>58</v>
       </c>
       <c r="P22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="R22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="S22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="T22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="U22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="V22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="W22" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">  SMSCOLOUR $000000</v>
       </c>
     </row>
     <row r="23" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>121</v>
       </c>
       <c r="C23">
@@ -23861,61 +23861,61 @@
         <v>4</v>
       </c>
       <c r="F23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>68</v>
       </c>
       <c r="G23">
-        <f t="shared" ref="G23:G34" si="26">D23*255/15</f>
+        <f t="shared" ref="G23:G34" si="27">D23*255/15</f>
         <v>136</v>
       </c>
       <c r="H23">
-        <f t="shared" ref="H23:H34" si="27">C23*255/15</f>
+        <f t="shared" ref="H23:H34" si="28">C23*255/15</f>
         <v>238</v>
       </c>
       <c r="I23" t="str">
-        <f t="shared" ref="I23:I34" si="28">"  GGCOLOUR $"&amp;DEC2HEX(F23*65536+G23*256+H23,6)</f>
+        <f t="shared" ref="I23:I34" si="29">"  GGCOLOUR $"&amp;DEC2HEX(F23*65536+G23*256+H23,6)</f>
         <v xml:space="preserve">  GGCOLOUR $4488EE</v>
       </c>
       <c r="O23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>61</v>
       </c>
       <c r="P23">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q23">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="R23">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="S23">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="T23">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="U23">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="V23">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="W23" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">  SMSCOLOUR $000000</v>
       </c>
     </row>
     <row r="24" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>127</v>
       </c>
       <c r="C24">
@@ -23931,61 +23931,61 @@
         <v>4</v>
       </c>
       <c r="F24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>68</v>
       </c>
       <c r="G24">
-        <f t="shared" si="26"/>
-        <v>68</v>
-      </c>
-      <c r="H24">
         <f t="shared" si="27"/>
         <v>68</v>
       </c>
+      <c r="H24">
+        <f t="shared" si="28"/>
+        <v>68</v>
+      </c>
       <c r="I24" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v xml:space="preserve">  GGCOLOUR $444444</v>
       </c>
       <c r="O24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>64</v>
       </c>
       <c r="P24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q24">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="R24">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="S24">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="T24">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="U24">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="V24">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="W24" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">  SMSCOLOUR $000000</v>
       </c>
     </row>
     <row r="25" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>133</v>
       </c>
       <c r="C25">
@@ -24001,61 +24001,61 @@
         <v>8</v>
       </c>
       <c r="F25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>136</v>
       </c>
       <c r="G25">
-        <f t="shared" si="26"/>
-        <v>136</v>
-      </c>
-      <c r="H25">
         <f t="shared" si="27"/>
         <v>136</v>
       </c>
+      <c r="H25">
+        <f t="shared" si="28"/>
+        <v>136</v>
+      </c>
       <c r="I25" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v xml:space="preserve">  GGCOLOUR $888888</v>
       </c>
       <c r="O25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>67</v>
       </c>
       <c r="P25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="R25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="S25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="T25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="U25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="V25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="W25" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">  SMSCOLOUR $000000</v>
       </c>
     </row>
     <row r="26" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B26">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>139</v>
       </c>
       <c r="C26">
@@ -24071,61 +24071,61 @@
         <v>14</v>
       </c>
       <c r="F26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>238</v>
       </c>
       <c r="G26">
-        <f t="shared" si="26"/>
-        <v>238</v>
-      </c>
-      <c r="H26">
         <f t="shared" si="27"/>
         <v>238</v>
       </c>
+      <c r="H26">
+        <f t="shared" si="28"/>
+        <v>238</v>
+      </c>
       <c r="I26" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v xml:space="preserve">  GGCOLOUR $EEEEEE</v>
       </c>
       <c r="O26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>70</v>
       </c>
       <c r="P26">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q26">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="R26">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="S26">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="T26">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="U26">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="V26">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="W26" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">  SMSCOLOUR $000000</v>
       </c>
     </row>
     <row r="27" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B27">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>145</v>
       </c>
       <c r="C27">
@@ -24141,61 +24141,61 @@
         <v>14</v>
       </c>
       <c r="F27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>238</v>
       </c>
       <c r="G27">
+        <f t="shared" si="27"/>
+        <v>136</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="I27" t="str">
+        <f t="shared" si="29"/>
+        <v xml:space="preserve">  GGCOLOUR $EE8800</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="18"/>
+        <v>73</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="W27" t="str">
         <f t="shared" si="26"/>
-        <v>136</v>
-      </c>
-      <c r="H27">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="I27" t="str">
-        <f t="shared" si="28"/>
-        <v xml:space="preserve">  GGCOLOUR $EE8800</v>
-      </c>
-      <c r="O27">
-        <f t="shared" si="17"/>
-        <v>73</v>
-      </c>
-      <c r="P27">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="R27">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="S27">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="T27">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="U27">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="V27">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="W27" t="str">
-        <f t="shared" si="25"/>
         <v xml:space="preserve">  SMSCOLOUR $000000</v>
       </c>
     </row>
     <row r="28" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>151</v>
       </c>
       <c r="C28">
@@ -24211,61 +24211,61 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G28">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" si="29"/>
+        <v xml:space="preserve">  GGCOLOUR $000000</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="18"/>
+        <v>76</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="W28" t="str">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="I28" t="str">
-        <f t="shared" si="28"/>
-        <v xml:space="preserve">  GGCOLOUR $000000</v>
-      </c>
-      <c r="O28">
-        <f t="shared" si="17"/>
-        <v>76</v>
-      </c>
-      <c r="P28">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="R28">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="S28">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="T28">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="U28">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="V28">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="W28" t="str">
-        <f t="shared" si="25"/>
         <v xml:space="preserve">  SMSCOLOUR $000000</v>
       </c>
     </row>
     <row r="29" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>157</v>
       </c>
       <c r="C29">
@@ -24281,61 +24281,61 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G29">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="29"/>
+        <v xml:space="preserve">  GGCOLOUR $000000</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="18"/>
+        <v>79</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="W29" t="str">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="I29" t="str">
-        <f t="shared" si="28"/>
-        <v xml:space="preserve">  GGCOLOUR $000000</v>
-      </c>
-      <c r="O29">
-        <f t="shared" si="17"/>
-        <v>79</v>
-      </c>
-      <c r="P29">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="R29">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="S29">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="T29">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="U29">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="V29">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="W29" t="str">
-        <f t="shared" si="25"/>
         <v xml:space="preserve">  SMSCOLOUR $000000</v>
       </c>
     </row>
     <row r="30" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>163</v>
       </c>
       <c r="C30">
@@ -24351,61 +24351,61 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G30">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="29"/>
+        <v xml:space="preserve">  GGCOLOUR $000000</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="18"/>
+        <v>82</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="W30" t="str">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="I30" t="str">
-        <f t="shared" si="28"/>
-        <v xml:space="preserve">  GGCOLOUR $000000</v>
-      </c>
-      <c r="O30">
-        <f t="shared" si="17"/>
-        <v>82</v>
-      </c>
-      <c r="P30">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="R30">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="S30">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="T30">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="U30">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="V30">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="W30" t="str">
-        <f t="shared" si="25"/>
         <v xml:space="preserve">  SMSCOLOUR $000000</v>
       </c>
     </row>
     <row r="31" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>169</v>
       </c>
       <c r="C31">
@@ -24421,61 +24421,61 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G31">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="29"/>
+        <v xml:space="preserve">  GGCOLOUR $000000</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="18"/>
+        <v>85</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="W31" t="str">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="I31" t="str">
-        <f t="shared" si="28"/>
-        <v xml:space="preserve">  GGCOLOUR $000000</v>
-      </c>
-      <c r="O31">
-        <f t="shared" si="17"/>
-        <v>85</v>
-      </c>
-      <c r="P31">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="R31">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="S31">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="T31">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="U31">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="V31">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="W31" t="str">
-        <f t="shared" si="25"/>
         <v xml:space="preserve">  SMSCOLOUR $000000</v>
       </c>
     </row>
     <row r="32" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B32">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>175</v>
       </c>
       <c r="C32">
@@ -24491,61 +24491,61 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G32">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="I32" t="str">
+        <f t="shared" si="29"/>
+        <v xml:space="preserve">  GGCOLOUR $000000</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="18"/>
+        <v>88</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="W32" t="str">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="I32" t="str">
-        <f t="shared" si="28"/>
-        <v xml:space="preserve">  GGCOLOUR $000000</v>
-      </c>
-      <c r="O32">
-        <f t="shared" si="17"/>
-        <v>88</v>
-      </c>
-      <c r="P32">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="R32">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="S32">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="T32">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="U32">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="V32">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="W32" t="str">
-        <f t="shared" si="25"/>
         <v xml:space="preserve">  SMSCOLOUR $000000</v>
       </c>
     </row>
     <row r="33" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>181</v>
       </c>
       <c r="C33">
@@ -24561,61 +24561,61 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G33">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" si="29"/>
+        <v xml:space="preserve">  GGCOLOUR $000000</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="18"/>
+        <v>91</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="W33" t="str">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="I33" t="str">
-        <f t="shared" si="28"/>
-        <v xml:space="preserve">  GGCOLOUR $000000</v>
-      </c>
-      <c r="O33">
-        <f t="shared" si="17"/>
-        <v>91</v>
-      </c>
-      <c r="P33">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="R33">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="S33">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="T33">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="U33">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="V33">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="W33" t="str">
-        <f t="shared" si="25"/>
         <v xml:space="preserve">  SMSCOLOUR $000000</v>
       </c>
     </row>
     <row r="34" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>187</v>
       </c>
       <c r="C34">
@@ -24631,55 +24631,55 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G34">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="I34" t="str">
+        <f t="shared" si="29"/>
+        <v xml:space="preserve">  GGCOLOUR $000000</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="18"/>
+        <v>94</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="W34" t="str">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="I34" t="str">
-        <f t="shared" si="28"/>
-        <v xml:space="preserve">  GGCOLOUR $000000</v>
-      </c>
-      <c r="O34">
-        <f t="shared" si="17"/>
-        <v>94</v>
-      </c>
-      <c r="P34">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="R34">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="S34">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="T34">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="U34">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="V34">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="W34" t="str">
-        <f t="shared" si="25"/>
         <v xml:space="preserve">  SMSCOLOUR $000000</v>
       </c>
     </row>

--- a/Analysis/Micro Machines tables.xlsx
+++ b/Analysis/Micro Machines tables.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="148">
   <si>
     <t>0f0e0f0e0d0e0e0f</t>
   </si>
@@ -466,7 +466,7 @@
     <t>0100</t>
   </si>
   <si>
-    <t>00 00 44 00 48 00 EE 0E 88 08 44 04 08 00 40 08 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 4E 04 E4 00 00 00 84 0E 44 04 88 08 EE 0E 8E 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00</t>
+    <t>04 08 EE 0E 80 00 08 00 4E 04 8E 00 44 0E 00 00 22 02 44 04 88 08 40 00 C0 00 E0 00 AE 0A 00 00 04 08 EE 0E 80 00 08 00 4E 04 8E 00 88 0E 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00</t>
   </si>
 </sst>
 </file>
@@ -22292,29 +22292,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA34"/>
+  <dimension ref="A1:AB34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:I34"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="22" width="4.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>147</v>
       </c>
-      <c r="AA1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>137</v>
       </c>
@@ -22372,18 +22367,21 @@
       <c r="W2" t="s">
         <v>142</v>
       </c>
-      <c r="AA2" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="AA2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.45">
       <c r="B3">
         <f>(ROW()-ROW($B$3))*6+1</f>
         <v>1</v>
       </c>
       <c r="C3">
         <f>HEX2DEC(MID($B$1,$B3+4,1))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D3">
         <f>HEX2DEC(MID($B$1,$B3+0,1))</f>
@@ -22391,11 +22389,11 @@
       </c>
       <c r="E3">
         <f>HEX2DEC(MID($B$1,$B3+1,1))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F3">
         <f>E3*255/15</f>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="G3">
         <f>D3*255/15</f>
@@ -22403,11 +22401,11 @@
       </c>
       <c r="H3">
         <f>C3*255/15</f>
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="I3" t="str">
         <f>"  GGCOLOUR $"&amp;DEC2HEX(F3*65536+G3*256+H3,6)</f>
-        <v xml:space="preserve">  GGCOLOUR $000000</v>
+        <v xml:space="preserve">  GGCOLOUR $440088</v>
       </c>
       <c r="O3">
         <f t="shared" ref="O3:O12" si="0">(ROW()-ROW($B$3))*3+1</f>
@@ -22415,7 +22413,7 @@
       </c>
       <c r="P3">
         <f t="shared" ref="P3:P12" si="1">HEX2DEC(MID($B$1,O3,2))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q12" si="2">_xlfn.BITAND(P3,3)</f>
@@ -22423,7 +22421,7 @@
       </c>
       <c r="R3">
         <f t="shared" ref="R3:R12" si="3">_xlfn.BITAND(_xlfn.BITRSHIFT(P3,2),3)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S3">
         <f t="shared" ref="S3:S12" si="4">_xlfn.BITAND(_xlfn.BITRSHIFT(P3,4),3)</f>
@@ -22435,7 +22433,7 @@
       </c>
       <c r="U3">
         <f t="shared" ref="U3:U12" si="6">R3*255/3</f>
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="V3">
         <f t="shared" ref="V3:V12" si="7">S3*255/3</f>
@@ -22443,44 +22441,47 @@
       </c>
       <c r="W3" t="str">
         <f>"  SMSCOLOUR $"&amp;DEC2HEX(T3*65536+U3*256+V3,6)</f>
-        <v xml:space="preserve">  SMSCOLOUR $000000</v>
-      </c>
-      <c r="AA3">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">  SMSCOLOUR $005500</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.45">
       <c r="B4">
         <f>(ROW()-ROW($B$3))*6+1</f>
         <v>7</v>
       </c>
       <c r="C4">
         <f t="shared" ref="C4:C34" si="8">HEX2DEC(MID($B$1,$B4+4,1))</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D4">
         <f t="shared" ref="D4:D34" si="9">HEX2DEC(MID($B$1,$B4+0,1))</f>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <f t="shared" ref="E4:E34" si="10">HEX2DEC(MID($B$1,$B4+1,1))</f>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F4">
         <f>E4*255/15</f>
-        <v>68</v>
+        <v>238</v>
       </c>
       <c r="G4">
         <f>D4*255/15</f>
-        <v>68</v>
+        <v>238</v>
       </c>
       <c r="H4">
         <f>C4*255/15</f>
-        <v>0</v>
+        <v>238</v>
       </c>
       <c r="I4" t="str">
         <f>"  GGCOLOUR $"&amp;DEC2HEX(F4*65536+G4*256+H4,6)</f>
-        <v xml:space="preserve">  GGCOLOUR $444400</v>
+        <v xml:space="preserve">  GGCOLOUR $EEEEEE</v>
       </c>
       <c r="O4">
         <f t="shared" si="0"/>
@@ -22488,7 +22489,7 @@
       </c>
       <c r="P4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q4">
         <f t="shared" si="2"/>
@@ -22496,7 +22497,7 @@
       </c>
       <c r="R4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S4">
         <f t="shared" si="4"/>
@@ -22508,7 +22509,7 @@
       </c>
       <c r="U4">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="V4">
         <f t="shared" si="7"/>
@@ -22516,16 +22517,18 @@
       </c>
       <c r="W4" t="str">
         <f t="shared" ref="W4:W12" si="11">"  SMSCOLOUR $"&amp;DEC2HEX(T4*65536+U4*256+V4,6)</f>
-        <v xml:space="preserve">  SMSCOLOUR $000000</v>
-      </c>
-      <c r="AA4" t="str">
-        <f t="shared" ref="AA4:AA19" si="12">T3&amp;" "&amp;U3&amp;" "&amp;V3</f>
-        <v>0 0 0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">  SMSCOLOUR $00AA00</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.45">
       <c r="B5">
-        <f t="shared" ref="B5:B34" si="13">(ROW()-ROW($B$3))*6+1</f>
+        <f t="shared" ref="B5:B34" si="12">(ROW()-ROW($B$3))*6+1</f>
         <v>13</v>
       </c>
       <c r="C5">
@@ -22534,27 +22537,27 @@
       </c>
       <c r="D5">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E5">
         <f t="shared" si="10"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <f t="shared" ref="F5:F34" si="14">E5*255/15</f>
+        <f t="shared" ref="F5:F34" si="13">E5*255/15</f>
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ref="G5:G22" si="14">D5*255/15</f>
         <v>136</v>
       </c>
-      <c r="G5">
-        <f t="shared" ref="G5:G22" si="15">D5*255/15</f>
-        <v>68</v>
-      </c>
       <c r="H5">
-        <f t="shared" ref="H5:H22" si="16">C5*255/15</f>
+        <f t="shared" ref="H5:H22" si="15">C5*255/15</f>
         <v>0</v>
       </c>
       <c r="I5" t="str">
-        <f t="shared" ref="I5:I22" si="17">"  GGCOLOUR $"&amp;DEC2HEX(F5*65536+G5*256+H5,6)</f>
-        <v xml:space="preserve">  GGCOLOUR $884400</v>
+        <f t="shared" ref="I5:I22" si="16">"  GGCOLOUR $"&amp;DEC2HEX(F5*65536+G5*256+H5,6)</f>
+        <v xml:space="preserve">  GGCOLOUR $008800</v>
       </c>
       <c r="O5">
         <f t="shared" si="0"/>
@@ -22562,73 +22565,75 @@
       </c>
       <c r="P5">
         <f t="shared" si="1"/>
-        <v>68</v>
+        <v>238</v>
       </c>
       <c r="Q5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R5">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S5">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="U5">
         <f t="shared" si="6"/>
-        <v>85</v>
+        <v>255</v>
       </c>
       <c r="V5">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="W5" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">  SMSCOLOUR $005500</v>
-      </c>
-      <c r="AA5" t="str">
+        <v xml:space="preserve">  SMSCOLOUR $AAFFAA</v>
+      </c>
+      <c r="AA5">
+        <v>16</v>
+      </c>
+      <c r="AB5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="B6">
         <f t="shared" si="12"/>
-        <v>0 0 0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="B6">
-        <f t="shared" si="13"/>
         <v>19</v>
       </c>
       <c r="C6">
         <f t="shared" si="8"/>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <f t="shared" si="9"/>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <f t="shared" si="10"/>
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F6">
+        <f t="shared" si="13"/>
+        <v>136</v>
+      </c>
+      <c r="G6">
         <f t="shared" si="14"/>
-        <v>238</v>
-      </c>
-      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <f t="shared" si="15"/>
-        <v>238</v>
-      </c>
-      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" t="str">
         <f t="shared" si="16"/>
-        <v>238</v>
-      </c>
-      <c r="I6" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">  GGCOLOUR $EEEEEE</v>
+        <v xml:space="preserve">  GGCOLOUR $880000</v>
       </c>
       <c r="O6">
         <f t="shared" si="0"/>
@@ -22636,15 +22641,15 @@
       </c>
       <c r="P6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Q6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S6">
         <f t="shared" si="4"/>
@@ -22652,11 +22657,11 @@
       </c>
       <c r="T6">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="U6">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="V6">
         <f t="shared" si="7"/>
@@ -22664,119 +22669,127 @@
       </c>
       <c r="W6" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">  SMSCOLOUR $000000</v>
+        <v xml:space="preserve">  SMSCOLOUR $AAFF00</v>
       </c>
       <c r="AA6" t="str">
+        <f>T3&amp;" "&amp;U3&amp;" "&amp;V3</f>
+        <v>0 85 0</v>
+      </c>
+      <c r="AB6" t="str">
+        <f>F3&amp;" "&amp;G3&amp;" "&amp;H3</f>
+        <v>68 0 136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="B7">
         <f t="shared" si="12"/>
-        <v>0 85 0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="B7">
-        <f t="shared" si="13"/>
         <v>25</v>
       </c>
       <c r="C7">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D7">
         <f t="shared" si="9"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E7">
         <f t="shared" si="10"/>
+        <v>14</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="13"/>
+        <v>238</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="14"/>
+        <v>68</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="15"/>
+        <v>68</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">  GGCOLOUR $EE4444</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="1"/>
+        <v>128</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W7" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">  SMSCOLOUR $000000</v>
+      </c>
+      <c r="AA7" t="str">
+        <f>T4&amp;" "&amp;U4&amp;" "&amp;V4</f>
+        <v>0 170 0</v>
+      </c>
+      <c r="AB7" t="str">
+        <f t="shared" ref="AB7:AB21" si="17">F4&amp;" "&amp;G4&amp;" "&amp;H4</f>
+        <v>238 238 238</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="B8">
+        <f t="shared" si="12"/>
+        <v>31</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
-      <c r="F7">
+      <c r="E8">
+        <f t="shared" si="10"/>
+        <v>14</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="13"/>
+        <v>238</v>
+      </c>
+      <c r="G8">
         <f t="shared" si="14"/>
         <v>136</v>
       </c>
-      <c r="G7">
+      <c r="H8">
         <f t="shared" si="15"/>
-        <v>136</v>
-      </c>
-      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I8" t="str">
         <f t="shared" si="16"/>
-        <v>136</v>
-      </c>
-      <c r="I7" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">  GGCOLOUR $888888</v>
-      </c>
-      <c r="O7">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="P7">
-        <f t="shared" si="1"/>
-        <v>72</v>
-      </c>
-      <c r="Q7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="S7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <f t="shared" si="6"/>
-        <v>170</v>
-      </c>
-      <c r="V7">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="W7" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">  SMSCOLOUR $00AA00</v>
-      </c>
-      <c r="AA7" t="str">
-        <f t="shared" si="12"/>
-        <v>0 0 0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="B8">
-        <f t="shared" si="13"/>
-        <v>31</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="10"/>
-        <v>4</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="14"/>
-        <v>68</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="15"/>
-        <v>68</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="16"/>
-        <v>68</v>
-      </c>
-      <c r="I8" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">  GGCOLOUR $444444</v>
+        <v xml:space="preserve">  GGCOLOUR $EE8800</v>
       </c>
       <c r="O8">
         <f t="shared" si="0"/>
@@ -22815,338 +22828,358 @@
         <v xml:space="preserve">  SMSCOLOUR $000000</v>
       </c>
       <c r="AA8" t="str">
+        <f>T5&amp;" "&amp;U5&amp;" "&amp;V5</f>
+        <v>170 255 170</v>
+      </c>
+      <c r="AB8" t="str">
+        <f t="shared" si="17"/>
+        <v>0 136 0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="B9">
         <f t="shared" si="12"/>
-        <v>0 170 0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="B9">
-        <f t="shared" si="13"/>
         <v>37</v>
       </c>
       <c r="C9">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D9">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E9">
         <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="13"/>
+        <v>68</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="14"/>
+        <v>68</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="15"/>
+        <v>238</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">  GGCOLOUR $4444EE</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="F9">
+      <c r="Q9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="6"/>
+        <v>170</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W9" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">  SMSCOLOUR $00AA00</v>
+      </c>
+      <c r="AA9" t="str">
+        <f>T6&amp;" "&amp;U6&amp;" "&amp;V6</f>
+        <v>170 255 0</v>
+      </c>
+      <c r="AB9" t="str">
+        <f t="shared" si="17"/>
+        <v>136 0 0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="B10">
+        <f t="shared" si="12"/>
+        <v>43</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">  GGCOLOUR $000000</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W10" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">  SMSCOLOUR $000000</v>
+      </c>
+      <c r="AA10" t="str">
+        <f>T7&amp;" "&amp;U7&amp;" "&amp;V7</f>
+        <v>0 0 0</v>
+      </c>
+      <c r="AB10" t="str">
+        <f t="shared" si="17"/>
+        <v>238 68 68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="B11">
+        <f t="shared" si="12"/>
+        <v>49</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="13"/>
+        <v>34</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="14"/>
+        <v>34</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="15"/>
+        <v>34</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">  GGCOLOUR $222222</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="5"/>
+        <v>170</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="6"/>
+        <v>255</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W11" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">  SMSCOLOUR $AAFF00</v>
+      </c>
+      <c r="AA11" t="str">
+        <f>T8&amp;" "&amp;U8&amp;" "&amp;V8</f>
+        <v>0 0 0</v>
+      </c>
+      <c r="AB11" t="str">
+        <f t="shared" si="17"/>
+        <v>238 136 0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="B12">
+        <f t="shared" si="12"/>
+        <v>55</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="13"/>
+        <v>68</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="14"/>
+        <v>68</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="15"/>
+        <v>68</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">  GGCOLOUR $444444</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="6"/>
+        <v>85</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W12" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">  SMSCOLOUR $005500</v>
+      </c>
+      <c r="AA12" t="str">
+        <f>T9&amp;" "&amp;U9&amp;" "&amp;V9</f>
+        <v>0 170 0</v>
+      </c>
+      <c r="AB12" t="str">
+        <f t="shared" si="17"/>
+        <v>68 68 238</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="B13">
+        <f t="shared" si="12"/>
+        <v>61</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="13"/>
+        <v>136</v>
+      </c>
+      <c r="G13">
         <f t="shared" si="14"/>
         <v>136</v>
       </c>
-      <c r="G9">
+      <c r="H13">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="H9">
+        <v>136</v>
+      </c>
+      <c r="I13" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="I9" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">  GGCOLOUR $880000</v>
-      </c>
-      <c r="O9">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="P9">
-        <f t="shared" si="1"/>
-        <v>238</v>
-      </c>
-      <c r="Q9">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="R9">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="S9">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="T9">
-        <f t="shared" si="5"/>
-        <v>170</v>
-      </c>
-      <c r="U9">
-        <f t="shared" si="6"/>
-        <v>255</v>
-      </c>
-      <c r="V9">
-        <f t="shared" si="7"/>
-        <v>170</v>
-      </c>
-      <c r="W9" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">  SMSCOLOUR $AAFFAA</v>
-      </c>
-      <c r="AA9" t="str">
-        <f t="shared" si="12"/>
-        <v>0 0 0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="B10">
-        <f t="shared" si="13"/>
-        <v>43</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="15"/>
-        <v>68</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="16"/>
-        <v>136</v>
-      </c>
-      <c r="I10" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">  GGCOLOUR $004488</v>
-      </c>
-      <c r="O10">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="P10">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="Q10">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="R10">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="S10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <f t="shared" si="5"/>
-        <v>170</v>
-      </c>
-      <c r="U10">
-        <f t="shared" si="6"/>
-        <v>255</v>
-      </c>
-      <c r="V10">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="W10" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">  SMSCOLOUR $AAFF00</v>
-      </c>
-      <c r="AA10" t="str">
-        <f t="shared" si="12"/>
-        <v>170 255 170</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="B11">
-        <f t="shared" si="13"/>
-        <v>49</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="I11" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">  GGCOLOUR $000000</v>
-      </c>
-      <c r="O11">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="P11">
-        <f t="shared" si="1"/>
-        <v>136</v>
-      </c>
-      <c r="Q11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="S11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <f t="shared" si="6"/>
-        <v>170</v>
-      </c>
-      <c r="V11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="W11" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">  SMSCOLOUR $00AA00</v>
-      </c>
-      <c r="AA11" t="str">
-        <f t="shared" si="12"/>
-        <v>170 255 0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="B12">
-        <f t="shared" si="13"/>
-        <v>55</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="I12" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">  GGCOLOUR $000000</v>
-      </c>
-      <c r="O12">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="P12">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="Q12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="S12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <f t="shared" si="6"/>
-        <v>170</v>
-      </c>
-      <c r="V12">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="W12" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">  SMSCOLOUR $00AA00</v>
-      </c>
-      <c r="AA12" t="str">
-        <f t="shared" si="12"/>
-        <v>0 170 0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="B13">
-        <f t="shared" si="13"/>
-        <v>61</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="I13" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">  GGCOLOUR $000000</v>
+        <v xml:space="preserve">  GGCOLOUR $888888</v>
       </c>
       <c r="O13">
         <f t="shared" ref="O13:O34" si="18">(ROW()-ROW($B$3))*3+1</f>
@@ -23154,15 +23187,15 @@
       </c>
       <c r="P13">
         <f t="shared" ref="P13:P34" si="19">HEX2DEC(MID($B$1,O13,2))</f>
-        <v>68</v>
+        <v>142</v>
       </c>
       <c r="Q13">
         <f t="shared" ref="Q13:Q34" si="20">_xlfn.BITAND(P13,3)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R13">
         <f t="shared" ref="R13:R34" si="21">_xlfn.BITAND(_xlfn.BITRSHIFT(P13,2),3)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S13">
         <f t="shared" ref="S13:S34" si="22">_xlfn.BITAND(_xlfn.BITRSHIFT(P13,4),3)</f>
@@ -23170,11 +23203,11 @@
       </c>
       <c r="T13">
         <f t="shared" ref="T13:T34" si="23">Q13*255/3</f>
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="U13">
         <f t="shared" ref="U13:U34" si="24">R13*255/3</f>
-        <v>85</v>
+        <v>255</v>
       </c>
       <c r="V13">
         <f t="shared" ref="V13:V34" si="25">S13*255/3</f>
@@ -23182,16 +23215,20 @@
       </c>
       <c r="W13" t="str">
         <f t="shared" ref="W13:W34" si="26">"  SMSCOLOUR $"&amp;DEC2HEX(T13*65536+U13*256+V13,6)</f>
-        <v xml:space="preserve">  SMSCOLOUR $005500</v>
+        <v xml:space="preserve">  SMSCOLOUR $AAFF00</v>
       </c>
       <c r="AA13" t="str">
+        <f>T10&amp;" "&amp;U10&amp;" "&amp;V10</f>
+        <v>0 0 0</v>
+      </c>
+      <c r="AB13" t="str">
+        <f t="shared" si="17"/>
+        <v>0 0 0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="B14">
         <f t="shared" si="12"/>
-        <v>0 170 0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="B14">
-        <f t="shared" si="13"/>
         <v>67</v>
       </c>
       <c r="C14">
@@ -23200,27 +23237,27 @@
       </c>
       <c r="D14">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E14">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F14">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G14">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="G14">
+        <v>68</v>
+      </c>
+      <c r="H14">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="H14">
+      <c r="I14" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="I14" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">  GGCOLOUR $000000</v>
+        <v xml:space="preserve">  GGCOLOUR $004400</v>
       </c>
       <c r="O14">
         <f t="shared" si="18"/>
@@ -23228,7 +23265,7 @@
       </c>
       <c r="P14">
         <f t="shared" si="19"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q14">
         <f t="shared" si="20"/>
@@ -23236,7 +23273,7 @@
       </c>
       <c r="R14">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S14">
         <f t="shared" si="22"/>
@@ -23248,7 +23285,7 @@
       </c>
       <c r="U14">
         <f t="shared" si="24"/>
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="V14">
         <f t="shared" si="25"/>
@@ -23256,16 +23293,20 @@
       </c>
       <c r="W14" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">  SMSCOLOUR $005500</v>
+        <v xml:space="preserve">  SMSCOLOUR $000000</v>
       </c>
       <c r="AA14" t="str">
+        <f>T11&amp;" "&amp;U11&amp;" "&amp;V11</f>
+        <v>170 255 0</v>
+      </c>
+      <c r="AB14" t="str">
+        <f t="shared" si="17"/>
+        <v>34 34 34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="B15">
         <f t="shared" si="12"/>
-        <v>0 85 0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="B15">
-        <f t="shared" si="13"/>
         <v>73</v>
       </c>
       <c r="C15">
@@ -23274,27 +23315,27 @@
       </c>
       <c r="D15">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E15">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F15">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G15">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="G15">
+        <v>204</v>
+      </c>
+      <c r="H15">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="H15">
+      <c r="I15" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="I15" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">  GGCOLOUR $000000</v>
+        <v xml:space="preserve">  GGCOLOUR $00CC00</v>
       </c>
       <c r="O15">
         <f t="shared" si="18"/>
@@ -23302,7 +23343,7 @@
       </c>
       <c r="P15">
         <f t="shared" si="19"/>
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="Q15">
         <f t="shared" si="20"/>
@@ -23310,7 +23351,7 @@
       </c>
       <c r="R15">
         <f t="shared" si="21"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S15">
         <f t="shared" si="22"/>
@@ -23322,7 +23363,7 @@
       </c>
       <c r="U15">
         <f t="shared" si="24"/>
-        <v>170</v>
+        <v>85</v>
       </c>
       <c r="V15">
         <f t="shared" si="25"/>
@@ -23330,16 +23371,20 @@
       </c>
       <c r="W15" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">  SMSCOLOUR $00AA00</v>
+        <v xml:space="preserve">  SMSCOLOUR $005500</v>
       </c>
       <c r="AA15" t="str">
+        <f>T12&amp;" "&amp;U12&amp;" "&amp;V12</f>
+        <v>0 85 0</v>
+      </c>
+      <c r="AB15" t="str">
+        <f t="shared" si="17"/>
+        <v>68 68 68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="B16">
         <f t="shared" si="12"/>
-        <v>0 85 0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="B16">
-        <f t="shared" si="13"/>
         <v>79</v>
       </c>
       <c r="C16">
@@ -23348,27 +23393,27 @@
       </c>
       <c r="D16">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E16">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F16">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G16">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="G16">
+        <v>238</v>
+      </c>
+      <c r="H16">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="H16">
+      <c r="I16" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="I16" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">  GGCOLOUR $000000</v>
+        <v xml:space="preserve">  GGCOLOUR $00EE00</v>
       </c>
       <c r="O16">
         <f t="shared" si="18"/>
@@ -23376,15 +23421,15 @@
       </c>
       <c r="P16">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Q16">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R16">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S16">
         <f t="shared" si="22"/>
@@ -23392,11 +23437,11 @@
       </c>
       <c r="T16">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="U16">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="V16">
         <f t="shared" si="25"/>
@@ -23404,45 +23449,49 @@
       </c>
       <c r="W16" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">  SMSCOLOUR $000000</v>
+        <v xml:space="preserve">  SMSCOLOUR $AAFF00</v>
       </c>
       <c r="AA16" t="str">
+        <f>T13&amp;" "&amp;U13&amp;" "&amp;V13</f>
+        <v>170 255 0</v>
+      </c>
+      <c r="AB16" t="str">
+        <f t="shared" si="17"/>
+        <v>136 136 136</v>
+      </c>
+    </row>
+    <row r="17" spans="2:28" x14ac:dyDescent="0.45">
+      <c r="B17">
         <f t="shared" si="12"/>
-        <v>0 170 0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.45">
-      <c r="B17">
-        <f t="shared" si="13"/>
         <v>85</v>
       </c>
       <c r="C17">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D17">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E17">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F17">
+        <f t="shared" si="13"/>
+        <v>238</v>
+      </c>
+      <c r="G17">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="G17">
+        <v>170</v>
+      </c>
+      <c r="H17">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="H17">
+        <v>170</v>
+      </c>
+      <c r="I17" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="I17" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">  GGCOLOUR $000000</v>
+        <v xml:space="preserve">  GGCOLOUR $EEAAAA</v>
       </c>
       <c r="O17">
         <f t="shared" si="18"/>
@@ -23450,7 +23499,7 @@
       </c>
       <c r="P17">
         <f t="shared" si="19"/>
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="Q17">
         <f t="shared" si="20"/>
@@ -23481,13 +23530,17 @@
         <v xml:space="preserve">  SMSCOLOUR $000000</v>
       </c>
       <c r="AA17" t="str">
+        <f>T14&amp;" "&amp;U14&amp;" "&amp;V14</f>
+        <v>0 0 0</v>
+      </c>
+      <c r="AB17" t="str">
+        <f t="shared" si="17"/>
+        <v>0 68 0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:28" x14ac:dyDescent="0.45">
+      <c r="B18">
         <f t="shared" si="12"/>
-        <v>0 0 0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:27" x14ac:dyDescent="0.45">
-      <c r="B18">
-        <f t="shared" si="13"/>
         <v>91</v>
       </c>
       <c r="C18">
@@ -23503,19 +23556,19 @@
         <v>0</v>
       </c>
       <c r="F18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G18">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="H18">
+      <c r="I18" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="I18" t="str">
-        <f t="shared" si="17"/>
         <v xml:space="preserve">  GGCOLOUR $000000</v>
       </c>
       <c r="O18">
@@ -23524,7 +23577,7 @@
       </c>
       <c r="P18">
         <f t="shared" si="19"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Q18">
         <f t="shared" si="20"/>
@@ -23532,7 +23585,7 @@
       </c>
       <c r="R18">
         <f t="shared" si="21"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S18">
         <f t="shared" si="22"/>
@@ -23544,7 +23597,7 @@
       </c>
       <c r="U18">
         <f t="shared" si="24"/>
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="V18">
         <f t="shared" si="25"/>
@@ -23552,21 +23605,25 @@
       </c>
       <c r="W18" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">  SMSCOLOUR $00AA00</v>
+        <v xml:space="preserve">  SMSCOLOUR $000000</v>
       </c>
       <c r="AA18" t="str">
+        <f>T15&amp;" "&amp;U15&amp;" "&amp;V15</f>
+        <v>0 85 0</v>
+      </c>
+      <c r="AB18" t="str">
+        <f t="shared" si="17"/>
+        <v>0 204 0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:28" x14ac:dyDescent="0.45">
+      <c r="B19">
         <f t="shared" si="12"/>
-        <v>0 0 0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:27" x14ac:dyDescent="0.45">
-      <c r="B19">
-        <f t="shared" si="13"/>
         <v>97</v>
       </c>
       <c r="C19">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D19">
         <f t="shared" si="9"/>
@@ -23574,23 +23631,23 @@
       </c>
       <c r="E19">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F19">
+        <f t="shared" si="13"/>
+        <v>68</v>
+      </c>
+      <c r="G19">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="H19">
+        <v>136</v>
+      </c>
+      <c r="I19" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="I19" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">  GGCOLOUR $000000</v>
+        <v xml:space="preserve">  GGCOLOUR $440088</v>
       </c>
       <c r="O19">
         <f t="shared" si="18"/>
@@ -23598,11 +23655,11 @@
       </c>
       <c r="P19">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="Q19">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R19">
         <f t="shared" si="21"/>
@@ -23610,11 +23667,11 @@
       </c>
       <c r="S19">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T19">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="U19">
         <f t="shared" si="24"/>
@@ -23622,49 +23679,53 @@
       </c>
       <c r="V19">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="W19" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">  SMSCOLOUR $000000</v>
+        <v xml:space="preserve">  SMSCOLOUR $AA00AA</v>
       </c>
       <c r="AA19" t="str">
+        <f>T16&amp;" "&amp;U16&amp;" "&amp;V16</f>
+        <v>170 255 0</v>
+      </c>
+      <c r="AB19" t="str">
+        <f t="shared" si="17"/>
+        <v>0 238 0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:28" x14ac:dyDescent="0.45">
+      <c r="B20">
         <f t="shared" si="12"/>
-        <v>0 170 0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:27" x14ac:dyDescent="0.45">
-      <c r="B20">
-        <f t="shared" si="13"/>
         <v>103</v>
       </c>
       <c r="C20">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D20">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E20">
         <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="F20">
+        <f t="shared" si="13"/>
+        <v>238</v>
+      </c>
+      <c r="G20">
         <f t="shared" si="14"/>
         <v>238</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <f t="shared" si="15"/>
-        <v>68</v>
-      </c>
-      <c r="H20">
+        <v>238</v>
+      </c>
+      <c r="I20" t="str">
         <f t="shared" si="16"/>
-        <v>68</v>
-      </c>
-      <c r="I20" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">  GGCOLOUR $EE4444</v>
+        <v xml:space="preserve">  GGCOLOUR $EEEEEE</v>
       </c>
       <c r="O20">
         <f t="shared" si="18"/>
@@ -23672,11 +23733,11 @@
       </c>
       <c r="P20">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q20">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R20">
         <f t="shared" si="21"/>
@@ -23688,7 +23749,7 @@
       </c>
       <c r="T20">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="U20">
         <f t="shared" si="24"/>
@@ -23700,12 +23761,20 @@
       </c>
       <c r="W20" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">  SMSCOLOUR $000000</v>
-      </c>
-    </row>
-    <row r="21" spans="2:27" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">  SMSCOLOUR $AA0000</v>
+      </c>
+      <c r="AA20" t="str">
+        <f>T17&amp;" "&amp;U17&amp;" "&amp;V17</f>
+        <v>0 0 0</v>
+      </c>
+      <c r="AB20" t="str">
+        <f t="shared" si="17"/>
+        <v>238 170 170</v>
+      </c>
+    </row>
+    <row r="21" spans="2:28" x14ac:dyDescent="0.45">
       <c r="B21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>109</v>
       </c>
       <c r="C21">
@@ -23714,27 +23783,27 @@
       </c>
       <c r="D21">
         <f t="shared" si="9"/>
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E21">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F21">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G21">
         <f t="shared" si="14"/>
-        <v>68</v>
-      </c>
-      <c r="G21">
+        <v>136</v>
+      </c>
+      <c r="H21">
         <f t="shared" si="15"/>
-        <v>238</v>
-      </c>
-      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="I21" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">  GGCOLOUR $44EE00</v>
+        <v xml:space="preserve">  GGCOLOUR $008800</v>
       </c>
       <c r="O21">
         <f t="shared" si="18"/>
@@ -23742,7 +23811,7 @@
       </c>
       <c r="P21">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="Q21">
         <f t="shared" si="20"/>
@@ -23750,7 +23819,7 @@
       </c>
       <c r="R21">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S21">
         <f t="shared" si="22"/>
@@ -23762,7 +23831,7 @@
       </c>
       <c r="U21">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="V21">
         <f t="shared" si="25"/>
@@ -23770,12 +23839,20 @@
       </c>
       <c r="W21" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">  SMSCOLOUR $000000</v>
-      </c>
-    </row>
-    <row r="22" spans="2:27" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">  SMSCOLOUR $005500</v>
+      </c>
+      <c r="AA21" t="str">
+        <f>T18&amp;" "&amp;U18&amp;" "&amp;V18</f>
+        <v>0 0 0</v>
+      </c>
+      <c r="AB21" t="str">
+        <f t="shared" si="17"/>
+        <v>0 0 0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:28" x14ac:dyDescent="0.45">
       <c r="B22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>115</v>
       </c>
       <c r="C22">
@@ -23788,23 +23865,23 @@
       </c>
       <c r="E22">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F22">
+        <f t="shared" si="13"/>
+        <v>136</v>
+      </c>
+      <c r="G22">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="H22">
+      <c r="I22" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="I22" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">  GGCOLOUR $000000</v>
+        <v xml:space="preserve">  GGCOLOUR $880000</v>
       </c>
       <c r="O22">
         <f t="shared" si="18"/>
@@ -23812,7 +23889,7 @@
       </c>
       <c r="P22">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q22">
         <f t="shared" si="20"/>
@@ -23820,7 +23897,7 @@
       </c>
       <c r="R22">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S22">
         <f t="shared" si="22"/>
@@ -23832,7 +23909,7 @@
       </c>
       <c r="U22">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="V22">
         <f t="shared" si="25"/>
@@ -23840,41 +23917,41 @@
       </c>
       <c r="W22" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">  SMSCOLOUR $000000</v>
-      </c>
-    </row>
-    <row r="23" spans="2:27" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">  SMSCOLOUR $005500</v>
+      </c>
+    </row>
+    <row r="23" spans="2:28" x14ac:dyDescent="0.45">
       <c r="B23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>121</v>
       </c>
       <c r="C23">
         <f t="shared" si="8"/>
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D23">
         <f t="shared" si="9"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E23">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F23">
-        <f t="shared" si="14"/>
-        <v>68</v>
+        <f t="shared" si="13"/>
+        <v>238</v>
       </c>
       <c r="G23">
         <f t="shared" ref="G23:G34" si="27">D23*255/15</f>
-        <v>136</v>
+        <v>68</v>
       </c>
       <c r="H23">
         <f t="shared" ref="H23:H34" si="28">C23*255/15</f>
-        <v>238</v>
+        <v>68</v>
       </c>
       <c r="I23" t="str">
         <f t="shared" ref="I23:I34" si="29">"  GGCOLOUR $"&amp;DEC2HEX(F23*65536+G23*256+H23,6)</f>
-        <v xml:space="preserve">  GGCOLOUR $4488EE</v>
+        <v xml:space="preserve">  GGCOLOUR $EE4444</v>
       </c>
       <c r="O23">
         <f t="shared" si="18"/>
@@ -23882,7 +23959,7 @@
       </c>
       <c r="P23">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="Q23">
         <f t="shared" si="20"/>
@@ -23890,7 +23967,7 @@
       </c>
       <c r="R23">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S23">
         <f t="shared" si="22"/>
@@ -23902,7 +23979,7 @@
       </c>
       <c r="U23">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="V23">
         <f t="shared" si="25"/>
@@ -23910,41 +23987,41 @@
       </c>
       <c r="W23" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">  SMSCOLOUR $000000</v>
-      </c>
-    </row>
-    <row r="24" spans="2:27" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">  SMSCOLOUR $00AA00</v>
+      </c>
+    </row>
+    <row r="24" spans="2:28" x14ac:dyDescent="0.45">
       <c r="B24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>127</v>
       </c>
       <c r="C24">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D24">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E24">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F24">
-        <f t="shared" si="14"/>
-        <v>68</v>
+        <f t="shared" si="13"/>
+        <v>238</v>
       </c>
       <c r="G24">
         <f t="shared" si="27"/>
-        <v>68</v>
+        <v>136</v>
       </c>
       <c r="H24">
         <f t="shared" si="28"/>
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="I24" t="str">
         <f t="shared" si="29"/>
-        <v xml:space="preserve">  GGCOLOUR $444444</v>
+        <v xml:space="preserve">  GGCOLOUR $EE8800</v>
       </c>
       <c r="O24">
         <f t="shared" si="18"/>
@@ -23952,7 +24029,7 @@
       </c>
       <c r="P24">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q24">
         <f t="shared" si="20"/>
@@ -23960,7 +24037,7 @@
       </c>
       <c r="R24">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S24">
         <f t="shared" si="22"/>
@@ -23972,7 +24049,7 @@
       </c>
       <c r="U24">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="V24">
         <f t="shared" si="25"/>
@@ -23980,17 +24057,17 @@
       </c>
       <c r="W24" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">  SMSCOLOUR $000000</v>
-      </c>
-    </row>
-    <row r="25" spans="2:27" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">  SMSCOLOUR $00AA00</v>
+      </c>
+    </row>
+    <row r="25" spans="2:28" x14ac:dyDescent="0.45">
       <c r="B25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>133</v>
       </c>
       <c r="C25">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D25">
         <f t="shared" si="9"/>
@@ -24001,7 +24078,7 @@
         <v>8</v>
       </c>
       <c r="F25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>136</v>
       </c>
       <c r="G25">
@@ -24010,11 +24087,11 @@
       </c>
       <c r="H25">
         <f t="shared" si="28"/>
-        <v>136</v>
+        <v>238</v>
       </c>
       <c r="I25" t="str">
         <f t="shared" si="29"/>
-        <v xml:space="preserve">  GGCOLOUR $888888</v>
+        <v xml:space="preserve">  GGCOLOUR $8888EE</v>
       </c>
       <c r="O25">
         <f t="shared" si="18"/>
@@ -24022,7 +24099,7 @@
       </c>
       <c r="P25">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="Q25">
         <f t="shared" si="20"/>
@@ -24053,38 +24130,38 @@
         <v xml:space="preserve">  SMSCOLOUR $000000</v>
       </c>
     </row>
-    <row r="26" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:28" x14ac:dyDescent="0.45">
       <c r="B26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>139</v>
       </c>
       <c r="C26">
         <f t="shared" si="8"/>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D26">
         <f t="shared" si="9"/>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E26">
         <f t="shared" si="10"/>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <f t="shared" si="14"/>
-        <v>238</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="G26">
         <f t="shared" si="27"/>
-        <v>238</v>
+        <v>0</v>
       </c>
       <c r="H26">
         <f t="shared" si="28"/>
-        <v>238</v>
+        <v>0</v>
       </c>
       <c r="I26" t="str">
         <f t="shared" si="29"/>
-        <v xml:space="preserve">  GGCOLOUR $EEEEEE</v>
+        <v xml:space="preserve">  GGCOLOUR $000000</v>
       </c>
       <c r="O26">
         <f t="shared" si="18"/>
@@ -24123,9 +24200,9 @@
         <v xml:space="preserve">  SMSCOLOUR $000000</v>
       </c>
     </row>
-    <row r="27" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:28" x14ac:dyDescent="0.45">
       <c r="B27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>145</v>
       </c>
       <c r="C27">
@@ -24134,19 +24211,19 @@
       </c>
       <c r="D27">
         <f t="shared" si="9"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E27">
         <f t="shared" si="10"/>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <f t="shared" si="14"/>
-        <v>238</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="G27">
         <f t="shared" si="27"/>
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="H27">
         <f t="shared" si="28"/>
@@ -24154,7 +24231,7 @@
       </c>
       <c r="I27" t="str">
         <f t="shared" si="29"/>
-        <v xml:space="preserve">  GGCOLOUR $EE8800</v>
+        <v xml:space="preserve">  GGCOLOUR $000000</v>
       </c>
       <c r="O27">
         <f t="shared" si="18"/>
@@ -24162,7 +24239,7 @@
       </c>
       <c r="P27">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="Q27">
         <f t="shared" si="20"/>
@@ -24193,9 +24270,9 @@
         <v xml:space="preserve">  SMSCOLOUR $000000</v>
       </c>
     </row>
-    <row r="28" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:28" x14ac:dyDescent="0.45">
       <c r="B28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>151</v>
       </c>
       <c r="C28">
@@ -24211,7 +24288,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G28">
@@ -24263,9 +24340,9 @@
         <v xml:space="preserve">  SMSCOLOUR $000000</v>
       </c>
     </row>
-    <row r="29" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:28" x14ac:dyDescent="0.45">
       <c r="B29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>157</v>
       </c>
       <c r="C29">
@@ -24281,7 +24358,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G29">
@@ -24302,7 +24379,7 @@
       </c>
       <c r="P29">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>224</v>
       </c>
       <c r="Q29">
         <f t="shared" si="20"/>
@@ -24314,7 +24391,7 @@
       </c>
       <c r="S29">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T29">
         <f t="shared" si="23"/>
@@ -24326,16 +24403,16 @@
       </c>
       <c r="V29">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="W29" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">  SMSCOLOUR $000000</v>
-      </c>
-    </row>
-    <row r="30" spans="2:27" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">  SMSCOLOUR $0000AA</v>
+      </c>
+    </row>
+    <row r="30" spans="2:28" x14ac:dyDescent="0.45">
       <c r="B30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>163</v>
       </c>
       <c r="C30">
@@ -24351,7 +24428,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G30">
@@ -24403,9 +24480,9 @@
         <v xml:space="preserve">  SMSCOLOUR $000000</v>
       </c>
     </row>
-    <row r="31" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:28" x14ac:dyDescent="0.45">
       <c r="B31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>169</v>
       </c>
       <c r="C31">
@@ -24421,7 +24498,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G31">
@@ -24442,40 +24519,40 @@
       </c>
       <c r="P31">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="Q31">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R31">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S31">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T31">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="U31">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="V31">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="W31" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">  SMSCOLOUR $000000</v>
-      </c>
-    </row>
-    <row r="32" spans="2:27" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">  SMSCOLOUR $AAFFAA</v>
+      </c>
+    </row>
+    <row r="32" spans="2:28" x14ac:dyDescent="0.45">
       <c r="B32">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>175</v>
       </c>
       <c r="C32">
@@ -24491,7 +24568,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G32">
@@ -24512,15 +24589,15 @@
       </c>
       <c r="P32">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q32">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R32">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S32">
         <f t="shared" si="22"/>
@@ -24528,11 +24605,11 @@
       </c>
       <c r="T32">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="U32">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="V32">
         <f t="shared" si="25"/>
@@ -24540,12 +24617,12 @@
       </c>
       <c r="W32" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">  SMSCOLOUR $000000</v>
+        <v xml:space="preserve">  SMSCOLOUR $AAAA00</v>
       </c>
     </row>
     <row r="33" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B33">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>181</v>
       </c>
       <c r="C33">
@@ -24561,7 +24638,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G33">
@@ -24615,7 +24692,7 @@
     </row>
     <row r="34" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>187</v>
       </c>
       <c r="C34">
@@ -24631,7 +24708,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G34">

--- a/Analysis/Micro Machines tables.xlsx
+++ b/Analysis/Micro Machines tables.xlsx
@@ -5,25 +5,25 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maxim\Documents\Code\C#\MicroMachinesEditor\Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maxim 2\Documents\Code\C#\MicroMachinesEditor\Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="9765" windowHeight="9195" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="9765" windowHeight="9195"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Splash sound" sheetId="2" r:id="rId2"/>
     <sheet name="Splash tile data" sheetId="3" r:id="rId3"/>
     <sheet name="Palette" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="190">
   <si>
     <t>0f0e0f0e0d0e0e0f</t>
   </si>
@@ -468,6 +468,132 @@
   <si>
     <t>04 08 EE 0E 80 00 08 00 4E 04 8E 00 44 0E 00 00 22 02 44 04 88 08 40 00 C0 00 E0 00 AE 0A 00 00 04 08 EE 0E 80 00 08 00 4E 04 8E 00 88 0E 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00</t>
   </si>
+  <si>
+    <t>00c8</t>
+  </si>
+  <si>
+    <t>01ac</t>
+  </si>
+  <si>
+    <t>046C</t>
+  </si>
+  <si>
+    <t>083A</t>
+  </si>
+  <si>
+    <t>0A0C</t>
+  </si>
+  <si>
+    <t>0AF0</t>
+  </si>
+  <si>
+    <t>0BDA</t>
+  </si>
+  <si>
+    <t>0CC4</t>
+  </si>
+  <si>
+    <t>0DC0</t>
+  </si>
+  <si>
+    <t>0F6C</t>
+  </si>
+  <si>
+    <t>13F6</t>
+  </si>
+  <si>
+    <t>14F0</t>
+  </si>
+  <si>
+    <t>15DE</t>
+  </si>
+  <si>
+    <t>16C2</t>
+  </si>
+  <si>
+    <t>178E</t>
+  </si>
+  <si>
+    <t>185E</t>
+  </si>
+  <si>
+    <t>1A34</t>
+  </si>
+  <si>
+    <t>1B24</t>
+  </si>
+  <si>
+    <t>1C1E</t>
+  </si>
+  <si>
+    <t>1C2A</t>
+  </si>
+  <si>
+    <t>1D16</t>
+  </si>
+  <si>
+    <t>1EE8</t>
+  </si>
+  <si>
+    <t>1FD4</t>
+  </si>
+  <si>
+    <t>20C8</t>
+  </si>
+  <si>
+    <t>21B4</t>
+  </si>
+  <si>
+    <t>223B</t>
+  </si>
+  <si>
+    <t>22C2</t>
+  </si>
+  <si>
+    <t>23AE</t>
+  </si>
+  <si>
+    <t>0e88</t>
+  </si>
+  <si>
+    <t>1e02</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>RAM code addresses</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>3b97d</t>
+  </si>
+  <si>
+    <t>Dest</t>
+  </si>
+  <si>
+    <t>d7bd</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>db2f</t>
+  </si>
+  <si>
+    <t>hex</t>
+  </si>
+  <si>
+    <t>dec</t>
+  </si>
+  <si>
+    <t>s @ 50Hz</t>
+  </si>
+  <si>
+    <t>s @ 60Hz</t>
+  </si>
 </sst>
 </file>
 
@@ -509,11 +635,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -971,11 +1098,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="512945704"/>
-        <c:axId val="512941784"/>
+        <c:axId val="406183536"/>
+        <c:axId val="406184320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="512945704"/>
+        <c:axId val="406183536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1017,7 +1144,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="512941784"/>
+        <c:crossAx val="406184320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1025,7 +1152,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="512941784"/>
+        <c:axId val="406184320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1077,7 +1204,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="512945704"/>
+        <c:crossAx val="406183536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1499,11 +1626,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="512948056"/>
-        <c:axId val="512942568"/>
+        <c:axId val="406181184"/>
+        <c:axId val="406185104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="512948056"/>
+        <c:axId val="406181184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1545,7 +1672,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="512942568"/>
+        <c:crossAx val="406185104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1553,7 +1680,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="512942568"/>
+        <c:axId val="406185104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1604,7 +1731,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="512948056"/>
+        <c:crossAx val="406181184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3117,10 +3244,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF52"/>
+  <dimension ref="A1:AF65"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="O46" sqref="O46:P53"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5665,7 +5792,7 @@
         <v>6A</v>
       </c>
     </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B49" t="s">
         <v>22</v>
       </c>
@@ -5705,7 +5832,7 @@
         <v>A9</v>
       </c>
     </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B51" t="s">
         <v>23</v>
       </c>
@@ -5742,7 +5869,7 @@
         <v>1296A</v>
       </c>
     </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.45">
       <c r="D52" t="s">
         <v>4</v>
       </c>
@@ -5766,6 +5893,85 @@
       </c>
       <c r="K52" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>180</v>
+      </c>
+      <c r="B55" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>182</v>
+      </c>
+      <c r="B56" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>184</v>
+      </c>
+      <c r="B57" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
+        <v>185</v>
+      </c>
+      <c r="B58" t="str">
+        <f>DEC2HEX(HEX2DEC(A58)+HEX2DEC(B55)-HEX2DEC(B56))</f>
+        <v>3BCEF</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
+        <v>186</v>
+      </c>
+      <c r="B61">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A62" t="s">
+        <v>187</v>
+      </c>
+      <c r="B62">
+        <f>HEX2DEC(B61)</f>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A63" t="s">
+        <v>188</v>
+      </c>
+      <c r="B63">
+        <f>B62/50</f>
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A64" t="s">
+        <v>189</v>
+      </c>
+      <c r="B64">
+        <f>B62/60</f>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B65" t="str">
+        <f>B63&amp;"s @ 50Hz, "&amp;B64&amp;"s @ 60Hz"</f>
+        <v>1.92s @ 50Hz, 1.6s @ 60Hz</v>
       </c>
     </row>
   </sheetData>
@@ -22294,7 +22500,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -22672,7 +22878,7 @@
         <v xml:space="preserve">  SMSCOLOUR $AAFF00</v>
       </c>
       <c r="AA6" t="str">
-        <f>T3&amp;" "&amp;U3&amp;" "&amp;V3</f>
+        <f t="shared" ref="AA6:AA21" si="17">T3&amp;" "&amp;U3&amp;" "&amp;V3</f>
         <v>0 85 0</v>
       </c>
       <c r="AB6" t="str">
@@ -22750,11 +22956,11 @@
         <v xml:space="preserve">  SMSCOLOUR $000000</v>
       </c>
       <c r="AA7" t="str">
-        <f>T4&amp;" "&amp;U4&amp;" "&amp;V4</f>
+        <f t="shared" si="17"/>
         <v>0 170 0</v>
       </c>
       <c r="AB7" t="str">
-        <f t="shared" ref="AB7:AB21" si="17">F4&amp;" "&amp;G4&amp;" "&amp;H4</f>
+        <f t="shared" ref="AB7:AB21" si="18">F4&amp;" "&amp;G4&amp;" "&amp;H4</f>
         <v>238 238 238</v>
       </c>
     </row>
@@ -22828,11 +23034,11 @@
         <v xml:space="preserve">  SMSCOLOUR $000000</v>
       </c>
       <c r="AA8" t="str">
-        <f>T5&amp;" "&amp;U5&amp;" "&amp;V5</f>
+        <f t="shared" si="17"/>
         <v>170 255 170</v>
       </c>
       <c r="AB8" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0 136 0</v>
       </c>
     </row>
@@ -22906,11 +23112,11 @@
         <v xml:space="preserve">  SMSCOLOUR $00AA00</v>
       </c>
       <c r="AA9" t="str">
-        <f>T6&amp;" "&amp;U6&amp;" "&amp;V6</f>
+        <f t="shared" si="17"/>
         <v>170 255 0</v>
       </c>
       <c r="AB9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>136 0 0</v>
       </c>
     </row>
@@ -22984,11 +23190,11 @@
         <v xml:space="preserve">  SMSCOLOUR $000000</v>
       </c>
       <c r="AA10" t="str">
-        <f>T7&amp;" "&amp;U7&amp;" "&amp;V7</f>
+        <f t="shared" si="17"/>
         <v>0 0 0</v>
       </c>
       <c r="AB10" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>238 68 68</v>
       </c>
     </row>
@@ -23062,11 +23268,11 @@
         <v xml:space="preserve">  SMSCOLOUR $AAFF00</v>
       </c>
       <c r="AA11" t="str">
-        <f>T8&amp;" "&amp;U8&amp;" "&amp;V8</f>
+        <f t="shared" si="17"/>
         <v>0 0 0</v>
       </c>
       <c r="AB11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>238 136 0</v>
       </c>
     </row>
@@ -23140,11 +23346,11 @@
         <v xml:space="preserve">  SMSCOLOUR $005500</v>
       </c>
       <c r="AA12" t="str">
-        <f>T9&amp;" "&amp;U9&amp;" "&amp;V9</f>
+        <f t="shared" si="17"/>
         <v>0 170 0</v>
       </c>
       <c r="AB12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>68 68 238</v>
       </c>
     </row>
@@ -23182,47 +23388,47 @@
         <v xml:space="preserve">  GGCOLOUR $888888</v>
       </c>
       <c r="O13">
-        <f t="shared" ref="O13:O34" si="18">(ROW()-ROW($B$3))*3+1</f>
+        <f t="shared" ref="O13:O34" si="19">(ROW()-ROW($B$3))*3+1</f>
         <v>31</v>
       </c>
       <c r="P13">
-        <f t="shared" ref="P13:P34" si="19">HEX2DEC(MID($B$1,O13,2))</f>
+        <f t="shared" ref="P13:P34" si="20">HEX2DEC(MID($B$1,O13,2))</f>
         <v>142</v>
       </c>
       <c r="Q13">
-        <f t="shared" ref="Q13:Q34" si="20">_xlfn.BITAND(P13,3)</f>
+        <f t="shared" ref="Q13:Q34" si="21">_xlfn.BITAND(P13,3)</f>
         <v>2</v>
       </c>
       <c r="R13">
-        <f t="shared" ref="R13:R34" si="21">_xlfn.BITAND(_xlfn.BITRSHIFT(P13,2),3)</f>
+        <f t="shared" ref="R13:R34" si="22">_xlfn.BITAND(_xlfn.BITRSHIFT(P13,2),3)</f>
         <v>3</v>
       </c>
       <c r="S13">
-        <f t="shared" ref="S13:S34" si="22">_xlfn.BITAND(_xlfn.BITRSHIFT(P13,4),3)</f>
+        <f t="shared" ref="S13:S34" si="23">_xlfn.BITAND(_xlfn.BITRSHIFT(P13,4),3)</f>
         <v>0</v>
       </c>
       <c r="T13">
-        <f t="shared" ref="T13:T34" si="23">Q13*255/3</f>
+        <f t="shared" ref="T13:T34" si="24">Q13*255/3</f>
         <v>170</v>
       </c>
       <c r="U13">
-        <f t="shared" ref="U13:U34" si="24">R13*255/3</f>
+        <f t="shared" ref="U13:U34" si="25">R13*255/3</f>
         <v>255</v>
       </c>
       <c r="V13">
-        <f t="shared" ref="V13:V34" si="25">S13*255/3</f>
+        <f t="shared" ref="V13:V34" si="26">S13*255/3</f>
         <v>0</v>
       </c>
       <c r="W13" t="str">
-        <f t="shared" ref="W13:W34" si="26">"  SMSCOLOUR $"&amp;DEC2HEX(T13*65536+U13*256+V13,6)</f>
+        <f t="shared" ref="W13:W34" si="27">"  SMSCOLOUR $"&amp;DEC2HEX(T13*65536+U13*256+V13,6)</f>
         <v xml:space="preserve">  SMSCOLOUR $AAFF00</v>
       </c>
       <c r="AA13" t="str">
-        <f>T10&amp;" "&amp;U10&amp;" "&amp;V10</f>
+        <f t="shared" si="17"/>
         <v>0 0 0</v>
       </c>
       <c r="AB13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0 0 0</v>
       </c>
     </row>
@@ -23260,47 +23466,47 @@
         <v xml:space="preserve">  GGCOLOUR $004400</v>
       </c>
       <c r="O14">
+        <f t="shared" si="19"/>
+        <v>34</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="W14" t="str">
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">  SMSCOLOUR $000000</v>
+      </c>
+      <c r="AA14" t="str">
+        <f t="shared" si="17"/>
+        <v>170 255 0</v>
+      </c>
+      <c r="AB14" t="str">
         <f t="shared" si="18"/>
-        <v>34</v>
-      </c>
-      <c r="P14">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="T14">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="U14">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="V14">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="W14" t="str">
-        <f t="shared" si="26"/>
-        <v xml:space="preserve">  SMSCOLOUR $000000</v>
-      </c>
-      <c r="AA14" t="str">
-        <f>T11&amp;" "&amp;U11&amp;" "&amp;V11</f>
-        <v>170 255 0</v>
-      </c>
-      <c r="AB14" t="str">
-        <f t="shared" si="17"/>
         <v>34 34 34</v>
       </c>
     </row>
@@ -23338,47 +23544,47 @@
         <v xml:space="preserve">  GGCOLOUR $00CC00</v>
       </c>
       <c r="O15">
+        <f t="shared" si="19"/>
+        <v>37</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="20"/>
+        <v>68</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="25"/>
+        <v>85</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="W15" t="str">
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">  SMSCOLOUR $005500</v>
+      </c>
+      <c r="AA15" t="str">
+        <f t="shared" si="17"/>
+        <v>0 85 0</v>
+      </c>
+      <c r="AB15" t="str">
         <f t="shared" si="18"/>
-        <v>37</v>
-      </c>
-      <c r="P15">
-        <f t="shared" si="19"/>
-        <v>68</v>
-      </c>
-      <c r="Q15">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="S15">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="T15">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="U15">
-        <f t="shared" si="24"/>
-        <v>85</v>
-      </c>
-      <c r="V15">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="W15" t="str">
-        <f t="shared" si="26"/>
-        <v xml:space="preserve">  SMSCOLOUR $005500</v>
-      </c>
-      <c r="AA15" t="str">
-        <f>T12&amp;" "&amp;U12&amp;" "&amp;V12</f>
-        <v>0 85 0</v>
-      </c>
-      <c r="AB15" t="str">
-        <f t="shared" si="17"/>
         <v>68 68 68</v>
       </c>
     </row>
@@ -23416,47 +23622,47 @@
         <v xml:space="preserve">  GGCOLOUR $00EE00</v>
       </c>
       <c r="O16">
+        <f t="shared" si="19"/>
+        <v>40</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="20"/>
+        <v>14</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="22"/>
+        <v>3</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="24"/>
+        <v>170</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="25"/>
+        <v>255</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="W16" t="str">
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">  SMSCOLOUR $AAFF00</v>
+      </c>
+      <c r="AA16" t="str">
+        <f t="shared" si="17"/>
+        <v>170 255 0</v>
+      </c>
+      <c r="AB16" t="str">
         <f t="shared" si="18"/>
-        <v>40</v>
-      </c>
-      <c r="P16">
-        <f t="shared" si="19"/>
-        <v>14</v>
-      </c>
-      <c r="Q16">
-        <f t="shared" si="20"/>
-        <v>2</v>
-      </c>
-      <c r="R16">
-        <f t="shared" si="21"/>
-        <v>3</v>
-      </c>
-      <c r="S16">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="T16">
-        <f t="shared" si="23"/>
-        <v>170</v>
-      </c>
-      <c r="U16">
-        <f t="shared" si="24"/>
-        <v>255</v>
-      </c>
-      <c r="V16">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="W16" t="str">
-        <f t="shared" si="26"/>
-        <v xml:space="preserve">  SMSCOLOUR $AAFF00</v>
-      </c>
-      <c r="AA16" t="str">
-        <f>T13&amp;" "&amp;U13&amp;" "&amp;V13</f>
-        <v>170 255 0</v>
-      </c>
-      <c r="AB16" t="str">
-        <f t="shared" si="17"/>
         <v>136 136 136</v>
       </c>
     </row>
@@ -23494,47 +23700,47 @@
         <v xml:space="preserve">  GGCOLOUR $EEAAAA</v>
       </c>
       <c r="O17">
+        <f t="shared" si="19"/>
+        <v>43</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="W17" t="str">
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">  SMSCOLOUR $000000</v>
+      </c>
+      <c r="AA17" t="str">
+        <f t="shared" si="17"/>
+        <v>0 0 0</v>
+      </c>
+      <c r="AB17" t="str">
         <f t="shared" si="18"/>
-        <v>43</v>
-      </c>
-      <c r="P17">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="T17">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="U17">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="V17">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="W17" t="str">
-        <f t="shared" si="26"/>
-        <v xml:space="preserve">  SMSCOLOUR $000000</v>
-      </c>
-      <c r="AA17" t="str">
-        <f>T14&amp;" "&amp;U14&amp;" "&amp;V14</f>
-        <v>0 0 0</v>
-      </c>
-      <c r="AB17" t="str">
-        <f t="shared" si="17"/>
         <v>0 68 0</v>
       </c>
     </row>
@@ -23572,47 +23778,47 @@
         <v xml:space="preserve">  GGCOLOUR $000000</v>
       </c>
       <c r="O18">
+        <f t="shared" si="19"/>
+        <v>46</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="W18" t="str">
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">  SMSCOLOUR $000000</v>
+      </c>
+      <c r="AA18" t="str">
+        <f t="shared" si="17"/>
+        <v>0 85 0</v>
+      </c>
+      <c r="AB18" t="str">
         <f t="shared" si="18"/>
-        <v>46</v>
-      </c>
-      <c r="P18">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="T18">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="U18">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="V18">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="W18" t="str">
-        <f t="shared" si="26"/>
-        <v xml:space="preserve">  SMSCOLOUR $000000</v>
-      </c>
-      <c r="AA18" t="str">
-        <f>T15&amp;" "&amp;U15&amp;" "&amp;V15</f>
-        <v>0 85 0</v>
-      </c>
-      <c r="AB18" t="str">
-        <f t="shared" si="17"/>
         <v>0 204 0</v>
       </c>
     </row>
@@ -23650,47 +23856,47 @@
         <v xml:space="preserve">  GGCOLOUR $440088</v>
       </c>
       <c r="O19">
+        <f t="shared" si="19"/>
+        <v>49</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="20"/>
+        <v>34</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="24"/>
+        <v>170</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="26"/>
+        <v>170</v>
+      </c>
+      <c r="W19" t="str">
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">  SMSCOLOUR $AA00AA</v>
+      </c>
+      <c r="AA19" t="str">
+        <f t="shared" si="17"/>
+        <v>170 255 0</v>
+      </c>
+      <c r="AB19" t="str">
         <f t="shared" si="18"/>
-        <v>49</v>
-      </c>
-      <c r="P19">
-        <f t="shared" si="19"/>
-        <v>34</v>
-      </c>
-      <c r="Q19">
-        <f t="shared" si="20"/>
-        <v>2</v>
-      </c>
-      <c r="R19">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <f t="shared" si="22"/>
-        <v>2</v>
-      </c>
-      <c r="T19">
-        <f t="shared" si="23"/>
-        <v>170</v>
-      </c>
-      <c r="U19">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="V19">
-        <f t="shared" si="25"/>
-        <v>170</v>
-      </c>
-      <c r="W19" t="str">
-        <f t="shared" si="26"/>
-        <v xml:space="preserve">  SMSCOLOUR $AA00AA</v>
-      </c>
-      <c r="AA19" t="str">
-        <f>T16&amp;" "&amp;U16&amp;" "&amp;V16</f>
-        <v>170 255 0</v>
-      </c>
-      <c r="AB19" t="str">
-        <f t="shared" si="17"/>
         <v>0 238 0</v>
       </c>
     </row>
@@ -23728,47 +23934,47 @@
         <v xml:space="preserve">  GGCOLOUR $EEEEEE</v>
       </c>
       <c r="O20">
+        <f t="shared" si="19"/>
+        <v>52</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="24"/>
+        <v>170</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="W20" t="str">
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">  SMSCOLOUR $AA0000</v>
+      </c>
+      <c r="AA20" t="str">
+        <f t="shared" si="17"/>
+        <v>0 0 0</v>
+      </c>
+      <c r="AB20" t="str">
         <f t="shared" si="18"/>
-        <v>52</v>
-      </c>
-      <c r="P20">
-        <f t="shared" si="19"/>
-        <v>2</v>
-      </c>
-      <c r="Q20">
-        <f t="shared" si="20"/>
-        <v>2</v>
-      </c>
-      <c r="R20">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="T20">
-        <f t="shared" si="23"/>
-        <v>170</v>
-      </c>
-      <c r="U20">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="V20">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="W20" t="str">
-        <f t="shared" si="26"/>
-        <v xml:space="preserve">  SMSCOLOUR $AA0000</v>
-      </c>
-      <c r="AA20" t="str">
-        <f>T17&amp;" "&amp;U17&amp;" "&amp;V17</f>
-        <v>0 0 0</v>
-      </c>
-      <c r="AB20" t="str">
-        <f t="shared" si="17"/>
         <v>238 170 170</v>
       </c>
     </row>
@@ -23806,47 +24012,47 @@
         <v xml:space="preserve">  GGCOLOUR $008800</v>
       </c>
       <c r="O21">
+        <f t="shared" si="19"/>
+        <v>55</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="20"/>
+        <v>68</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="25"/>
+        <v>85</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="W21" t="str">
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">  SMSCOLOUR $005500</v>
+      </c>
+      <c r="AA21" t="str">
+        <f t="shared" si="17"/>
+        <v>0 0 0</v>
+      </c>
+      <c r="AB21" t="str">
         <f t="shared" si="18"/>
-        <v>55</v>
-      </c>
-      <c r="P21">
-        <f t="shared" si="19"/>
-        <v>68</v>
-      </c>
-      <c r="Q21">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="S21">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="T21">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="U21">
-        <f t="shared" si="24"/>
-        <v>85</v>
-      </c>
-      <c r="V21">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="W21" t="str">
-        <f t="shared" si="26"/>
-        <v xml:space="preserve">  SMSCOLOUR $005500</v>
-      </c>
-      <c r="AA21" t="str">
-        <f>T18&amp;" "&amp;U18&amp;" "&amp;V18</f>
-        <v>0 0 0</v>
-      </c>
-      <c r="AB21" t="str">
-        <f t="shared" si="17"/>
         <v>0 0 0</v>
       </c>
     </row>
@@ -23884,39 +24090,39 @@
         <v xml:space="preserve">  GGCOLOUR $880000</v>
       </c>
       <c r="O22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>58</v>
       </c>
       <c r="P22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4</v>
       </c>
       <c r="Q22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="R22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="S22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="T22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="U22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>85</v>
       </c>
       <c r="V22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="W22" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve">  SMSCOLOUR $005500</v>
       </c>
     </row>
@@ -23942,51 +24148,51 @@
         <v>238</v>
       </c>
       <c r="G23">
-        <f t="shared" ref="G23:G34" si="27">D23*255/15</f>
+        <f t="shared" ref="G23:G34" si="28">D23*255/15</f>
         <v>68</v>
       </c>
       <c r="H23">
-        <f t="shared" ref="H23:H34" si="28">C23*255/15</f>
+        <f t="shared" ref="H23:H34" si="29">C23*255/15</f>
         <v>68</v>
       </c>
       <c r="I23" t="str">
-        <f t="shared" ref="I23:I34" si="29">"  GGCOLOUR $"&amp;DEC2HEX(F23*65536+G23*256+H23,6)</f>
+        <f t="shared" ref="I23:I34" si="30">"  GGCOLOUR $"&amp;DEC2HEX(F23*65536+G23*256+H23,6)</f>
         <v xml:space="preserve">  GGCOLOUR $EE4444</v>
       </c>
       <c r="O23">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>61</v>
       </c>
       <c r="P23">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>136</v>
       </c>
       <c r="Q23">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="R23">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>2</v>
       </c>
       <c r="S23">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="T23">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="U23">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>170</v>
       </c>
       <c r="V23">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="W23" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve">  SMSCOLOUR $00AA00</v>
       </c>
     </row>
@@ -24012,51 +24218,51 @@
         <v>238</v>
       </c>
       <c r="G24">
+        <f t="shared" si="28"/>
+        <v>136</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="I24" t="str">
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">  GGCOLOUR $EE8800</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="19"/>
+        <v>64</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="20"/>
+        <v>8</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="22"/>
+        <v>2</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="25"/>
+        <v>170</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="W24" t="str">
         <f t="shared" si="27"/>
-        <v>136</v>
-      </c>
-      <c r="H24">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="I24" t="str">
-        <f t="shared" si="29"/>
-        <v xml:space="preserve">  GGCOLOUR $EE8800</v>
-      </c>
-      <c r="O24">
-        <f t="shared" si="18"/>
-        <v>64</v>
-      </c>
-      <c r="P24">
-        <f t="shared" si="19"/>
-        <v>8</v>
-      </c>
-      <c r="Q24">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="R24">
-        <f t="shared" si="21"/>
-        <v>2</v>
-      </c>
-      <c r="S24">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="T24">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="U24">
-        <f t="shared" si="24"/>
-        <v>170</v>
-      </c>
-      <c r="V24">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="W24" t="str">
-        <f t="shared" si="26"/>
         <v xml:space="preserve">  SMSCOLOUR $00AA00</v>
       </c>
     </row>
@@ -24082,51 +24288,51 @@
         <v>136</v>
       </c>
       <c r="G25">
+        <f t="shared" si="28"/>
+        <v>136</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="29"/>
+        <v>238</v>
+      </c>
+      <c r="I25" t="str">
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">  GGCOLOUR $8888EE</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="19"/>
+        <v>67</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="20"/>
+        <v>64</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="W25" t="str">
         <f t="shared" si="27"/>
-        <v>136</v>
-      </c>
-      <c r="H25">
-        <f t="shared" si="28"/>
-        <v>238</v>
-      </c>
-      <c r="I25" t="str">
-        <f t="shared" si="29"/>
-        <v xml:space="preserve">  GGCOLOUR $8888EE</v>
-      </c>
-      <c r="O25">
-        <f t="shared" si="18"/>
-        <v>67</v>
-      </c>
-      <c r="P25">
-        <f t="shared" si="19"/>
-        <v>64</v>
-      </c>
-      <c r="Q25">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="R25">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="S25">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="T25">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="U25">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="V25">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="W25" t="str">
-        <f t="shared" si="26"/>
         <v xml:space="preserve">  SMSCOLOUR $000000</v>
       </c>
     </row>
@@ -24152,51 +24358,51 @@
         <v>0</v>
       </c>
       <c r="G26">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="I26" t="str">
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">  GGCOLOUR $000000</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="19"/>
+        <v>70</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="W26" t="str">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="I26" t="str">
-        <f t="shared" si="29"/>
-        <v xml:space="preserve">  GGCOLOUR $000000</v>
-      </c>
-      <c r="O26">
-        <f t="shared" si="18"/>
-        <v>70</v>
-      </c>
-      <c r="P26">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="R26">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="S26">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="T26">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="U26">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="V26">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="W26" t="str">
-        <f t="shared" si="26"/>
         <v xml:space="preserve">  SMSCOLOUR $000000</v>
       </c>
     </row>
@@ -24222,51 +24428,51 @@
         <v>0</v>
       </c>
       <c r="G27">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="I27" t="str">
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">  GGCOLOUR $000000</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="19"/>
+        <v>73</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="20"/>
+        <v>192</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="W27" t="str">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="I27" t="str">
-        <f t="shared" si="29"/>
-        <v xml:space="preserve">  GGCOLOUR $000000</v>
-      </c>
-      <c r="O27">
-        <f t="shared" si="18"/>
-        <v>73</v>
-      </c>
-      <c r="P27">
-        <f t="shared" si="19"/>
-        <v>192</v>
-      </c>
-      <c r="Q27">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="R27">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="S27">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="T27">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="U27">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="V27">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="W27" t="str">
-        <f t="shared" si="26"/>
         <v xml:space="preserve">  SMSCOLOUR $000000</v>
       </c>
     </row>
@@ -24292,51 +24498,51 @@
         <v>0</v>
       </c>
       <c r="G28">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">  GGCOLOUR $000000</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="19"/>
+        <v>76</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="W28" t="str">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="I28" t="str">
-        <f t="shared" si="29"/>
-        <v xml:space="preserve">  GGCOLOUR $000000</v>
-      </c>
-      <c r="O28">
-        <f t="shared" si="18"/>
-        <v>76</v>
-      </c>
-      <c r="P28">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="R28">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="S28">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="T28">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="U28">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="V28">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="W28" t="str">
-        <f t="shared" si="26"/>
         <v xml:space="preserve">  SMSCOLOUR $000000</v>
       </c>
     </row>
@@ -24362,51 +24568,51 @@
         <v>0</v>
       </c>
       <c r="G29">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">  GGCOLOUR $000000</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="19"/>
+        <v>79</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="20"/>
+        <v>224</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="26"/>
+        <v>170</v>
+      </c>
+      <c r="W29" t="str">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="I29" t="str">
-        <f t="shared" si="29"/>
-        <v xml:space="preserve">  GGCOLOUR $000000</v>
-      </c>
-      <c r="O29">
-        <f t="shared" si="18"/>
-        <v>79</v>
-      </c>
-      <c r="P29">
-        <f t="shared" si="19"/>
-        <v>224</v>
-      </c>
-      <c r="Q29">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="R29">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="S29">
-        <f t="shared" si="22"/>
-        <v>2</v>
-      </c>
-      <c r="T29">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="U29">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="V29">
-        <f t="shared" si="25"/>
-        <v>170</v>
-      </c>
-      <c r="W29" t="str">
-        <f t="shared" si="26"/>
         <v xml:space="preserve">  SMSCOLOUR $0000AA</v>
       </c>
     </row>
@@ -24432,51 +24638,51 @@
         <v>0</v>
       </c>
       <c r="G30">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">  GGCOLOUR $000000</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="19"/>
+        <v>82</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="W30" t="str">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="I30" t="str">
-        <f t="shared" si="29"/>
-        <v xml:space="preserve">  GGCOLOUR $000000</v>
-      </c>
-      <c r="O30">
-        <f t="shared" si="18"/>
-        <v>82</v>
-      </c>
-      <c r="P30">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="R30">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="S30">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="T30">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="U30">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="V30">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="W30" t="str">
-        <f t="shared" si="26"/>
         <v xml:space="preserve">  SMSCOLOUR $000000</v>
       </c>
     </row>
@@ -24502,51 +24708,51 @@
         <v>0</v>
       </c>
       <c r="G31">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">  GGCOLOUR $000000</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="19"/>
+        <v>85</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="20"/>
+        <v>174</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="22"/>
+        <v>3</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="24"/>
+        <v>170</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="25"/>
+        <v>255</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="26"/>
+        <v>170</v>
+      </c>
+      <c r="W31" t="str">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="I31" t="str">
-        <f t="shared" si="29"/>
-        <v xml:space="preserve">  GGCOLOUR $000000</v>
-      </c>
-      <c r="O31">
-        <f t="shared" si="18"/>
-        <v>85</v>
-      </c>
-      <c r="P31">
-        <f t="shared" si="19"/>
-        <v>174</v>
-      </c>
-      <c r="Q31">
-        <f t="shared" si="20"/>
-        <v>2</v>
-      </c>
-      <c r="R31">
-        <f t="shared" si="21"/>
-        <v>3</v>
-      </c>
-      <c r="S31">
-        <f t="shared" si="22"/>
-        <v>2</v>
-      </c>
-      <c r="T31">
-        <f t="shared" si="23"/>
-        <v>170</v>
-      </c>
-      <c r="U31">
-        <f t="shared" si="24"/>
-        <v>255</v>
-      </c>
-      <c r="V31">
-        <f t="shared" si="25"/>
-        <v>170</v>
-      </c>
-      <c r="W31" t="str">
-        <f t="shared" si="26"/>
         <v xml:space="preserve">  SMSCOLOUR $AAFFAA</v>
       </c>
     </row>
@@ -24572,51 +24778,51 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="H32">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="I32" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">  GGCOLOUR $000000</v>
       </c>
       <c r="O32">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>88</v>
       </c>
       <c r="P32">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="R32">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>2</v>
       </c>
       <c r="S32">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="T32">
-        <f t="shared" si="23"/>
-        <v>170</v>
-      </c>
-      <c r="U32">
         <f t="shared" si="24"/>
         <v>170</v>
       </c>
+      <c r="U32">
+        <f t="shared" si="25"/>
+        <v>170</v>
+      </c>
       <c r="V32">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="W32" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve">  SMSCOLOUR $AAAA00</v>
       </c>
     </row>
@@ -24642,51 +24848,51 @@
         <v>0</v>
       </c>
       <c r="G33">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">  GGCOLOUR $000000</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="19"/>
+        <v>91</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="W33" t="str">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="I33" t="str">
-        <f t="shared" si="29"/>
-        <v xml:space="preserve">  GGCOLOUR $000000</v>
-      </c>
-      <c r="O33">
-        <f t="shared" si="18"/>
-        <v>91</v>
-      </c>
-      <c r="P33">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="R33">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="S33">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="T33">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="U33">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="V33">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="W33" t="str">
-        <f t="shared" si="26"/>
         <v xml:space="preserve">  SMSCOLOUR $000000</v>
       </c>
     </row>
@@ -24712,52 +24918,957 @@
         <v>0</v>
       </c>
       <c r="G34">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="I34" t="str">
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">  GGCOLOUR $000000</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="19"/>
+        <v>94</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="W34" t="str">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="I34" t="str">
-        <f t="shared" si="29"/>
-        <v xml:space="preserve">  GGCOLOUR $000000</v>
-      </c>
-      <c r="O34">
-        <f t="shared" si="18"/>
-        <v>94</v>
-      </c>
-      <c r="P34">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="R34">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="S34">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="T34">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="U34">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="V34">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="W34" t="str">
-        <f t="shared" si="26"/>
         <v xml:space="preserve">  SMSCOLOUR $000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E43"/>
+  <sheetViews>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2">
+        <f>HEX2DEC(A2)</f>
+        <v>200</v>
+      </c>
+      <c r="C2">
+        <f>B2</f>
+        <v>200</v>
+      </c>
+      <c r="D2" t="str">
+        <f>DEC2HEX(C2)</f>
+        <v>C8</v>
+      </c>
+      <c r="E2" t="str">
+        <f>DEC2HEX(202085+B1)</f>
+        <v>31565</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B43" si="0">HEX2DEC(A3)</f>
+        <v>428</v>
+      </c>
+      <c r="C3">
+        <f>B3-B2</f>
+        <v>228</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D43" si="1">DEC2HEX(C3)</f>
+        <v>E4</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E43" si="2">DEC2HEX(202085+B2)</f>
+        <v>3162D</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>294</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>660</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C43" si="3">B4-B3</f>
+        <v>232</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="1"/>
+        <v>E8</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="2"/>
+        <v>31711</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>382</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>898</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="3"/>
+        <v>238</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="1"/>
+        <v>EE</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="2"/>
+        <v>317F9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>1132</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="3"/>
+        <v>234</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="1"/>
+        <v>EA</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="2"/>
+        <v>318E7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>568</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>1384</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="3"/>
+        <v>252</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="1"/>
+        <v>FC</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="2"/>
+        <v>319D1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>652</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>1618</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="3"/>
+        <v>234</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="1"/>
+        <v>EA</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="2"/>
+        <v>31ACD</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>748</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>1864</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="3"/>
+        <v>246</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="1"/>
+        <v>F6</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="2"/>
+        <v>31BB7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>2106</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="3"/>
+        <v>242</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="1"/>
+        <v>F2</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="2"/>
+        <v>31CAD</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>928</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>2344</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="3"/>
+        <v>238</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="1"/>
+        <v>EE</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="2"/>
+        <v>31D9F</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>152</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>2572</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="3"/>
+        <v>228</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="1"/>
+        <v>E4</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="2"/>
+        <v>31E8D</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>153</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>2800</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="3"/>
+        <v>228</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="1"/>
+        <v>E4</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="2"/>
+        <v>31F71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>154</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>3034</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="3"/>
+        <v>234</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="1"/>
+        <v>EA</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="2"/>
+        <v>32055</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>155</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>3268</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="3"/>
+        <v>234</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="1"/>
+        <v>EA</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="2"/>
+        <v>3213F</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>156</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>3520</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="3"/>
+        <v>252</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="1"/>
+        <v>FC</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="2"/>
+        <v>32229</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>3720</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="1"/>
+        <v>C8</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="2"/>
+        <v>32325</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>3948</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="3"/>
+        <v>228</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="1"/>
+        <v>E4</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="2"/>
+        <v>323ED</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>1050</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>4176</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="3"/>
+        <v>228</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="1"/>
+        <v>E4</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="2"/>
+        <v>324D1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>1134</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>4404</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="3"/>
+        <v>228</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="1"/>
+        <v>E4</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="2"/>
+        <v>325B5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>1222</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>4642</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="3"/>
+        <v>238</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="1"/>
+        <v>EE</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="2"/>
+        <v>32699</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>1306</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>4870</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="3"/>
+        <v>228</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="1"/>
+        <v>E4</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="2"/>
+        <v>32787</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>158</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>5110</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="3"/>
+        <v>240</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="1"/>
+        <v>F0</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="2"/>
+        <v>3286B</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>159</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>5360</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="3"/>
+        <v>250</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="1"/>
+        <v>FA</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="2"/>
+        <v>3295B</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>160</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>5598</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="3"/>
+        <v>238</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="1"/>
+        <v>EE</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="2"/>
+        <v>32A55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>161</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>5826</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="3"/>
+        <v>228</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="1"/>
+        <v>E4</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="2"/>
+        <v>32B43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>162</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>6030</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="3"/>
+        <v>204</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="1"/>
+        <v>CC</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="2"/>
+        <v>32C27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>163</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>6238</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="3"/>
+        <v>208</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="1"/>
+        <v>D0</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="2"/>
+        <v>32CF3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>1946</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>6470</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="3"/>
+        <v>232</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="1"/>
+        <v>E8</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="2"/>
+        <v>32DC3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>164</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>6708</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="3"/>
+        <v>238</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="1"/>
+        <v>EE</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="2"/>
+        <v>32EAB</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>165</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>6948</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="3"/>
+        <v>240</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="1"/>
+        <v>F0</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="2"/>
+        <v>32F99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>166</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>7198</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="3"/>
+        <v>250</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="1"/>
+        <v>FA</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="2"/>
+        <v>33089</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>167</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>7210</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="1"/>
+        <v>C</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="2"/>
+        <v>33183</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>168</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>7446</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="3"/>
+        <v>236</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="1"/>
+        <v>EC</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="2"/>
+        <v>3318F</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A35" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="0"/>
+        <v>7682</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="3"/>
+        <v>236</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="1"/>
+        <v>EC</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="2"/>
+        <v>3327B</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>169</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="0"/>
+        <v>7912</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="3"/>
+        <v>230</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="1"/>
+        <v>E6</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="2"/>
+        <v>33367</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>170</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="0"/>
+        <v>8148</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="3"/>
+        <v>236</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="1"/>
+        <v>EC</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="2"/>
+        <v>3344D</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>171</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="0"/>
+        <v>8392</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="3"/>
+        <v>244</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="1"/>
+        <v>F4</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="2"/>
+        <v>33539</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>172</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="0"/>
+        <v>8628</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="3"/>
+        <v>236</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="1"/>
+        <v>EC</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="2"/>
+        <v>3362D</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>173</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="0"/>
+        <v>8763</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="3"/>
+        <v>135</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="2"/>
+        <v>33719</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>174</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="0"/>
+        <v>8898</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="3"/>
+        <v>135</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="2"/>
+        <v>337A0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>175</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="0"/>
+        <v>9134</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="3"/>
+        <v>236</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="1"/>
+        <v>EC</v>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" si="2"/>
+        <v>33827</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A43">
+        <v>2498</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="0"/>
+        <v>9368</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="3"/>
+        <v>234</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="1"/>
+        <v>EA</v>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" si="2"/>
+        <v>33913</v>
       </c>
     </row>
   </sheetData>

--- a/Analysis/Micro Machines tables.xlsx
+++ b/Analysis/Micro Machines tables.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="9765" windowHeight="9195"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="7425" windowHeight="3743"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,11 +19,12 @@
     <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="192">
   <si>
     <t>0f0e0f0e0d0e0e0f</t>
   </si>
@@ -594,6 +595,12 @@
   <si>
     <t>s @ 60Hz</t>
   </si>
+  <si>
+    <t>s @ 25Hz</t>
+  </si>
+  <si>
+    <t>s @ 30Hz</t>
+  </si>
 </sst>
 </file>
 
@@ -1098,11 +1105,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="406183536"/>
-        <c:axId val="406184320"/>
+        <c:axId val="434820616"/>
+        <c:axId val="434821400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="406183536"/>
+        <c:axId val="434820616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1144,7 +1151,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="406184320"/>
+        <c:crossAx val="434821400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1152,7 +1159,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="406184320"/>
+        <c:axId val="434821400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1204,7 +1211,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="406183536"/>
+        <c:crossAx val="434820616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1626,11 +1633,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="406181184"/>
-        <c:axId val="406185104"/>
+        <c:axId val="453813144"/>
+        <c:axId val="453817456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="406181184"/>
+        <c:axId val="453813144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1672,7 +1679,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="406185104"/>
+        <c:crossAx val="453817456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1680,7 +1687,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="406185104"/>
+        <c:axId val="453817456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1731,7 +1738,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="406181184"/>
+        <c:crossAx val="453813144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3244,10 +3251,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF65"/>
+  <dimension ref="A1:AF73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+      <selection activeCell="H61" sqref="H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5933,12 +5940,33 @@
         <v>3BCEF</v>
       </c>
     </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="E60" t="s">
+        <v>81</v>
+      </c>
+      <c r="F60" t="s">
+        <v>1</v>
+      </c>
+      <c r="H60" t="s">
+        <v>1</v>
+      </c>
+      <c r="I60" t="s">
+        <v>81</v>
+      </c>
+    </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>186</v>
       </c>
       <c r="B61">
-        <v>60</v>
+        <v>86</v>
+      </c>
+      <c r="E61">
+        <v>11</v>
+      </c>
+      <c r="F61" t="str">
+        <f>DEC2HEX(E61)</f>
+        <v>B</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.45">
@@ -5947,7 +5975,14 @@
       </c>
       <c r="B62">
         <f>HEX2DEC(B61)</f>
-        <v>96</v>
+        <v>134</v>
+      </c>
+      <c r="E62">
+        <v>24</v>
+      </c>
+      <c r="F62" t="str">
+        <f t="shared" ref="F62:F73" si="15">DEC2HEX(E62)</f>
+        <v>18</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.45">
@@ -5956,7 +5991,14 @@
       </c>
       <c r="B63">
         <f>B62/50</f>
-        <v>1.92</v>
+        <v>2.68</v>
+      </c>
+      <c r="E63">
+        <v>27</v>
+      </c>
+      <c r="F63" t="str">
+        <f t="shared" si="15"/>
+        <v>1B</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.45">
@@ -5965,13 +6007,117 @@
       </c>
       <c r="B64">
         <f>B62/60</f>
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.45">
+        <v>2.2333333333333334</v>
+      </c>
+      <c r="E64">
+        <v>107</v>
+      </c>
+      <c r="F64" t="str">
+        <f t="shared" si="15"/>
+        <v>6B</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B65" t="str">
         <f>B63&amp;"s @ 50Hz, "&amp;B64&amp;"s @ 60Hz"</f>
-        <v>1.92s @ 50Hz, 1.6s @ 60Hz</v>
+        <v>2.68s @ 50Hz, 2.23333333333333s @ 60Hz</v>
+      </c>
+      <c r="E65">
+        <v>120</v>
+      </c>
+      <c r="F65" t="str">
+        <f t="shared" si="15"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A66" t="s">
+        <v>190</v>
+      </c>
+      <c r="B66">
+        <f>B62/25</f>
+        <v>5.36</v>
+      </c>
+      <c r="E66">
+        <v>123</v>
+      </c>
+      <c r="F66" t="str">
+        <f t="shared" si="15"/>
+        <v>7B</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A67" t="s">
+        <v>191</v>
+      </c>
+      <c r="B67">
+        <f>B62/30</f>
+        <v>4.4666666666666668</v>
+      </c>
+      <c r="E67">
+        <v>136</v>
+      </c>
+      <c r="F67" t="str">
+        <f t="shared" si="15"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B68" t="str">
+        <f>B66&amp;"s @ 50Hz, "&amp;B67&amp;"s @ 60Hz (half rate)"</f>
+        <v>5.36s @ 50Hz, 4.46666666666667s @ 60Hz (half rate)</v>
+      </c>
+      <c r="E68">
+        <v>139</v>
+      </c>
+      <c r="F68" t="str">
+        <f t="shared" si="15"/>
+        <v>8B</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E69">
+        <v>152</v>
+      </c>
+      <c r="F69" t="str">
+        <f t="shared" si="15"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E70">
+        <v>155</v>
+      </c>
+      <c r="F70" t="str">
+        <f t="shared" si="15"/>
+        <v>9B</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E71">
+        <v>232</v>
+      </c>
+      <c r="F71" t="str">
+        <f t="shared" si="15"/>
+        <v>E8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E72">
+        <v>235</v>
+      </c>
+      <c r="F72" t="str">
+        <f t="shared" si="15"/>
+        <v>EB</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E73">
+        <v>249</v>
+      </c>
+      <c r="F73" t="str">
+        <f t="shared" si="15"/>
+        <v>F9</v>
       </c>
     </row>
   </sheetData>

--- a/Analysis/Micro Machines tables.xlsx
+++ b/Analysis/Micro Machines tables.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="7425" windowHeight="3743"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="7425" windowHeight="3743" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="196">
   <si>
     <t>0f0e0f0e0d0e0e0f</t>
   </si>
@@ -600,6 +600,18 @@
   </si>
   <si>
     <t>s @ 30Hz</t>
+  </si>
+  <si>
+    <t>3e8</t>
+  </si>
+  <si>
+    <t>3c0</t>
+  </si>
+  <si>
+    <t>2f8</t>
+  </si>
+  <si>
+    <t>2d0</t>
   </si>
 </sst>
 </file>
@@ -1275,6 +1287,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3251,10 +3264,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF73"/>
+  <dimension ref="A1:AF79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="H61" sqref="H61"/>
+    <sheetView topLeftCell="D50" workbookViewId="0">
+      <selection activeCell="H70" sqref="H70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5968,6 +5981,13 @@
         <f>DEC2HEX(E61)</f>
         <v>B</v>
       </c>
+      <c r="H61" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="I61">
+        <f>HEX2DEC(IF(LEFT(H61,1)="$",MID(H61,2,99),H61))</f>
+        <v>1000</v>
+      </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
@@ -5984,6 +6004,13 @@
         <f t="shared" ref="F62:F73" si="15">DEC2HEX(E62)</f>
         <v>18</v>
       </c>
+      <c r="H62" t="s">
+        <v>193</v>
+      </c>
+      <c r="I62">
+        <f t="shared" ref="I62:I79" si="16">HEX2DEC(IF(LEFT(H62,1)="$",MID(H62,2,99),H62))</f>
+        <v>960</v>
+      </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
@@ -6000,6 +6027,13 @@
         <f t="shared" si="15"/>
         <v>1B</v>
       </c>
+      <c r="H63">
+        <v>398</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="16"/>
+        <v>920</v>
+      </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
@@ -6016,8 +6050,15 @@
         <f t="shared" si="15"/>
         <v>6B</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="H64">
+        <v>370</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="16"/>
+        <v>880</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B65" t="str">
         <f>B63&amp;"s @ 50Hz, "&amp;B64&amp;"s @ 60Hz"</f>
         <v>2.68s @ 50Hz, 2.23333333333333s @ 60Hz</v>
@@ -6029,8 +6070,15 @@
         <f t="shared" si="15"/>
         <v>78</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="H65">
+        <v>348</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="16"/>
+        <v>840</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>190</v>
       </c>
@@ -6045,8 +6093,15 @@
         <f t="shared" si="15"/>
         <v>7B</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="H66">
+        <v>320</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="16"/>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>191</v>
       </c>
@@ -6061,8 +6116,15 @@
         <f t="shared" si="15"/>
         <v>88</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="H67" t="s">
+        <v>194</v>
+      </c>
+      <c r="I67">
+        <f t="shared" si="16"/>
+        <v>760</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B68" t="str">
         <f>B66&amp;"s @ 50Hz, "&amp;B67&amp;"s @ 60Hz (half rate)"</f>
         <v>5.36s @ 50Hz, 4.46666666666667s @ 60Hz (half rate)</v>
@@ -6074,8 +6136,15 @@
         <f t="shared" si="15"/>
         <v>8B</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="H68" t="s">
+        <v>195</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="16"/>
+        <v>720</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.45">
       <c r="E69">
         <v>152</v>
       </c>
@@ -6083,8 +6152,15 @@
         <f t="shared" si="15"/>
         <v>98</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="H69">
+        <v>190</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="16"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.45">
       <c r="E70">
         <v>155</v>
       </c>
@@ -6092,8 +6168,12 @@
         <f t="shared" si="15"/>
         <v>9B</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="I70">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.45">
       <c r="E71">
         <v>232</v>
       </c>
@@ -6101,8 +6181,12 @@
         <f t="shared" si="15"/>
         <v>E8</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="I71">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.45">
       <c r="E72">
         <v>235</v>
       </c>
@@ -6110,14 +6194,58 @@
         <f t="shared" si="15"/>
         <v>EB</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="I72">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.45">
       <c r="E73">
         <v>249</v>
       </c>
       <c r="F73" t="str">
         <f t="shared" si="15"/>
         <v>F9</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I74">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I75">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I76">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I77">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I78">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I79">
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6131,7 +6259,7 @@
   <dimension ref="A1:J198"/>
   <sheetViews>
     <sheetView topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="D122" sqref="D122"/>
+      <selection activeCell="H70" sqref="H70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -25121,9 +25249,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>

--- a/Analysis/Micro Machines tables.xlsx
+++ b/Analysis/Micro Machines tables.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="7425" windowHeight="3743" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="7425" windowHeight="3743" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,14 +17,14 @@
     <sheet name="Splash tile data" sheetId="3" r:id="rId3"/>
     <sheet name="Palette" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
+    <sheet name="SFX tone graphs" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="204">
   <si>
     <t>0f0e0f0e0d0e0e0f</t>
   </si>
@@ -613,6 +613,30 @@
   <si>
     <t>2d0</t>
   </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>$28 $28 $28 $28 $20 $20 $20 $20 $28 $28 $28 $28 $20 $20 $20 $20 $28 $28 $28 $28 $20 $20 $20 $20 $28 $28 $28 $28 $20 $20 $20 $20 $28 $28 $28 $28 $20 $20 $20 $20 $28 $28 $28 $28 $20 $20 $20 $20 $28 $28 $28 $28 $20 $20 $20 $20 $28 $28 $28 $28 $20 $20 $20 $20</t>
+  </si>
 </sst>
 </file>
 
@@ -1117,11 +1141,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="434820616"/>
-        <c:axId val="434821400"/>
+        <c:axId val="37966776"/>
+        <c:axId val="37962856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="434820616"/>
+        <c:axId val="37966776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1163,7 +1187,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="434821400"/>
+        <c:crossAx val="37962856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1171,7 +1195,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="434821400"/>
+        <c:axId val="37962856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1223,7 +1247,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="434820616"/>
+        <c:crossAx val="37966776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1287,7 +1311,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1646,11 +1669,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="453813144"/>
-        <c:axId val="453817456"/>
+        <c:axId val="37963640"/>
+        <c:axId val="37964816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="453813144"/>
+        <c:axId val="37963640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1692,7 +1715,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="453817456"/>
+        <c:crossAx val="37964816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1700,7 +1723,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="453817456"/>
+        <c:axId val="37964816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1751,7 +1774,2387 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="453813144"/>
+        <c:crossAx val="37963640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'SFX tone graphs'!$C$3:$C$150</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="148"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'SFX tone graphs'!$D$3:$D$150</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="148"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'SFX tone graphs'!$E$3:$E$150</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="148"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'SFX tone graphs'!$F$3:$F$150</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="148"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'SFX tone graphs'!$G$3:$G$150</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="148"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'SFX tone graphs'!$H$3:$H$150</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="148"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'SFX tone graphs'!$I$3:$I$150</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="148"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'SFX tone graphs'!$J$3:$J$150</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="148"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'SFX tone graphs'!$K$3:$K$150</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="148"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'SFX tone graphs'!$L$3:$L$150</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="148"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'SFX tone graphs'!$M$3:$M$150</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="148"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'SFX tone graphs'!$N$3:$N$150</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="148"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>55</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'SFX tone graphs'!$O$3:$O$150</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="148"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'SFX tone graphs'!$P$3:$P$150</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="148"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="14"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'SFX tone graphs'!$Q$3:$Q$150</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="148"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="15"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'SFX tone graphs'!$R$3:$R$150</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="148"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="16"/>
+          <c:order val="16"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'SFX tone graphs'!$S$3:$S$150</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="148"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="17"/>
+          <c:order val="17"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'SFX tone graphs'!$T$3:$T$150</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="148"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="18"/>
+          <c:order val="18"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'SFX tone graphs'!$U$3:$U$150</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="148"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>46</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="19"/>
+          <c:order val="19"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'SFX tone graphs'!$V$3:$V$150</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="148"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="20"/>
+          <c:order val="20"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'SFX tone graphs'!$W$3:$W$150</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="148"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="21"/>
+          <c:order val="21"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'SFX tone graphs'!$X$3:$X$150</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="148"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="466150032"/>
+        <c:axId val="466148856"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="466150032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="466148856"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="466148856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="466150032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1841,6 +4244,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2912,6 +5355,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2969,6 +5928,41 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>92868</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>21430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -25249,7 +28243,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -26146,4 +29140,3122 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X153"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="24" width="2.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>6</v>
+      </c>
+      <c r="I3">
+        <v>7</v>
+      </c>
+      <c r="J3">
+        <v>8</v>
+      </c>
+      <c r="K3">
+        <v>9</v>
+      </c>
+      <c r="L3" t="s">
+        <v>197</v>
+      </c>
+      <c r="M3" t="s">
+        <v>198</v>
+      </c>
+      <c r="N3" t="s">
+        <v>199</v>
+      </c>
+      <c r="O3" t="s">
+        <v>200</v>
+      </c>
+      <c r="P3" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>202</v>
+      </c>
+      <c r="R3">
+        <v>10</v>
+      </c>
+      <c r="S3">
+        <v>11</v>
+      </c>
+      <c r="T3">
+        <v>12</v>
+      </c>
+      <c r="U3">
+        <v>13</v>
+      </c>
+      <c r="V3">
+        <v>14</v>
+      </c>
+      <c r="W3">
+        <v>15</v>
+      </c>
+      <c r="X3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <f>IFERROR(HEX2DEC(MID($A$1,A4+1,2)),B3)</f>
+        <v>40</v>
+      </c>
+      <c r="C4">
+        <v>24</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>6</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>30</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>24</v>
+      </c>
+      <c r="K4">
+        <v>50</v>
+      </c>
+      <c r="L4">
+        <v>5</v>
+      </c>
+      <c r="M4">
+        <v>20</v>
+      </c>
+      <c r="N4">
+        <v>40</v>
+      </c>
+      <c r="O4">
+        <v>10</v>
+      </c>
+      <c r="P4">
+        <v>34</v>
+      </c>
+      <c r="Q4">
+        <v>40</v>
+      </c>
+      <c r="R4">
+        <v>30</v>
+      </c>
+      <c r="T4">
+        <v>10</v>
+      </c>
+      <c r="U4">
+        <v>30</v>
+      </c>
+      <c r="V4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <f>A4+4</f>
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ref="B5:G68" si="0">IFERROR(HEX2DEC(MID($A$1,A5+1,2)),B4)</f>
+        <v>40</v>
+      </c>
+      <c r="C5">
+        <v>24</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>10</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <v>24</v>
+      </c>
+      <c r="K5">
+        <v>49</v>
+      </c>
+      <c r="L5">
+        <v>4</v>
+      </c>
+      <c r="M5">
+        <v>18</v>
+      </c>
+      <c r="N5">
+        <v>42</v>
+      </c>
+      <c r="O5">
+        <v>9</v>
+      </c>
+      <c r="P5">
+        <v>34</v>
+      </c>
+      <c r="Q5">
+        <v>39</v>
+      </c>
+      <c r="R5">
+        <v>29</v>
+      </c>
+      <c r="T5">
+        <v>11</v>
+      </c>
+      <c r="U5">
+        <v>32</v>
+      </c>
+      <c r="V5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <f t="shared" ref="A6:A22" si="1">A5+4</f>
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C6">
+        <v>24</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>10</v>
+      </c>
+      <c r="I6">
+        <v>8</v>
+      </c>
+      <c r="J6">
+        <v>22</v>
+      </c>
+      <c r="K6">
+        <v>48</v>
+      </c>
+      <c r="L6">
+        <v>3</v>
+      </c>
+      <c r="M6">
+        <v>16</v>
+      </c>
+      <c r="N6">
+        <v>44</v>
+      </c>
+      <c r="O6">
+        <v>8</v>
+      </c>
+      <c r="P6">
+        <v>34</v>
+      </c>
+      <c r="Q6">
+        <v>40</v>
+      </c>
+      <c r="R6">
+        <v>30</v>
+      </c>
+      <c r="T6">
+        <v>12</v>
+      </c>
+      <c r="U6">
+        <v>34</v>
+      </c>
+      <c r="V6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C7">
+        <v>24</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>12</v>
+      </c>
+      <c r="I7">
+        <v>16</v>
+      </c>
+      <c r="J7">
+        <v>22</v>
+      </c>
+      <c r="K7">
+        <v>47</v>
+      </c>
+      <c r="L7">
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <v>14</v>
+      </c>
+      <c r="N7">
+        <v>46</v>
+      </c>
+      <c r="O7">
+        <v>7</v>
+      </c>
+      <c r="P7">
+        <v>33</v>
+      </c>
+      <c r="Q7">
+        <v>41</v>
+      </c>
+      <c r="R7">
+        <v>31</v>
+      </c>
+      <c r="T7">
+        <v>13</v>
+      </c>
+      <c r="U7">
+        <v>36</v>
+      </c>
+      <c r="V7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="C8">
+        <v>24</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>14</v>
+      </c>
+      <c r="I8">
+        <v>32</v>
+      </c>
+      <c r="J8">
+        <v>20</v>
+      </c>
+      <c r="K8">
+        <v>46</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>12</v>
+      </c>
+      <c r="N8">
+        <v>48</v>
+      </c>
+      <c r="O8">
+        <v>6</v>
+      </c>
+      <c r="P8">
+        <v>33</v>
+      </c>
+      <c r="Q8">
+        <v>40</v>
+      </c>
+      <c r="R8">
+        <v>30</v>
+      </c>
+      <c r="T8">
+        <v>14</v>
+      </c>
+      <c r="U8">
+        <v>40</v>
+      </c>
+      <c r="V8">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="C9">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>16</v>
+      </c>
+      <c r="I9">
+        <v>32</v>
+      </c>
+      <c r="J9">
+        <v>20</v>
+      </c>
+      <c r="K9">
+        <v>45</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>10</v>
+      </c>
+      <c r="N9">
+        <v>50</v>
+      </c>
+      <c r="O9">
+        <v>5</v>
+      </c>
+      <c r="P9">
+        <v>33</v>
+      </c>
+      <c r="Q9">
+        <v>39</v>
+      </c>
+      <c r="R9">
+        <v>29</v>
+      </c>
+      <c r="T9">
+        <v>15</v>
+      </c>
+      <c r="U9">
+        <v>42</v>
+      </c>
+      <c r="V9">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="C10">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>18</v>
+      </c>
+      <c r="I10">
+        <v>32</v>
+      </c>
+      <c r="J10">
+        <v>18</v>
+      </c>
+      <c r="K10">
+        <v>44</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>8</v>
+      </c>
+      <c r="N10">
+        <v>10</v>
+      </c>
+      <c r="O10">
+        <v>5</v>
+      </c>
+      <c r="P10">
+        <v>32</v>
+      </c>
+      <c r="Q10">
+        <v>40</v>
+      </c>
+      <c r="T10">
+        <v>16</v>
+      </c>
+      <c r="U10">
+        <v>44</v>
+      </c>
+      <c r="V10">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>20</v>
+      </c>
+      <c r="I11">
+        <v>32</v>
+      </c>
+      <c r="J11">
+        <v>18</v>
+      </c>
+      <c r="K11">
+        <v>43</v>
+      </c>
+      <c r="M11">
+        <v>6</v>
+      </c>
+      <c r="N11">
+        <v>15</v>
+      </c>
+      <c r="O11">
+        <v>5</v>
+      </c>
+      <c r="P11">
+        <v>32</v>
+      </c>
+      <c r="T11">
+        <v>17</v>
+      </c>
+      <c r="U11">
+        <v>46</v>
+      </c>
+      <c r="V11">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>20</v>
+      </c>
+      <c r="I12">
+        <v>32</v>
+      </c>
+      <c r="J12">
+        <v>16</v>
+      </c>
+      <c r="K12">
+        <v>42</v>
+      </c>
+      <c r="N12">
+        <v>20</v>
+      </c>
+      <c r="P12">
+        <v>32</v>
+      </c>
+      <c r="T12">
+        <v>18</v>
+      </c>
+      <c r="U12">
+        <v>30</v>
+      </c>
+      <c r="V12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>16</v>
+      </c>
+      <c r="K13">
+        <v>41</v>
+      </c>
+      <c r="N13">
+        <v>25</v>
+      </c>
+      <c r="P13">
+        <v>31</v>
+      </c>
+      <c r="T13">
+        <v>19</v>
+      </c>
+      <c r="U13">
+        <v>32</v>
+      </c>
+      <c r="V13">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>14</v>
+      </c>
+      <c r="K14">
+        <v>40</v>
+      </c>
+      <c r="N14">
+        <v>30</v>
+      </c>
+      <c r="P14">
+        <v>31</v>
+      </c>
+      <c r="T14">
+        <v>20</v>
+      </c>
+      <c r="U14">
+        <v>34</v>
+      </c>
+      <c r="V14">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>14</v>
+      </c>
+      <c r="K15">
+        <v>39</v>
+      </c>
+      <c r="N15">
+        <v>35</v>
+      </c>
+      <c r="P15">
+        <v>31</v>
+      </c>
+      <c r="T15">
+        <v>21</v>
+      </c>
+      <c r="U15">
+        <v>36</v>
+      </c>
+      <c r="V15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>12</v>
+      </c>
+      <c r="K16">
+        <v>38</v>
+      </c>
+      <c r="N16">
+        <v>40</v>
+      </c>
+      <c r="P16">
+        <v>30</v>
+      </c>
+      <c r="T16">
+        <v>22</v>
+      </c>
+      <c r="U16">
+        <v>40</v>
+      </c>
+      <c r="V16">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>12</v>
+      </c>
+      <c r="K17">
+        <v>37</v>
+      </c>
+      <c r="N17">
+        <v>45</v>
+      </c>
+      <c r="P17">
+        <v>30</v>
+      </c>
+      <c r="T17">
+        <v>23</v>
+      </c>
+      <c r="U17">
+        <v>42</v>
+      </c>
+      <c r="V17">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>12</v>
+      </c>
+      <c r="K18">
+        <v>36</v>
+      </c>
+      <c r="N18">
+        <v>50</v>
+      </c>
+      <c r="P18">
+        <v>30</v>
+      </c>
+      <c r="T18">
+        <v>24</v>
+      </c>
+      <c r="U18">
+        <v>44</v>
+      </c>
+      <c r="V18">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>12</v>
+      </c>
+      <c r="K19">
+        <v>35</v>
+      </c>
+      <c r="N19">
+        <v>55</v>
+      </c>
+      <c r="P19">
+        <v>29</v>
+      </c>
+      <c r="T19">
+        <v>25</v>
+      </c>
+      <c r="U19">
+        <v>46</v>
+      </c>
+      <c r="V19">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>12</v>
+      </c>
+      <c r="K20">
+        <v>34</v>
+      </c>
+      <c r="P20">
+        <v>29</v>
+      </c>
+      <c r="T20">
+        <v>26</v>
+      </c>
+      <c r="U20">
+        <v>30</v>
+      </c>
+      <c r="V20">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>12</v>
+      </c>
+      <c r="K21">
+        <v>33</v>
+      </c>
+      <c r="P21">
+        <v>29</v>
+      </c>
+      <c r="T21">
+        <v>27</v>
+      </c>
+      <c r="U21">
+        <v>32</v>
+      </c>
+      <c r="V21">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>12</v>
+      </c>
+      <c r="K22">
+        <v>32</v>
+      </c>
+      <c r="P22">
+        <v>28</v>
+      </c>
+      <c r="T22">
+        <v>28</v>
+      </c>
+      <c r="U22">
+        <v>34</v>
+      </c>
+      <c r="V22">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <f t="shared" ref="A23:A86" si="2">A22+4</f>
+        <v>77</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>12</v>
+      </c>
+      <c r="K23">
+        <v>31</v>
+      </c>
+      <c r="P23">
+        <v>28</v>
+      </c>
+      <c r="T23">
+        <v>29</v>
+      </c>
+      <c r="U23">
+        <v>36</v>
+      </c>
+      <c r="V23">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <f t="shared" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="J24">
+        <v>12</v>
+      </c>
+      <c r="K24">
+        <v>30</v>
+      </c>
+      <c r="P24">
+        <v>28</v>
+      </c>
+      <c r="T24">
+        <v>30</v>
+      </c>
+      <c r="U24">
+        <v>40</v>
+      </c>
+      <c r="V24">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="K25">
+        <v>29</v>
+      </c>
+      <c r="P25">
+        <v>27</v>
+      </c>
+      <c r="T25">
+        <v>31</v>
+      </c>
+      <c r="U25">
+        <v>42</v>
+      </c>
+      <c r="V25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <f t="shared" si="2"/>
+        <v>89</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="K26">
+        <v>28</v>
+      </c>
+      <c r="P26">
+        <v>27</v>
+      </c>
+      <c r="T26">
+        <v>32</v>
+      </c>
+      <c r="U26">
+        <v>44</v>
+      </c>
+      <c r="V26">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <f t="shared" si="2"/>
+        <v>93</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="K27">
+        <v>27</v>
+      </c>
+      <c r="P27">
+        <v>27</v>
+      </c>
+      <c r="T27">
+        <v>33</v>
+      </c>
+      <c r="U27">
+        <v>46</v>
+      </c>
+      <c r="V27">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <f t="shared" si="2"/>
+        <v>97</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="K28">
+        <v>26</v>
+      </c>
+      <c r="P28">
+        <v>26</v>
+      </c>
+      <c r="T28">
+        <v>34</v>
+      </c>
+      <c r="U28">
+        <v>30</v>
+      </c>
+      <c r="V28">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <f t="shared" si="2"/>
+        <v>101</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="K29">
+        <v>25</v>
+      </c>
+      <c r="P29">
+        <v>26</v>
+      </c>
+      <c r="T29">
+        <v>35</v>
+      </c>
+      <c r="U29">
+        <v>32</v>
+      </c>
+      <c r="V29">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <f t="shared" si="2"/>
+        <v>105</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="K30">
+        <v>24</v>
+      </c>
+      <c r="P30">
+        <v>26</v>
+      </c>
+      <c r="T30">
+        <v>36</v>
+      </c>
+      <c r="U30">
+        <v>34</v>
+      </c>
+      <c r="V30">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <f t="shared" si="2"/>
+        <v>109</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="K31">
+        <v>23</v>
+      </c>
+      <c r="P31">
+        <v>25</v>
+      </c>
+      <c r="T31">
+        <v>37</v>
+      </c>
+      <c r="U31">
+        <v>36</v>
+      </c>
+      <c r="V31">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <f t="shared" si="2"/>
+        <v>113</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="K32">
+        <v>22</v>
+      </c>
+      <c r="P32">
+        <v>25</v>
+      </c>
+      <c r="T32">
+        <v>38</v>
+      </c>
+      <c r="U32">
+        <v>40</v>
+      </c>
+      <c r="V32">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <f t="shared" si="2"/>
+        <v>117</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="K33">
+        <v>21</v>
+      </c>
+      <c r="P33">
+        <v>25</v>
+      </c>
+      <c r="T33">
+        <v>39</v>
+      </c>
+      <c r="U33">
+        <v>42</v>
+      </c>
+      <c r="V33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <f t="shared" si="2"/>
+        <v>121</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="K34">
+        <v>10</v>
+      </c>
+      <c r="P34">
+        <v>24</v>
+      </c>
+      <c r="T34">
+        <v>40</v>
+      </c>
+      <c r="U34">
+        <v>44</v>
+      </c>
+      <c r="V34">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <f t="shared" si="2"/>
+        <v>125</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="K35">
+        <v>9</v>
+      </c>
+      <c r="P35">
+        <v>24</v>
+      </c>
+      <c r="T35">
+        <v>41</v>
+      </c>
+      <c r="U35">
+        <v>46</v>
+      </c>
+      <c r="V35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <f t="shared" si="2"/>
+        <v>129</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="K36">
+        <v>8</v>
+      </c>
+      <c r="P36">
+        <v>24</v>
+      </c>
+      <c r="T36">
+        <v>42</v>
+      </c>
+      <c r="U36">
+        <v>30</v>
+      </c>
+      <c r="V36">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <f t="shared" si="2"/>
+        <v>133</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="K37">
+        <v>7</v>
+      </c>
+      <c r="P37">
+        <v>23</v>
+      </c>
+      <c r="T37">
+        <v>43</v>
+      </c>
+      <c r="U37">
+        <v>32</v>
+      </c>
+      <c r="V37">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A38">
+        <f t="shared" si="2"/>
+        <v>137</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="P38">
+        <v>23</v>
+      </c>
+      <c r="T38">
+        <v>44</v>
+      </c>
+      <c r="U38">
+        <v>34</v>
+      </c>
+      <c r="V38">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A39">
+        <f t="shared" si="2"/>
+        <v>141</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="P39">
+        <v>23</v>
+      </c>
+      <c r="T39">
+        <v>45</v>
+      </c>
+      <c r="U39">
+        <v>36</v>
+      </c>
+      <c r="V39">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A40">
+        <f t="shared" si="2"/>
+        <v>145</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="P40">
+        <v>22</v>
+      </c>
+      <c r="T40">
+        <v>46</v>
+      </c>
+      <c r="U40">
+        <v>40</v>
+      </c>
+      <c r="V40">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A41">
+        <f t="shared" si="2"/>
+        <v>149</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="P41">
+        <v>22</v>
+      </c>
+      <c r="T41">
+        <v>47</v>
+      </c>
+      <c r="U41">
+        <v>42</v>
+      </c>
+      <c r="V41">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A42">
+        <f t="shared" si="2"/>
+        <v>153</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="P42">
+        <v>22</v>
+      </c>
+      <c r="T42">
+        <v>48</v>
+      </c>
+      <c r="U42">
+        <v>44</v>
+      </c>
+      <c r="V42">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A43">
+        <f t="shared" si="2"/>
+        <v>157</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="P43">
+        <v>21</v>
+      </c>
+      <c r="T43">
+        <v>49</v>
+      </c>
+      <c r="U43">
+        <v>46</v>
+      </c>
+      <c r="V43">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A44">
+        <f t="shared" si="2"/>
+        <v>161</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="P44">
+        <v>21</v>
+      </c>
+      <c r="T44">
+        <v>50</v>
+      </c>
+      <c r="U44">
+        <v>30</v>
+      </c>
+      <c r="V44">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A45">
+        <f t="shared" si="2"/>
+        <v>165</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="P45">
+        <v>21</v>
+      </c>
+      <c r="T45">
+        <v>40</v>
+      </c>
+      <c r="U45">
+        <v>32</v>
+      </c>
+      <c r="V45">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A46">
+        <f t="shared" si="2"/>
+        <v>169</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="P46">
+        <v>20</v>
+      </c>
+      <c r="T46">
+        <v>40</v>
+      </c>
+      <c r="U46">
+        <v>34</v>
+      </c>
+      <c r="V46">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A47">
+        <f t="shared" si="2"/>
+        <v>173</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="P47">
+        <v>20</v>
+      </c>
+      <c r="T47">
+        <v>40</v>
+      </c>
+      <c r="U47">
+        <v>36</v>
+      </c>
+      <c r="V47">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A48">
+        <f t="shared" si="2"/>
+        <v>177</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="P48">
+        <v>20</v>
+      </c>
+      <c r="T48">
+        <v>40</v>
+      </c>
+      <c r="U48">
+        <v>40</v>
+      </c>
+      <c r="V48">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A49">
+        <f t="shared" si="2"/>
+        <v>181</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="T49">
+        <v>20</v>
+      </c>
+      <c r="U49">
+        <v>42</v>
+      </c>
+      <c r="V49">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A50">
+        <f t="shared" si="2"/>
+        <v>185</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="T50">
+        <v>20</v>
+      </c>
+      <c r="U50">
+        <v>44</v>
+      </c>
+      <c r="V50">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A51">
+        <f t="shared" si="2"/>
+        <v>189</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="T51">
+        <v>20</v>
+      </c>
+      <c r="U51">
+        <v>46</v>
+      </c>
+      <c r="V51">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A52">
+        <f t="shared" si="2"/>
+        <v>193</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="T52">
+        <v>20</v>
+      </c>
+      <c r="U52">
+        <v>30</v>
+      </c>
+      <c r="V52">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A53">
+        <f t="shared" si="2"/>
+        <v>197</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="T53">
+        <v>40</v>
+      </c>
+      <c r="U53">
+        <v>32</v>
+      </c>
+      <c r="V53">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A54">
+        <f t="shared" si="2"/>
+        <v>201</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="T54">
+        <v>40</v>
+      </c>
+      <c r="U54">
+        <v>34</v>
+      </c>
+      <c r="V54">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A55">
+        <f t="shared" si="2"/>
+        <v>205</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="T55">
+        <v>40</v>
+      </c>
+      <c r="U55">
+        <v>36</v>
+      </c>
+      <c r="V55">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A56">
+        <f t="shared" si="2"/>
+        <v>209</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="T56">
+        <v>40</v>
+      </c>
+      <c r="U56">
+        <v>40</v>
+      </c>
+      <c r="V56">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A57">
+        <f t="shared" si="2"/>
+        <v>213</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="T57">
+        <v>20</v>
+      </c>
+      <c r="U57">
+        <v>42</v>
+      </c>
+      <c r="V57">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A58">
+        <f t="shared" si="2"/>
+        <v>217</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="T58">
+        <v>20</v>
+      </c>
+      <c r="U58">
+        <v>44</v>
+      </c>
+      <c r="V58">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A59">
+        <f t="shared" si="2"/>
+        <v>221</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="T59">
+        <v>20</v>
+      </c>
+      <c r="U59">
+        <v>46</v>
+      </c>
+      <c r="V59">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A60">
+        <f t="shared" si="2"/>
+        <v>225</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="T60">
+        <v>20</v>
+      </c>
+      <c r="U60">
+        <v>30</v>
+      </c>
+      <c r="V60">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A61">
+        <f t="shared" si="2"/>
+        <v>229</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="T61">
+        <v>40</v>
+      </c>
+      <c r="U61">
+        <v>32</v>
+      </c>
+      <c r="V61">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A62">
+        <f t="shared" si="2"/>
+        <v>233</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="T62">
+        <v>40</v>
+      </c>
+      <c r="U62">
+        <v>34</v>
+      </c>
+      <c r="V62">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A63">
+        <f t="shared" si="2"/>
+        <v>237</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="T63">
+        <v>40</v>
+      </c>
+      <c r="U63">
+        <v>36</v>
+      </c>
+      <c r="V63">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A64">
+        <f t="shared" si="2"/>
+        <v>241</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="T64">
+        <v>40</v>
+      </c>
+      <c r="U64">
+        <v>40</v>
+      </c>
+      <c r="V64">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A65">
+        <f t="shared" si="2"/>
+        <v>245</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="T65">
+        <v>20</v>
+      </c>
+      <c r="U65">
+        <v>42</v>
+      </c>
+      <c r="V65">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A66">
+        <f t="shared" si="2"/>
+        <v>249</v>
+      </c>
+      <c r="B66">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="T66">
+        <v>20</v>
+      </c>
+      <c r="U66">
+        <v>44</v>
+      </c>
+      <c r="V66">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A67">
+        <f t="shared" si="2"/>
+        <v>253</v>
+      </c>
+      <c r="B67">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="T67">
+        <v>20</v>
+      </c>
+      <c r="U67">
+        <v>46</v>
+      </c>
+      <c r="V67">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A68">
+        <f t="shared" si="2"/>
+        <v>257</v>
+      </c>
+      <c r="B68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>20</v>
+      </c>
+      <c r="U68">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A69">
+        <f t="shared" si="2"/>
+        <v>261</v>
+      </c>
+      <c r="B69">
+        <f t="shared" ref="B69:B132" si="3">IFERROR(HEX2DEC(MID($A$1,A69+1,2)),B68)</f>
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>40</v>
+      </c>
+      <c r="U69">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A70">
+        <f t="shared" si="2"/>
+        <v>265</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>40</v>
+      </c>
+      <c r="U70">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A71">
+        <f t="shared" si="2"/>
+        <v>269</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>40</v>
+      </c>
+      <c r="U71">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A72">
+        <f t="shared" si="2"/>
+        <v>273</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>40</v>
+      </c>
+      <c r="U72">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A73">
+        <f t="shared" si="2"/>
+        <v>277</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>20</v>
+      </c>
+      <c r="U73">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A74">
+        <f t="shared" si="2"/>
+        <v>281</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <v>20</v>
+      </c>
+      <c r="U74">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A75">
+        <f t="shared" si="2"/>
+        <v>285</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>20</v>
+      </c>
+      <c r="U75">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A76">
+        <f t="shared" si="2"/>
+        <v>289</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>20</v>
+      </c>
+      <c r="U76">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A77">
+        <f t="shared" si="2"/>
+        <v>293</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>40</v>
+      </c>
+      <c r="U77">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A78">
+        <f t="shared" si="2"/>
+        <v>297</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T78">
+        <v>40</v>
+      </c>
+      <c r="U78">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A79">
+        <f t="shared" si="2"/>
+        <v>301</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>40</v>
+      </c>
+      <c r="U79">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A80">
+        <f t="shared" si="2"/>
+        <v>305</v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>40</v>
+      </c>
+      <c r="U80">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A81">
+        <f t="shared" si="2"/>
+        <v>309</v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>20</v>
+      </c>
+      <c r="U81">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A82">
+        <f t="shared" si="2"/>
+        <v>313</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T82">
+        <v>20</v>
+      </c>
+      <c r="U82">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A83">
+        <f t="shared" si="2"/>
+        <v>317</v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T83">
+        <v>20</v>
+      </c>
+      <c r="U83">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A84">
+        <f t="shared" si="2"/>
+        <v>321</v>
+      </c>
+      <c r="B84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T84">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A85">
+        <f t="shared" si="2"/>
+        <v>325</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T85">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A86">
+        <f t="shared" si="2"/>
+        <v>329</v>
+      </c>
+      <c r="B86">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T86">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A87">
+        <f t="shared" ref="A87:A150" si="4">A86+4</f>
+        <v>333</v>
+      </c>
+      <c r="B87">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T87">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A88">
+        <f t="shared" si="4"/>
+        <v>337</v>
+      </c>
+      <c r="B88">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T88">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A89">
+        <f t="shared" si="4"/>
+        <v>341</v>
+      </c>
+      <c r="B89">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T89">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A90">
+        <f t="shared" si="4"/>
+        <v>345</v>
+      </c>
+      <c r="B90">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T90">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A91">
+        <f t="shared" si="4"/>
+        <v>349</v>
+      </c>
+      <c r="B91">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T91">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A92">
+        <f t="shared" si="4"/>
+        <v>353</v>
+      </c>
+      <c r="B92">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T92">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A93">
+        <f t="shared" si="4"/>
+        <v>357</v>
+      </c>
+      <c r="B93">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T93">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A94">
+        <f t="shared" si="4"/>
+        <v>361</v>
+      </c>
+      <c r="B94">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T94">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A95">
+        <f t="shared" si="4"/>
+        <v>365</v>
+      </c>
+      <c r="B95">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T95">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A96">
+        <f t="shared" si="4"/>
+        <v>369</v>
+      </c>
+      <c r="B96">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T96">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A97">
+        <f t="shared" si="4"/>
+        <v>373</v>
+      </c>
+      <c r="B97">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T97">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A98">
+        <f t="shared" si="4"/>
+        <v>377</v>
+      </c>
+      <c r="B98">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T98">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A99">
+        <f t="shared" si="4"/>
+        <v>381</v>
+      </c>
+      <c r="B99">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T99">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A100">
+        <f t="shared" si="4"/>
+        <v>385</v>
+      </c>
+      <c r="B100">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T100">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A101">
+        <f t="shared" si="4"/>
+        <v>389</v>
+      </c>
+      <c r="B101">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T101">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A102">
+        <f t="shared" si="4"/>
+        <v>393</v>
+      </c>
+      <c r="B102">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T102">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A103">
+        <f t="shared" si="4"/>
+        <v>397</v>
+      </c>
+      <c r="B103">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T103">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A104">
+        <f t="shared" si="4"/>
+        <v>401</v>
+      </c>
+      <c r="B104">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T104">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A105">
+        <f t="shared" si="4"/>
+        <v>405</v>
+      </c>
+      <c r="B105">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T105">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A106">
+        <f t="shared" si="4"/>
+        <v>409</v>
+      </c>
+      <c r="B106">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T106">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A107">
+        <f t="shared" si="4"/>
+        <v>413</v>
+      </c>
+      <c r="B107">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T107">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A108">
+        <f t="shared" si="4"/>
+        <v>417</v>
+      </c>
+      <c r="B108">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T108">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A109">
+        <f t="shared" si="4"/>
+        <v>421</v>
+      </c>
+      <c r="B109">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T109">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A110">
+        <f t="shared" si="4"/>
+        <v>425</v>
+      </c>
+      <c r="B110">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T110">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A111">
+        <f t="shared" si="4"/>
+        <v>429</v>
+      </c>
+      <c r="B111">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T111">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A112">
+        <f t="shared" si="4"/>
+        <v>433</v>
+      </c>
+      <c r="B112">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T112">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="113" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A113">
+        <f t="shared" si="4"/>
+        <v>437</v>
+      </c>
+      <c r="B113">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T113">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A114">
+        <f t="shared" si="4"/>
+        <v>441</v>
+      </c>
+      <c r="B114">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T114">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="115" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A115">
+        <f t="shared" si="4"/>
+        <v>445</v>
+      </c>
+      <c r="B115">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T115">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="116" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A116">
+        <f t="shared" si="4"/>
+        <v>449</v>
+      </c>
+      <c r="B116">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T116">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="117" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A117">
+        <f t="shared" si="4"/>
+        <v>453</v>
+      </c>
+      <c r="B117">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T117">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="118" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A118">
+        <f t="shared" si="4"/>
+        <v>457</v>
+      </c>
+      <c r="B118">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T118">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="119" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A119">
+        <f t="shared" si="4"/>
+        <v>461</v>
+      </c>
+      <c r="B119">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T119">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="120" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A120">
+        <f t="shared" si="4"/>
+        <v>465</v>
+      </c>
+      <c r="B120">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T120">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="121" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A121">
+        <f t="shared" si="4"/>
+        <v>469</v>
+      </c>
+      <c r="B121">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T121">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="122" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A122">
+        <f t="shared" si="4"/>
+        <v>473</v>
+      </c>
+      <c r="B122">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T122">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="123" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A123">
+        <f t="shared" si="4"/>
+        <v>477</v>
+      </c>
+      <c r="B123">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T123">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="124" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A124">
+        <f t="shared" si="4"/>
+        <v>481</v>
+      </c>
+      <c r="B124">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T124">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="125" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A125">
+        <f t="shared" si="4"/>
+        <v>485</v>
+      </c>
+      <c r="B125">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T125">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="126" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A126">
+        <f t="shared" si="4"/>
+        <v>489</v>
+      </c>
+      <c r="B126">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T126">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="127" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A127">
+        <f t="shared" si="4"/>
+        <v>493</v>
+      </c>
+      <c r="B127">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T127">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="128" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A128">
+        <f t="shared" si="4"/>
+        <v>497</v>
+      </c>
+      <c r="B128">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T128">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="129" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A129">
+        <f t="shared" si="4"/>
+        <v>501</v>
+      </c>
+      <c r="B129">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T129">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="130" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A130">
+        <f t="shared" si="4"/>
+        <v>505</v>
+      </c>
+      <c r="B130">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T130">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="131" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A131">
+        <f t="shared" si="4"/>
+        <v>509</v>
+      </c>
+      <c r="B131">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T131">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="132" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A132">
+        <f t="shared" si="4"/>
+        <v>513</v>
+      </c>
+      <c r="B132">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T132">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="133" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A133">
+        <f t="shared" si="4"/>
+        <v>517</v>
+      </c>
+      <c r="B133">
+        <f t="shared" ref="B133:B153" si="5">IFERROR(HEX2DEC(MID($A$1,A133+1,2)),B132)</f>
+        <v>0</v>
+      </c>
+      <c r="T133">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="134" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A134">
+        <f t="shared" si="4"/>
+        <v>521</v>
+      </c>
+      <c r="B134">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T134">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="135" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A135">
+        <f t="shared" si="4"/>
+        <v>525</v>
+      </c>
+      <c r="B135">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T135">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="136" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A136">
+        <f t="shared" si="4"/>
+        <v>529</v>
+      </c>
+      <c r="B136">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T136">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="137" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A137">
+        <f t="shared" si="4"/>
+        <v>533</v>
+      </c>
+      <c r="B137">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T137">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="138" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A138">
+        <f t="shared" si="4"/>
+        <v>537</v>
+      </c>
+      <c r="B138">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T138">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="139" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A139">
+        <f t="shared" si="4"/>
+        <v>541</v>
+      </c>
+      <c r="B139">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T139">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="140" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A140">
+        <f t="shared" si="4"/>
+        <v>545</v>
+      </c>
+      <c r="B140">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T140">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="141" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A141">
+        <f t="shared" si="4"/>
+        <v>549</v>
+      </c>
+      <c r="B141">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T141">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="142" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A142">
+        <f t="shared" si="4"/>
+        <v>553</v>
+      </c>
+      <c r="B142">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T142">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="143" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A143">
+        <f t="shared" si="4"/>
+        <v>557</v>
+      </c>
+      <c r="B143">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T143">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="144" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A144">
+        <f t="shared" si="4"/>
+        <v>561</v>
+      </c>
+      <c r="B144">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T144">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="145" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A145">
+        <f t="shared" si="4"/>
+        <v>565</v>
+      </c>
+      <c r="B145">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T145">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="146" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A146">
+        <f t="shared" si="4"/>
+        <v>569</v>
+      </c>
+      <c r="B146">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T146">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="147" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A147">
+        <f t="shared" si="4"/>
+        <v>573</v>
+      </c>
+      <c r="B147">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T147">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="148" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A148">
+        <f t="shared" si="4"/>
+        <v>577</v>
+      </c>
+      <c r="B148">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T148">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="149" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A149">
+        <f t="shared" si="4"/>
+        <v>581</v>
+      </c>
+      <c r="B149">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T149">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A150">
+        <f t="shared" si="4"/>
+        <v>585</v>
+      </c>
+      <c r="B150">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A151">
+        <f t="shared" ref="A151:A214" si="6">A150+4</f>
+        <v>589</v>
+      </c>
+      <c r="B151">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A152">
+        <f t="shared" si="6"/>
+        <v>593</v>
+      </c>
+      <c r="B152">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A153">
+        <f t="shared" si="6"/>
+        <v>597</v>
+      </c>
+      <c r="B153">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Analysis/Micro Machines tables.xlsx
+++ b/Analysis/Micro Machines tables.xlsx
@@ -9,17 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="7425" windowHeight="3743" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="7425" windowHeight="3743" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Splash sound" sheetId="2" r:id="rId2"/>
-    <sheet name="Splash tile data" sheetId="3" r:id="rId3"/>
-    <sheet name="Palette" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="7" r:id="rId3"/>
+    <sheet name="Splash tile data" sheetId="3" r:id="rId4"/>
+    <sheet name="Palette" sheetId="4" r:id="rId5"/>
     <sheet name="SFX tone graphs" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId7"/>
+    <sheet name="Sheet4" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -1141,11 +1144,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="37966776"/>
-        <c:axId val="37962856"/>
+        <c:axId val="448293376"/>
+        <c:axId val="239165080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="37966776"/>
+        <c:axId val="448293376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1187,7 +1190,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="37962856"/>
+        <c:crossAx val="239165080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1195,7 +1198,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="37962856"/>
+        <c:axId val="239165080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1247,7 +1250,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="37966776"/>
+        <c:crossAx val="448293376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1311,6 +1314,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1669,11 +1673,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="37963640"/>
-        <c:axId val="37964816"/>
+        <c:axId val="239168216"/>
+        <c:axId val="447076112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="37963640"/>
+        <c:axId val="239168216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1715,7 +1719,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="37964816"/>
+        <c:crossAx val="447076112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1723,7 +1727,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="37964816"/>
+        <c:axId val="447076112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1774,7 +1778,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="37963640"/>
+        <c:crossAx val="239168216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4049,11 +4053,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="466150032"/>
-        <c:axId val="466148856"/>
+        <c:axId val="447071800"/>
+        <c:axId val="238227064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="466150032"/>
+        <c:axId val="447071800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4095,7 +4099,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="466148856"/>
+        <c:crossAx val="238227064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4103,7 +4107,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="466148856"/>
+        <c:axId val="238227064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4154,7 +4158,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="466150032"/>
+        <c:crossAx val="447071800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11539,6 +11543,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Y152"/>
   <sheetViews>
     <sheetView topLeftCell="B99" workbookViewId="0">
@@ -25764,7 +25780,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB34"/>
   <sheetViews>
@@ -28239,914 +28255,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E43"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="D1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B2">
-        <f>HEX2DEC(A2)</f>
-        <v>200</v>
-      </c>
-      <c r="C2">
-        <f>B2</f>
-        <v>200</v>
-      </c>
-      <c r="D2" t="str">
-        <f>DEC2HEX(C2)</f>
-        <v>C8</v>
-      </c>
-      <c r="E2" t="str">
-        <f>DEC2HEX(202085+B1)</f>
-        <v>31565</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B3">
-        <f t="shared" ref="B3:B43" si="0">HEX2DEC(A3)</f>
-        <v>428</v>
-      </c>
-      <c r="C3">
-        <f>B3-B2</f>
-        <v>228</v>
-      </c>
-      <c r="D3" t="str">
-        <f t="shared" ref="D3:D43" si="1">DEC2HEX(C3)</f>
-        <v>E4</v>
-      </c>
-      <c r="E3" t="str">
-        <f t="shared" ref="E3:E43" si="2">DEC2HEX(202085+B2)</f>
-        <v>3162D</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4">
-        <v>294</v>
-      </c>
-      <c r="B4">
-        <f t="shared" si="0"/>
-        <v>660</v>
-      </c>
-      <c r="C4">
-        <f t="shared" ref="C4:C43" si="3">B4-B3</f>
-        <v>232</v>
-      </c>
-      <c r="D4" t="str">
-        <f t="shared" si="1"/>
-        <v>E8</v>
-      </c>
-      <c r="E4" t="str">
-        <f t="shared" si="2"/>
-        <v>31711</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5">
-        <v>382</v>
-      </c>
-      <c r="B5">
-        <f t="shared" si="0"/>
-        <v>898</v>
-      </c>
-      <c r="C5">
-        <f t="shared" si="3"/>
-        <v>238</v>
-      </c>
-      <c r="D5" t="str">
-        <f t="shared" si="1"/>
-        <v>EE</v>
-      </c>
-      <c r="E5" t="str">
-        <f t="shared" si="2"/>
-        <v>317F9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>150</v>
-      </c>
-      <c r="B6">
-        <f t="shared" si="0"/>
-        <v>1132</v>
-      </c>
-      <c r="C6">
-        <f t="shared" si="3"/>
-        <v>234</v>
-      </c>
-      <c r="D6" t="str">
-        <f t="shared" si="1"/>
-        <v>EA</v>
-      </c>
-      <c r="E6" t="str">
-        <f t="shared" si="2"/>
-        <v>318E7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7">
-        <v>568</v>
-      </c>
-      <c r="B7">
-        <f t="shared" si="0"/>
-        <v>1384</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="3"/>
-        <v>252</v>
-      </c>
-      <c r="D7" t="str">
-        <f t="shared" si="1"/>
-        <v>FC</v>
-      </c>
-      <c r="E7" t="str">
-        <f t="shared" si="2"/>
-        <v>319D1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8">
-        <v>652</v>
-      </c>
-      <c r="B8">
-        <f t="shared" si="0"/>
-        <v>1618</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="3"/>
-        <v>234</v>
-      </c>
-      <c r="D8" t="str">
-        <f t="shared" si="1"/>
-        <v>EA</v>
-      </c>
-      <c r="E8" t="str">
-        <f t="shared" si="2"/>
-        <v>31ACD</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9">
-        <v>748</v>
-      </c>
-      <c r="B9">
-        <f t="shared" si="0"/>
-        <v>1864</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="3"/>
-        <v>246</v>
-      </c>
-      <c r="D9" t="str">
-        <f t="shared" si="1"/>
-        <v>F6</v>
-      </c>
-      <c r="E9" t="str">
-        <f t="shared" si="2"/>
-        <v>31BB7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>151</v>
-      </c>
-      <c r="B10">
-        <f t="shared" si="0"/>
-        <v>2106</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="3"/>
-        <v>242</v>
-      </c>
-      <c r="D10" t="str">
-        <f t="shared" si="1"/>
-        <v>F2</v>
-      </c>
-      <c r="E10" t="str">
-        <f t="shared" si="2"/>
-        <v>31CAD</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11">
-        <v>928</v>
-      </c>
-      <c r="B11">
-        <f t="shared" si="0"/>
-        <v>2344</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="3"/>
-        <v>238</v>
-      </c>
-      <c r="D11" t="str">
-        <f t="shared" si="1"/>
-        <v>EE</v>
-      </c>
-      <c r="E11" t="str">
-        <f t="shared" si="2"/>
-        <v>31D9F</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>152</v>
-      </c>
-      <c r="B12">
-        <f t="shared" si="0"/>
-        <v>2572</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="3"/>
-        <v>228</v>
-      </c>
-      <c r="D12" t="str">
-        <f t="shared" si="1"/>
-        <v>E4</v>
-      </c>
-      <c r="E12" t="str">
-        <f t="shared" si="2"/>
-        <v>31E8D</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>153</v>
-      </c>
-      <c r="B13">
-        <f t="shared" si="0"/>
-        <v>2800</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="3"/>
-        <v>228</v>
-      </c>
-      <c r="D13" t="str">
-        <f t="shared" si="1"/>
-        <v>E4</v>
-      </c>
-      <c r="E13" t="str">
-        <f t="shared" si="2"/>
-        <v>31F71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>154</v>
-      </c>
-      <c r="B14">
-        <f t="shared" si="0"/>
-        <v>3034</v>
-      </c>
-      <c r="C14">
-        <f t="shared" si="3"/>
-        <v>234</v>
-      </c>
-      <c r="D14" t="str">
-        <f t="shared" si="1"/>
-        <v>EA</v>
-      </c>
-      <c r="E14" t="str">
-        <f t="shared" si="2"/>
-        <v>32055</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>155</v>
-      </c>
-      <c r="B15">
-        <f t="shared" si="0"/>
-        <v>3268</v>
-      </c>
-      <c r="C15">
-        <f t="shared" si="3"/>
-        <v>234</v>
-      </c>
-      <c r="D15" t="str">
-        <f t="shared" si="1"/>
-        <v>EA</v>
-      </c>
-      <c r="E15" t="str">
-        <f t="shared" si="2"/>
-        <v>3213F</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>156</v>
-      </c>
-      <c r="B16">
-        <f t="shared" si="0"/>
-        <v>3520</v>
-      </c>
-      <c r="C16">
-        <f t="shared" si="3"/>
-        <v>252</v>
-      </c>
-      <c r="D16" t="str">
-        <f t="shared" si="1"/>
-        <v>FC</v>
-      </c>
-      <c r="E16" t="str">
-        <f t="shared" si="2"/>
-        <v>32229</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A17" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="B17">
-        <f t="shared" si="0"/>
-        <v>3720</v>
-      </c>
-      <c r="C17">
-        <f t="shared" si="3"/>
-        <v>200</v>
-      </c>
-      <c r="D17" t="str">
-        <f t="shared" si="1"/>
-        <v>C8</v>
-      </c>
-      <c r="E17" t="str">
-        <f t="shared" si="2"/>
-        <v>32325</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>157</v>
-      </c>
-      <c r="B18">
-        <f t="shared" si="0"/>
-        <v>3948</v>
-      </c>
-      <c r="C18">
-        <f t="shared" si="3"/>
-        <v>228</v>
-      </c>
-      <c r="D18" t="str">
-        <f t="shared" si="1"/>
-        <v>E4</v>
-      </c>
-      <c r="E18" t="str">
-        <f t="shared" si="2"/>
-        <v>323ED</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A19">
-        <v>1050</v>
-      </c>
-      <c r="B19">
-        <f t="shared" si="0"/>
-        <v>4176</v>
-      </c>
-      <c r="C19">
-        <f t="shared" si="3"/>
-        <v>228</v>
-      </c>
-      <c r="D19" t="str">
-        <f t="shared" si="1"/>
-        <v>E4</v>
-      </c>
-      <c r="E19" t="str">
-        <f t="shared" si="2"/>
-        <v>324D1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A20">
-        <v>1134</v>
-      </c>
-      <c r="B20">
-        <f t="shared" si="0"/>
-        <v>4404</v>
-      </c>
-      <c r="C20">
-        <f t="shared" si="3"/>
-        <v>228</v>
-      </c>
-      <c r="D20" t="str">
-        <f t="shared" si="1"/>
-        <v>E4</v>
-      </c>
-      <c r="E20" t="str">
-        <f t="shared" si="2"/>
-        <v>325B5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A21">
-        <v>1222</v>
-      </c>
-      <c r="B21">
-        <f t="shared" si="0"/>
-        <v>4642</v>
-      </c>
-      <c r="C21">
-        <f t="shared" si="3"/>
-        <v>238</v>
-      </c>
-      <c r="D21" t="str">
-        <f t="shared" si="1"/>
-        <v>EE</v>
-      </c>
-      <c r="E21" t="str">
-        <f t="shared" si="2"/>
-        <v>32699</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A22">
-        <v>1306</v>
-      </c>
-      <c r="B22">
-        <f t="shared" si="0"/>
-        <v>4870</v>
-      </c>
-      <c r="C22">
-        <f t="shared" si="3"/>
-        <v>228</v>
-      </c>
-      <c r="D22" t="str">
-        <f t="shared" si="1"/>
-        <v>E4</v>
-      </c>
-      <c r="E22" t="str">
-        <f t="shared" si="2"/>
-        <v>32787</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B23">
-        <f t="shared" si="0"/>
-        <v>5110</v>
-      </c>
-      <c r="C23">
-        <f t="shared" si="3"/>
-        <v>240</v>
-      </c>
-      <c r="D23" t="str">
-        <f t="shared" si="1"/>
-        <v>F0</v>
-      </c>
-      <c r="E23" t="str">
-        <f t="shared" si="2"/>
-        <v>3286B</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
-        <v>159</v>
-      </c>
-      <c r="B24">
-        <f t="shared" si="0"/>
-        <v>5360</v>
-      </c>
-      <c r="C24">
-        <f t="shared" si="3"/>
-        <v>250</v>
-      </c>
-      <c r="D24" t="str">
-        <f t="shared" si="1"/>
-        <v>FA</v>
-      </c>
-      <c r="E24" t="str">
-        <f t="shared" si="2"/>
-        <v>3295B</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
-        <v>160</v>
-      </c>
-      <c r="B25">
-        <f t="shared" si="0"/>
-        <v>5598</v>
-      </c>
-      <c r="C25">
-        <f t="shared" si="3"/>
-        <v>238</v>
-      </c>
-      <c r="D25" t="str">
-        <f t="shared" si="1"/>
-        <v>EE</v>
-      </c>
-      <c r="E25" t="str">
-        <f t="shared" si="2"/>
-        <v>32A55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
-        <v>161</v>
-      </c>
-      <c r="B26">
-        <f t="shared" si="0"/>
-        <v>5826</v>
-      </c>
-      <c r="C26">
-        <f t="shared" si="3"/>
-        <v>228</v>
-      </c>
-      <c r="D26" t="str">
-        <f t="shared" si="1"/>
-        <v>E4</v>
-      </c>
-      <c r="E26" t="str">
-        <f t="shared" si="2"/>
-        <v>32B43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
-        <v>162</v>
-      </c>
-      <c r="B27">
-        <f t="shared" si="0"/>
-        <v>6030</v>
-      </c>
-      <c r="C27">
-        <f t="shared" si="3"/>
-        <v>204</v>
-      </c>
-      <c r="D27" t="str">
-        <f t="shared" si="1"/>
-        <v>CC</v>
-      </c>
-      <c r="E27" t="str">
-        <f t="shared" si="2"/>
-        <v>32C27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
-        <v>163</v>
-      </c>
-      <c r="B28">
-        <f t="shared" si="0"/>
-        <v>6238</v>
-      </c>
-      <c r="C28">
-        <f t="shared" si="3"/>
-        <v>208</v>
-      </c>
-      <c r="D28" t="str">
-        <f t="shared" si="1"/>
-        <v>D0</v>
-      </c>
-      <c r="E28" t="str">
-        <f t="shared" si="2"/>
-        <v>32CF3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A29">
-        <v>1946</v>
-      </c>
-      <c r="B29">
-        <f t="shared" si="0"/>
-        <v>6470</v>
-      </c>
-      <c r="C29">
-        <f t="shared" si="3"/>
-        <v>232</v>
-      </c>
-      <c r="D29" t="str">
-        <f t="shared" si="1"/>
-        <v>E8</v>
-      </c>
-      <c r="E29" t="str">
-        <f t="shared" si="2"/>
-        <v>32DC3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
-        <v>164</v>
-      </c>
-      <c r="B30">
-        <f t="shared" si="0"/>
-        <v>6708</v>
-      </c>
-      <c r="C30">
-        <f t="shared" si="3"/>
-        <v>238</v>
-      </c>
-      <c r="D30" t="str">
-        <f t="shared" si="1"/>
-        <v>EE</v>
-      </c>
-      <c r="E30" t="str">
-        <f t="shared" si="2"/>
-        <v>32EAB</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
-        <v>165</v>
-      </c>
-      <c r="B31">
-        <f t="shared" si="0"/>
-        <v>6948</v>
-      </c>
-      <c r="C31">
-        <f t="shared" si="3"/>
-        <v>240</v>
-      </c>
-      <c r="D31" t="str">
-        <f t="shared" si="1"/>
-        <v>F0</v>
-      </c>
-      <c r="E31" t="str">
-        <f t="shared" si="2"/>
-        <v>32F99</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
-        <v>166</v>
-      </c>
-      <c r="B32">
-        <f t="shared" si="0"/>
-        <v>7198</v>
-      </c>
-      <c r="C32">
-        <f t="shared" si="3"/>
-        <v>250</v>
-      </c>
-      <c r="D32" t="str">
-        <f t="shared" si="1"/>
-        <v>FA</v>
-      </c>
-      <c r="E32" t="str">
-        <f t="shared" si="2"/>
-        <v>33089</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
-        <v>167</v>
-      </c>
-      <c r="B33">
-        <f t="shared" si="0"/>
-        <v>7210</v>
-      </c>
-      <c r="C33">
-        <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-      <c r="D33" t="str">
-        <f t="shared" si="1"/>
-        <v>C</v>
-      </c>
-      <c r="E33" t="str">
-        <f t="shared" si="2"/>
-        <v>33183</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A34" t="s">
-        <v>168</v>
-      </c>
-      <c r="B34">
-        <f t="shared" si="0"/>
-        <v>7446</v>
-      </c>
-      <c r="C34">
-        <f t="shared" si="3"/>
-        <v>236</v>
-      </c>
-      <c r="D34" t="str">
-        <f t="shared" si="1"/>
-        <v>EC</v>
-      </c>
-      <c r="E34" t="str">
-        <f t="shared" si="2"/>
-        <v>3318F</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A35" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="B35">
-        <f t="shared" si="0"/>
-        <v>7682</v>
-      </c>
-      <c r="C35">
-        <f t="shared" si="3"/>
-        <v>236</v>
-      </c>
-      <c r="D35" t="str">
-        <f t="shared" si="1"/>
-        <v>EC</v>
-      </c>
-      <c r="E35" t="str">
-        <f t="shared" si="2"/>
-        <v>3327B</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A36" t="s">
-        <v>169</v>
-      </c>
-      <c r="B36">
-        <f t="shared" si="0"/>
-        <v>7912</v>
-      </c>
-      <c r="C36">
-        <f t="shared" si="3"/>
-        <v>230</v>
-      </c>
-      <c r="D36" t="str">
-        <f t="shared" si="1"/>
-        <v>E6</v>
-      </c>
-      <c r="E36" t="str">
-        <f t="shared" si="2"/>
-        <v>33367</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A37" t="s">
-        <v>170</v>
-      </c>
-      <c r="B37">
-        <f t="shared" si="0"/>
-        <v>8148</v>
-      </c>
-      <c r="C37">
-        <f t="shared" si="3"/>
-        <v>236</v>
-      </c>
-      <c r="D37" t="str">
-        <f t="shared" si="1"/>
-        <v>EC</v>
-      </c>
-      <c r="E37" t="str">
-        <f t="shared" si="2"/>
-        <v>3344D</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A38" t="s">
-        <v>171</v>
-      </c>
-      <c r="B38">
-        <f t="shared" si="0"/>
-        <v>8392</v>
-      </c>
-      <c r="C38">
-        <f t="shared" si="3"/>
-        <v>244</v>
-      </c>
-      <c r="D38" t="str">
-        <f t="shared" si="1"/>
-        <v>F4</v>
-      </c>
-      <c r="E38" t="str">
-        <f t="shared" si="2"/>
-        <v>33539</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A39" t="s">
-        <v>172</v>
-      </c>
-      <c r="B39">
-        <f t="shared" si="0"/>
-        <v>8628</v>
-      </c>
-      <c r="C39">
-        <f t="shared" si="3"/>
-        <v>236</v>
-      </c>
-      <c r="D39" t="str">
-        <f t="shared" si="1"/>
-        <v>EC</v>
-      </c>
-      <c r="E39" t="str">
-        <f t="shared" si="2"/>
-        <v>3362D</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A40" t="s">
-        <v>173</v>
-      </c>
-      <c r="B40">
-        <f t="shared" si="0"/>
-        <v>8763</v>
-      </c>
-      <c r="C40">
-        <f t="shared" si="3"/>
-        <v>135</v>
-      </c>
-      <c r="D40" t="str">
-        <f t="shared" si="1"/>
-        <v>87</v>
-      </c>
-      <c r="E40" t="str">
-        <f t="shared" si="2"/>
-        <v>33719</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A41" t="s">
-        <v>174</v>
-      </c>
-      <c r="B41">
-        <f t="shared" si="0"/>
-        <v>8898</v>
-      </c>
-      <c r="C41">
-        <f t="shared" si="3"/>
-        <v>135</v>
-      </c>
-      <c r="D41" t="str">
-        <f t="shared" si="1"/>
-        <v>87</v>
-      </c>
-      <c r="E41" t="str">
-        <f t="shared" si="2"/>
-        <v>337A0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A42" t="s">
-        <v>175</v>
-      </c>
-      <c r="B42">
-        <f t="shared" si="0"/>
-        <v>9134</v>
-      </c>
-      <c r="C42">
-        <f t="shared" si="3"/>
-        <v>236</v>
-      </c>
-      <c r="D42" t="str">
-        <f t="shared" si="1"/>
-        <v>EC</v>
-      </c>
-      <c r="E42" t="str">
-        <f t="shared" si="2"/>
-        <v>33827</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A43">
-        <v>2498</v>
-      </c>
-      <c r="B43">
-        <f t="shared" si="0"/>
-        <v>9368</v>
-      </c>
-      <c r="C43">
-        <f t="shared" si="3"/>
-        <v>234</v>
-      </c>
-      <c r="D43" t="str">
-        <f t="shared" si="1"/>
-        <v>EA</v>
-      </c>
-      <c r="E43" t="str">
-        <f t="shared" si="2"/>
-        <v>33913</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X153"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
@@ -29306,7 +28419,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <f t="shared" ref="B5:G68" si="0">IFERROR(HEX2DEC(MID($A$1,A5+1,2)),B4)</f>
+        <f t="shared" ref="B5:B68" si="0">IFERROR(HEX2DEC(MID($A$1,A5+1,2)),B4)</f>
         <v>40</v>
       </c>
       <c r="C5">
@@ -32226,7 +31339,7 @@
     </row>
     <row r="151" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A151">
-        <f t="shared" ref="A151:A214" si="6">A150+4</f>
+        <f t="shared" ref="A151:A153" si="6">A150+4</f>
         <v>589</v>
       </c>
       <c r="B151">
@@ -32258,4 +31371,2500 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2">
+        <f>HEX2DEC(A2)</f>
+        <v>200</v>
+      </c>
+      <c r="C2">
+        <f>B2</f>
+        <v>200</v>
+      </c>
+      <c r="D2" t="str">
+        <f>DEC2HEX(C2)</f>
+        <v>C8</v>
+      </c>
+      <c r="E2" t="str">
+        <f>DEC2HEX(202085+B1)</f>
+        <v>31565</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B43" si="0">HEX2DEC(A3)</f>
+        <v>428</v>
+      </c>
+      <c r="C3">
+        <f>B3-B2</f>
+        <v>228</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D43" si="1">DEC2HEX(C3)</f>
+        <v>E4</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E43" si="2">DEC2HEX(202085+B2)</f>
+        <v>3162D</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>294</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>660</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C43" si="3">B4-B3</f>
+        <v>232</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="1"/>
+        <v>E8</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="2"/>
+        <v>31711</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>382</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>898</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="3"/>
+        <v>238</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="1"/>
+        <v>EE</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="2"/>
+        <v>317F9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>1132</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="3"/>
+        <v>234</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="1"/>
+        <v>EA</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="2"/>
+        <v>318E7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>568</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>1384</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="3"/>
+        <v>252</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="1"/>
+        <v>FC</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="2"/>
+        <v>319D1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>652</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>1618</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="3"/>
+        <v>234</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="1"/>
+        <v>EA</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="2"/>
+        <v>31ACD</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>748</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>1864</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="3"/>
+        <v>246</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="1"/>
+        <v>F6</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="2"/>
+        <v>31BB7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>2106</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="3"/>
+        <v>242</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="1"/>
+        <v>F2</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="2"/>
+        <v>31CAD</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>928</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>2344</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="3"/>
+        <v>238</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="1"/>
+        <v>EE</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="2"/>
+        <v>31D9F</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>152</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>2572</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="3"/>
+        <v>228</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="1"/>
+        <v>E4</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="2"/>
+        <v>31E8D</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>153</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>2800</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="3"/>
+        <v>228</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="1"/>
+        <v>E4</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="2"/>
+        <v>31F71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>154</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>3034</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="3"/>
+        <v>234</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="1"/>
+        <v>EA</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="2"/>
+        <v>32055</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>155</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>3268</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="3"/>
+        <v>234</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="1"/>
+        <v>EA</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="2"/>
+        <v>3213F</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>156</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>3520</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="3"/>
+        <v>252</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="1"/>
+        <v>FC</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="2"/>
+        <v>32229</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>3720</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="1"/>
+        <v>C8</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="2"/>
+        <v>32325</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>3948</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="3"/>
+        <v>228</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="1"/>
+        <v>E4</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="2"/>
+        <v>323ED</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>1050</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>4176</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="3"/>
+        <v>228</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="1"/>
+        <v>E4</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="2"/>
+        <v>324D1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>1134</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>4404</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="3"/>
+        <v>228</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="1"/>
+        <v>E4</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="2"/>
+        <v>325B5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>1222</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>4642</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="3"/>
+        <v>238</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="1"/>
+        <v>EE</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="2"/>
+        <v>32699</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>1306</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>4870</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="3"/>
+        <v>228</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="1"/>
+        <v>E4</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="2"/>
+        <v>32787</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>158</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>5110</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="3"/>
+        <v>240</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="1"/>
+        <v>F0</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="2"/>
+        <v>3286B</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>159</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>5360</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="3"/>
+        <v>250</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="1"/>
+        <v>FA</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="2"/>
+        <v>3295B</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>160</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>5598</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="3"/>
+        <v>238</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="1"/>
+        <v>EE</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="2"/>
+        <v>32A55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>161</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>5826</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="3"/>
+        <v>228</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="1"/>
+        <v>E4</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="2"/>
+        <v>32B43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>162</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>6030</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="3"/>
+        <v>204</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="1"/>
+        <v>CC</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="2"/>
+        <v>32C27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>163</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>6238</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="3"/>
+        <v>208</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="1"/>
+        <v>D0</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="2"/>
+        <v>32CF3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>1946</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>6470</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="3"/>
+        <v>232</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="1"/>
+        <v>E8</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="2"/>
+        <v>32DC3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>164</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>6708</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="3"/>
+        <v>238</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="1"/>
+        <v>EE</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="2"/>
+        <v>32EAB</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>165</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>6948</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="3"/>
+        <v>240</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="1"/>
+        <v>F0</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="2"/>
+        <v>32F99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>166</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>7198</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="3"/>
+        <v>250</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="1"/>
+        <v>FA</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="2"/>
+        <v>33089</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>167</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>7210</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="1"/>
+        <v>C</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="2"/>
+        <v>33183</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>168</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>7446</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="3"/>
+        <v>236</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="1"/>
+        <v>EC</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="2"/>
+        <v>3318F</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A35" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="0"/>
+        <v>7682</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="3"/>
+        <v>236</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="1"/>
+        <v>EC</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="2"/>
+        <v>3327B</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>169</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="0"/>
+        <v>7912</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="3"/>
+        <v>230</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="1"/>
+        <v>E6</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="2"/>
+        <v>33367</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>170</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="0"/>
+        <v>8148</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="3"/>
+        <v>236</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="1"/>
+        <v>EC</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="2"/>
+        <v>3344D</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>171</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="0"/>
+        <v>8392</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="3"/>
+        <v>244</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="1"/>
+        <v>F4</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="2"/>
+        <v>33539</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>172</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="0"/>
+        <v>8628</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="3"/>
+        <v>236</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="1"/>
+        <v>EC</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="2"/>
+        <v>3362D</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>173</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="0"/>
+        <v>8763</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="3"/>
+        <v>135</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="2"/>
+        <v>33719</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>174</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="0"/>
+        <v>8898</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="3"/>
+        <v>135</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="2"/>
+        <v>337A0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>175</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="0"/>
+        <v>9134</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="3"/>
+        <v>236</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="1"/>
+        <v>EC</v>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" si="2"/>
+        <v>33827</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A43">
+        <v>2498</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="0"/>
+        <v>9368</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="3"/>
+        <v>234</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="1"/>
+        <v>EA</v>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" si="2"/>
+        <v>33913</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AD17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:AD17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.265625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <v>0</v>
+      </c>
+      <c r="G1">
+        <v>0</v>
+      </c>
+      <c r="H1">
+        <v>0</v>
+      </c>
+      <c r="I1">
+        <v>0</v>
+      </c>
+      <c r="J1">
+        <v>0</v>
+      </c>
+      <c r="K1">
+        <v>0</v>
+      </c>
+      <c r="L1">
+        <v>0</v>
+      </c>
+      <c r="M1">
+        <v>0</v>
+      </c>
+      <c r="N1">
+        <v>0</v>
+      </c>
+      <c r="O1">
+        <v>0</v>
+      </c>
+      <c r="P1">
+        <v>0</v>
+      </c>
+      <c r="Q1">
+        <v>0</v>
+      </c>
+      <c r="R1">
+        <v>0</v>
+      </c>
+      <c r="S1">
+        <v>0</v>
+      </c>
+      <c r="T1">
+        <v>0</v>
+      </c>
+      <c r="U1">
+        <v>0</v>
+      </c>
+      <c r="V1">
+        <v>0</v>
+      </c>
+      <c r="W1">
+        <v>0</v>
+      </c>
+      <c r="X1">
+        <v>0</v>
+      </c>
+      <c r="Y1">
+        <v>0</v>
+      </c>
+      <c r="Z1">
+        <v>0</v>
+      </c>
+      <c r="AA1">
+        <v>0</v>
+      </c>
+      <c r="AB1">
+        <v>0</v>
+      </c>
+      <c r="AC1">
+        <v>0</v>
+      </c>
+      <c r="AD1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>1</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>1</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>1</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+      <c r="Z3">
+        <v>1</v>
+      </c>
+      <c r="AA3">
+        <v>1</v>
+      </c>
+      <c r="AB3">
+        <v>1</v>
+      </c>
+      <c r="AC3">
+        <v>1</v>
+      </c>
+      <c r="AD3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>2</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="V4">
+        <v>2</v>
+      </c>
+      <c r="W4">
+        <v>1</v>
+      </c>
+      <c r="X4">
+        <v>1</v>
+      </c>
+      <c r="Y4">
+        <v>2</v>
+      </c>
+      <c r="Z4">
+        <v>2</v>
+      </c>
+      <c r="AA4">
+        <v>1</v>
+      </c>
+      <c r="AB4">
+        <v>2</v>
+      </c>
+      <c r="AC4">
+        <v>1</v>
+      </c>
+      <c r="AD4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>2</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>2</v>
+      </c>
+      <c r="T5">
+        <v>2</v>
+      </c>
+      <c r="U5">
+        <v>1</v>
+      </c>
+      <c r="V5">
+        <v>2</v>
+      </c>
+      <c r="W5">
+        <v>2</v>
+      </c>
+      <c r="X5">
+        <v>1</v>
+      </c>
+      <c r="Y5">
+        <v>2</v>
+      </c>
+      <c r="Z5">
+        <v>2</v>
+      </c>
+      <c r="AA5">
+        <v>2</v>
+      </c>
+      <c r="AB5">
+        <v>2</v>
+      </c>
+      <c r="AC5">
+        <v>2</v>
+      </c>
+      <c r="AD5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>2</v>
+      </c>
+      <c r="N6">
+        <v>2</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>2</v>
+      </c>
+      <c r="Q6">
+        <v>2</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>3</v>
+      </c>
+      <c r="T6">
+        <v>2</v>
+      </c>
+      <c r="U6">
+        <v>2</v>
+      </c>
+      <c r="V6">
+        <v>2</v>
+      </c>
+      <c r="W6">
+        <v>2</v>
+      </c>
+      <c r="X6">
+        <v>2</v>
+      </c>
+      <c r="Y6">
+        <v>3</v>
+      </c>
+      <c r="Z6">
+        <v>2</v>
+      </c>
+      <c r="AA6">
+        <v>3</v>
+      </c>
+      <c r="AB6">
+        <v>2</v>
+      </c>
+      <c r="AC6">
+        <v>3</v>
+      </c>
+      <c r="AD6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>2</v>
+      </c>
+      <c r="N7">
+        <v>2</v>
+      </c>
+      <c r="O7">
+        <v>2</v>
+      </c>
+      <c r="P7">
+        <v>2</v>
+      </c>
+      <c r="Q7">
+        <v>2</v>
+      </c>
+      <c r="R7">
+        <v>2</v>
+      </c>
+      <c r="S7">
+        <v>3</v>
+      </c>
+      <c r="T7">
+        <v>2</v>
+      </c>
+      <c r="U7">
+        <v>3</v>
+      </c>
+      <c r="V7">
+        <v>2</v>
+      </c>
+      <c r="W7">
+        <v>3</v>
+      </c>
+      <c r="X7">
+        <v>2</v>
+      </c>
+      <c r="Y7">
+        <v>3</v>
+      </c>
+      <c r="Z7">
+        <v>3</v>
+      </c>
+      <c r="AA7">
+        <v>3</v>
+      </c>
+      <c r="AB7">
+        <v>3</v>
+      </c>
+      <c r="AC7">
+        <v>3</v>
+      </c>
+      <c r="AD7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>3</v>
+      </c>
+      <c r="N8">
+        <v>2</v>
+      </c>
+      <c r="O8">
+        <v>2</v>
+      </c>
+      <c r="P8">
+        <v>3</v>
+      </c>
+      <c r="Q8">
+        <v>2</v>
+      </c>
+      <c r="R8">
+        <v>2</v>
+      </c>
+      <c r="S8">
+        <v>3</v>
+      </c>
+      <c r="T8">
+        <v>3</v>
+      </c>
+      <c r="U8">
+        <v>3</v>
+      </c>
+      <c r="V8">
+        <v>3</v>
+      </c>
+      <c r="W8">
+        <v>3</v>
+      </c>
+      <c r="X8">
+        <v>3</v>
+      </c>
+      <c r="Y8">
+        <v>4</v>
+      </c>
+      <c r="Z8">
+        <v>3</v>
+      </c>
+      <c r="AA8">
+        <v>4</v>
+      </c>
+      <c r="AB8">
+        <v>3</v>
+      </c>
+      <c r="AC8">
+        <v>4</v>
+      </c>
+      <c r="AD8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>3</v>
+      </c>
+      <c r="N9">
+        <v>3</v>
+      </c>
+      <c r="O9">
+        <v>2</v>
+      </c>
+      <c r="P9">
+        <v>3</v>
+      </c>
+      <c r="Q9">
+        <v>3</v>
+      </c>
+      <c r="R9">
+        <v>2</v>
+      </c>
+      <c r="S9">
+        <v>4</v>
+      </c>
+      <c r="T9">
+        <v>3</v>
+      </c>
+      <c r="U9">
+        <v>3</v>
+      </c>
+      <c r="V9">
+        <v>4</v>
+      </c>
+      <c r="W9">
+        <v>3</v>
+      </c>
+      <c r="X9">
+        <v>3</v>
+      </c>
+      <c r="Y9">
+        <v>4</v>
+      </c>
+      <c r="Z9">
+        <v>4</v>
+      </c>
+      <c r="AA9">
+        <v>4</v>
+      </c>
+      <c r="AB9">
+        <v>4</v>
+      </c>
+      <c r="AC9">
+        <v>4</v>
+      </c>
+      <c r="AD9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>3</v>
+      </c>
+      <c r="N10">
+        <v>3</v>
+      </c>
+      <c r="O10">
+        <v>3</v>
+      </c>
+      <c r="P10">
+        <v>3</v>
+      </c>
+      <c r="Q10">
+        <v>3</v>
+      </c>
+      <c r="R10">
+        <v>3</v>
+      </c>
+      <c r="S10">
+        <v>4</v>
+      </c>
+      <c r="T10">
+        <v>4</v>
+      </c>
+      <c r="U10">
+        <v>4</v>
+      </c>
+      <c r="V10">
+        <v>4</v>
+      </c>
+      <c r="W10">
+        <v>4</v>
+      </c>
+      <c r="X10">
+        <v>3</v>
+      </c>
+      <c r="Y10">
+        <v>5</v>
+      </c>
+      <c r="Z10">
+        <v>4</v>
+      </c>
+      <c r="AA10">
+        <v>5</v>
+      </c>
+      <c r="AB10">
+        <v>4</v>
+      </c>
+      <c r="AC10">
+        <v>5</v>
+      </c>
+      <c r="AD10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>4</v>
+      </c>
+      <c r="N11">
+        <v>3</v>
+      </c>
+      <c r="O11">
+        <v>3</v>
+      </c>
+      <c r="P11">
+        <v>4</v>
+      </c>
+      <c r="Q11">
+        <v>3</v>
+      </c>
+      <c r="R11">
+        <v>3</v>
+      </c>
+      <c r="S11">
+        <v>5</v>
+      </c>
+      <c r="T11">
+        <v>4</v>
+      </c>
+      <c r="U11">
+        <v>4</v>
+      </c>
+      <c r="V11">
+        <v>4</v>
+      </c>
+      <c r="W11">
+        <v>4</v>
+      </c>
+      <c r="X11">
+        <v>4</v>
+      </c>
+      <c r="Y11">
+        <v>5</v>
+      </c>
+      <c r="Z11">
+        <v>5</v>
+      </c>
+      <c r="AA11">
+        <v>5</v>
+      </c>
+      <c r="AB11">
+        <v>5</v>
+      </c>
+      <c r="AC11">
+        <v>5</v>
+      </c>
+      <c r="AD11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>4</v>
+      </c>
+      <c r="N12">
+        <v>4</v>
+      </c>
+      <c r="O12">
+        <v>3</v>
+      </c>
+      <c r="P12">
+        <v>4</v>
+      </c>
+      <c r="Q12">
+        <v>4</v>
+      </c>
+      <c r="R12">
+        <v>3</v>
+      </c>
+      <c r="S12">
+        <v>5</v>
+      </c>
+      <c r="T12">
+        <v>5</v>
+      </c>
+      <c r="U12">
+        <v>4</v>
+      </c>
+      <c r="V12">
+        <v>5</v>
+      </c>
+      <c r="W12">
+        <v>5</v>
+      </c>
+      <c r="X12">
+        <v>4</v>
+      </c>
+      <c r="Y12">
+        <v>6</v>
+      </c>
+      <c r="Z12">
+        <v>5</v>
+      </c>
+      <c r="AA12">
+        <v>6</v>
+      </c>
+      <c r="AB12">
+        <v>5</v>
+      </c>
+      <c r="AC12">
+        <v>6</v>
+      </c>
+      <c r="AD12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>2</v>
+      </c>
+      <c r="M13">
+        <v>4</v>
+      </c>
+      <c r="N13">
+        <v>4</v>
+      </c>
+      <c r="O13">
+        <v>4</v>
+      </c>
+      <c r="P13">
+        <v>4</v>
+      </c>
+      <c r="Q13">
+        <v>4</v>
+      </c>
+      <c r="R13">
+        <v>4</v>
+      </c>
+      <c r="S13">
+        <v>5</v>
+      </c>
+      <c r="T13">
+        <v>5</v>
+      </c>
+      <c r="U13">
+        <v>5</v>
+      </c>
+      <c r="V13">
+        <v>5</v>
+      </c>
+      <c r="W13">
+        <v>5</v>
+      </c>
+      <c r="X13">
+        <v>5</v>
+      </c>
+      <c r="Y13">
+        <v>6</v>
+      </c>
+      <c r="Z13">
+        <v>6</v>
+      </c>
+      <c r="AA13">
+        <v>6</v>
+      </c>
+      <c r="AB13">
+        <v>6</v>
+      </c>
+      <c r="AC13">
+        <v>6</v>
+      </c>
+      <c r="AD13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+      <c r="J14">
+        <v>2</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>2</v>
+      </c>
+      <c r="M14">
+        <v>5</v>
+      </c>
+      <c r="N14">
+        <v>4</v>
+      </c>
+      <c r="O14">
+        <v>4</v>
+      </c>
+      <c r="P14">
+        <v>5</v>
+      </c>
+      <c r="Q14">
+        <v>4</v>
+      </c>
+      <c r="R14">
+        <v>4</v>
+      </c>
+      <c r="S14">
+        <v>6</v>
+      </c>
+      <c r="T14">
+        <v>5</v>
+      </c>
+      <c r="U14">
+        <v>6</v>
+      </c>
+      <c r="V14">
+        <v>5</v>
+      </c>
+      <c r="W14">
+        <v>6</v>
+      </c>
+      <c r="X14">
+        <v>5</v>
+      </c>
+      <c r="Y14">
+        <v>7</v>
+      </c>
+      <c r="Z14">
+        <v>6</v>
+      </c>
+      <c r="AA14">
+        <v>7</v>
+      </c>
+      <c r="AB14">
+        <v>6</v>
+      </c>
+      <c r="AC14">
+        <v>7</v>
+      </c>
+      <c r="AD14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="J15">
+        <v>3</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>2</v>
+      </c>
+      <c r="M15">
+        <v>5</v>
+      </c>
+      <c r="N15">
+        <v>5</v>
+      </c>
+      <c r="O15">
+        <v>4</v>
+      </c>
+      <c r="P15">
+        <v>5</v>
+      </c>
+      <c r="Q15">
+        <v>5</v>
+      </c>
+      <c r="R15">
+        <v>4</v>
+      </c>
+      <c r="S15">
+        <v>6</v>
+      </c>
+      <c r="T15">
+        <v>6</v>
+      </c>
+      <c r="U15">
+        <v>6</v>
+      </c>
+      <c r="V15">
+        <v>6</v>
+      </c>
+      <c r="W15">
+        <v>6</v>
+      </c>
+      <c r="X15">
+        <v>5</v>
+      </c>
+      <c r="Y15">
+        <v>7</v>
+      </c>
+      <c r="Z15">
+        <v>7</v>
+      </c>
+      <c r="AA15">
+        <v>7</v>
+      </c>
+      <c r="AB15">
+        <v>7</v>
+      </c>
+      <c r="AC15">
+        <v>7</v>
+      </c>
+      <c r="AD15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16">
+        <v>3</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>2</v>
+      </c>
+      <c r="M16">
+        <v>5</v>
+      </c>
+      <c r="N16">
+        <v>5</v>
+      </c>
+      <c r="O16">
+        <v>5</v>
+      </c>
+      <c r="P16">
+        <v>5</v>
+      </c>
+      <c r="Q16">
+        <v>5</v>
+      </c>
+      <c r="R16">
+        <v>5</v>
+      </c>
+      <c r="S16">
+        <v>7</v>
+      </c>
+      <c r="T16">
+        <v>6</v>
+      </c>
+      <c r="U16">
+        <v>6</v>
+      </c>
+      <c r="V16">
+        <v>7</v>
+      </c>
+      <c r="W16">
+        <v>6</v>
+      </c>
+      <c r="X16">
+        <v>6</v>
+      </c>
+      <c r="Y16">
+        <v>8</v>
+      </c>
+      <c r="Z16">
+        <v>7</v>
+      </c>
+      <c r="AA16">
+        <v>8</v>
+      </c>
+      <c r="AB16">
+        <v>7</v>
+      </c>
+      <c r="AC16">
+        <v>8</v>
+      </c>
+      <c r="AD16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="H17">
+        <v>3</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17">
+        <v>3</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>2</v>
+      </c>
+      <c r="M17">
+        <v>6</v>
+      </c>
+      <c r="N17">
+        <v>5</v>
+      </c>
+      <c r="O17">
+        <v>5</v>
+      </c>
+      <c r="P17">
+        <v>6</v>
+      </c>
+      <c r="Q17">
+        <v>5</v>
+      </c>
+      <c r="R17">
+        <v>5</v>
+      </c>
+      <c r="S17">
+        <v>7</v>
+      </c>
+      <c r="T17">
+        <v>7</v>
+      </c>
+      <c r="U17">
+        <v>6</v>
+      </c>
+      <c r="V17">
+        <v>7</v>
+      </c>
+      <c r="W17">
+        <v>7</v>
+      </c>
+      <c r="X17">
+        <v>6</v>
+      </c>
+      <c r="Y17">
+        <v>8</v>
+      </c>
+      <c r="Z17">
+        <v>8</v>
+      </c>
+      <c r="AA17">
+        <v>8</v>
+      </c>
+      <c r="AB17">
+        <v>8</v>
+      </c>
+      <c r="AC17">
+        <v>8</v>
+      </c>
+      <c r="AD17">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:AD17">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>